--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,24 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['10', '74']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -470,6 +488,21 @@
   </si>
   <si>
     <t>['51', '56']</t>
+  </si>
+  <si>
+    <t>['3', '33', '42', '76']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['53', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1296,7 +1329,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1580,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -1789,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1914,7 +1947,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -1995,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2326,7 +2359,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2610,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -2738,7 +2771,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -2819,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3150,7 +3183,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3228,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.67</v>
@@ -3356,7 +3389,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3437,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -3849,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4055,7 +4088,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4258,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4464,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4670,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4798,7 +4831,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5004,7 +5037,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5082,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5210,7 +5243,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5291,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5416,7 +5449,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5703,7 +5736,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5828,7 +5861,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -5906,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6112,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6240,7 +6273,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6318,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6652,7 +6685,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6730,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -6858,7 +6891,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -6939,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7064,7 +7097,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7142,10 +7175,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7270,7 +7303,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7348,10 +7381,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7557,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -7682,7 +7715,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2.82</v>
@@ -7760,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -7888,7 +7921,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -7969,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8094,7 +8127,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8175,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8584,10 +8617,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -8712,7 +8745,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -8790,10 +8823,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -8918,7 +8951,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9124,7 +9157,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9202,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>2.33</v>
@@ -10154,7 +10187,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10644,10 +10677,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.94</v>
@@ -10772,7 +10805,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10978,7 +11011,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11184,7 +11217,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11341,6 +11374,2066 @@
       </c>
       <c r="BP51">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7330982</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>92</v>
+      </c>
+      <c r="P52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q52">
+        <v>3.6</v>
+      </c>
+      <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>3.1</v>
+      </c>
+      <c r="T52">
+        <v>1.44</v>
+      </c>
+      <c r="U52">
+        <v>2.63</v>
+      </c>
+      <c r="V52">
+        <v>3.25</v>
+      </c>
+      <c r="W52">
+        <v>1.33</v>
+      </c>
+      <c r="X52">
+        <v>9</v>
+      </c>
+      <c r="Y52">
+        <v>1.07</v>
+      </c>
+      <c r="Z52">
+        <v>3.1</v>
+      </c>
+      <c r="AA52">
+        <v>3.2</v>
+      </c>
+      <c r="AB52">
+        <v>2.1</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>8</v>
+      </c>
+      <c r="AE52">
+        <v>1.33</v>
+      </c>
+      <c r="AF52">
+        <v>3.1</v>
+      </c>
+      <c r="AG52">
+        <v>1.9</v>
+      </c>
+      <c r="AH52">
+        <v>1.8</v>
+      </c>
+      <c r="AI52">
+        <v>1.83</v>
+      </c>
+      <c r="AJ52">
+        <v>1.83</v>
+      </c>
+      <c r="AK52">
+        <v>1.52</v>
+      </c>
+      <c r="AL52">
+        <v>1.27</v>
+      </c>
+      <c r="AM52">
+        <v>1.3</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>0.5</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>1.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.48</v>
+      </c>
+      <c r="AS52">
+        <v>1.42</v>
+      </c>
+      <c r="AT52">
+        <v>2.9</v>
+      </c>
+      <c r="AU52">
+        <v>3</v>
+      </c>
+      <c r="AV52">
+        <v>12</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
+        <v>13</v>
+      </c>
+      <c r="AY52">
+        <v>4</v>
+      </c>
+      <c r="AZ52">
+        <v>25</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>16</v>
+      </c>
+      <c r="BC52">
+        <v>18</v>
+      </c>
+      <c r="BD52">
+        <v>2.33</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>1.82</v>
+      </c>
+      <c r="BG52">
+        <v>1.28</v>
+      </c>
+      <c r="BH52">
+        <v>3.4</v>
+      </c>
+      <c r="BI52">
+        <v>1.44</v>
+      </c>
+      <c r="BJ52">
+        <v>2.6</v>
+      </c>
+      <c r="BK52">
+        <v>1.85</v>
+      </c>
+      <c r="BL52">
+        <v>1.95</v>
+      </c>
+      <c r="BM52">
+        <v>2.35</v>
+      </c>
+      <c r="BN52">
+        <v>1.52</v>
+      </c>
+      <c r="BO52">
+        <v>3.2</v>
+      </c>
+      <c r="BP52">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7330981</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>2.05</v>
+      </c>
+      <c r="S53">
+        <v>3.3</v>
+      </c>
+      <c r="T53">
+        <v>1.38</v>
+      </c>
+      <c r="U53">
+        <v>2.8</v>
+      </c>
+      <c r="V53">
+        <v>2.7</v>
+      </c>
+      <c r="W53">
+        <v>1.4</v>
+      </c>
+      <c r="X53">
+        <v>6.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>2.7</v>
+      </c>
+      <c r="AA53">
+        <v>3.2</v>
+      </c>
+      <c r="AB53">
+        <v>2.38</v>
+      </c>
+      <c r="AC53">
+        <v>1.05</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.28</v>
+      </c>
+      <c r="AF53">
+        <v>3.4</v>
+      </c>
+      <c r="AG53">
+        <v>1.96</v>
+      </c>
+      <c r="AH53">
+        <v>1.88</v>
+      </c>
+      <c r="AI53">
+        <v>1.65</v>
+      </c>
+      <c r="AJ53">
+        <v>2.05</v>
+      </c>
+      <c r="AK53">
+        <v>1.35</v>
+      </c>
+      <c r="AL53">
+        <v>1.28</v>
+      </c>
+      <c r="AM53">
+        <v>1.44</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>3</v>
+      </c>
+      <c r="AP53">
+        <v>1.33</v>
+      </c>
+      <c r="AQ53">
+        <v>2.5</v>
+      </c>
+      <c r="AR53">
+        <v>1.25</v>
+      </c>
+      <c r="AS53">
+        <v>1.67</v>
+      </c>
+      <c r="AT53">
+        <v>2.92</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>12</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>18</v>
+      </c>
+      <c r="AZ53">
+        <v>8</v>
+      </c>
+      <c r="BA53">
+        <v>11</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>14</v>
+      </c>
+      <c r="BD53">
+        <v>2.8</v>
+      </c>
+      <c r="BE53">
+        <v>8</v>
+      </c>
+      <c r="BF53">
+        <v>1.59</v>
+      </c>
+      <c r="BG53">
+        <v>1.29</v>
+      </c>
+      <c r="BH53">
+        <v>3.4</v>
+      </c>
+      <c r="BI53">
+        <v>1.48</v>
+      </c>
+      <c r="BJ53">
+        <v>2.56</v>
+      </c>
+      <c r="BK53">
+        <v>1.76</v>
+      </c>
+      <c r="BL53">
+        <v>2.02</v>
+      </c>
+      <c r="BM53">
+        <v>2.2</v>
+      </c>
+      <c r="BN53">
+        <v>1.65</v>
+      </c>
+      <c r="BO53">
+        <v>2.7</v>
+      </c>
+      <c r="BP53">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7330979</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>128</v>
+      </c>
+      <c r="P54" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>3.6</v>
+      </c>
+      <c r="T54">
+        <v>1.4</v>
+      </c>
+      <c r="U54">
+        <v>2.75</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>1.08</v>
+      </c>
+      <c r="Z54">
+        <v>2.2</v>
+      </c>
+      <c r="AA54">
+        <v>3.25</v>
+      </c>
+      <c r="AB54">
+        <v>2.88</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.3</v>
+      </c>
+      <c r="AF54">
+        <v>3.2</v>
+      </c>
+      <c r="AG54">
+        <v>2.06</v>
+      </c>
+      <c r="AH54">
+        <v>1.78</v>
+      </c>
+      <c r="AI54">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54">
+        <v>1.91</v>
+      </c>
+      <c r="AK54">
+        <v>1.4</v>
+      </c>
+      <c r="AL54">
+        <v>1.33</v>
+      </c>
+      <c r="AM54">
+        <v>1.57</v>
+      </c>
+      <c r="AN54">
+        <v>0.33</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>1.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.41</v>
+      </c>
+      <c r="AS54">
+        <v>1.6</v>
+      </c>
+      <c r="AT54">
+        <v>3.01</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>8</v>
+      </c>
+      <c r="AW54">
+        <v>5</v>
+      </c>
+      <c r="AX54">
+        <v>12</v>
+      </c>
+      <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>20</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>6</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>2.05</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2</v>
+      </c>
+      <c r="BG54">
+        <v>1.32</v>
+      </c>
+      <c r="BH54">
+        <v>3.1</v>
+      </c>
+      <c r="BI54">
+        <v>1.55</v>
+      </c>
+      <c r="BJ54">
+        <v>2.3</v>
+      </c>
+      <c r="BK54">
+        <v>2</v>
+      </c>
+      <c r="BL54">
+        <v>1.8</v>
+      </c>
+      <c r="BM54">
+        <v>2.52</v>
+      </c>
+      <c r="BN54">
+        <v>1.46</v>
+      </c>
+      <c r="BO54">
+        <v>3.2</v>
+      </c>
+      <c r="BP54">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7330978</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>129</v>
+      </c>
+      <c r="P55" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q55">
+        <v>2.25</v>
+      </c>
+      <c r="R55">
+        <v>2.1</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>1.45</v>
+      </c>
+      <c r="U55">
+        <v>2.6</v>
+      </c>
+      <c r="V55">
+        <v>3.1</v>
+      </c>
+      <c r="W55">
+        <v>1.33</v>
+      </c>
+      <c r="X55">
+        <v>7.6</v>
+      </c>
+      <c r="Y55">
+        <v>1.05</v>
+      </c>
+      <c r="Z55">
+        <v>1.57</v>
+      </c>
+      <c r="AA55">
+        <v>3.6</v>
+      </c>
+      <c r="AB55">
+        <v>5</v>
+      </c>
+      <c r="AC55">
+        <v>1.05</v>
+      </c>
+      <c r="AD55">
+        <v>8.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.36</v>
+      </c>
+      <c r="AF55">
+        <v>3</v>
+      </c>
+      <c r="AG55">
+        <v>1.94</v>
+      </c>
+      <c r="AH55">
+        <v>1.76</v>
+      </c>
+      <c r="AI55">
+        <v>2.05</v>
+      </c>
+      <c r="AJ55">
+        <v>1.72</v>
+      </c>
+      <c r="AK55">
+        <v>1.1</v>
+      </c>
+      <c r="AL55">
+        <v>1.2</v>
+      </c>
+      <c r="AM55">
+        <v>2.2</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>3</v>
+      </c>
+      <c r="AQ55">
+        <v>0.75</v>
+      </c>
+      <c r="AR55">
+        <v>2.2</v>
+      </c>
+      <c r="AS55">
+        <v>1.68</v>
+      </c>
+      <c r="AT55">
+        <v>3.88</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>13</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>17</v>
+      </c>
+      <c r="AZ55">
+        <v>8</v>
+      </c>
+      <c r="BA55">
+        <v>8</v>
+      </c>
+      <c r="BB55">
+        <v>1</v>
+      </c>
+      <c r="BC55">
+        <v>9</v>
+      </c>
+      <c r="BD55">
+        <v>1.59</v>
+      </c>
+      <c r="BE55">
+        <v>8.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.78</v>
+      </c>
+      <c r="BG55">
+        <v>1.18</v>
+      </c>
+      <c r="BH55">
+        <v>4.33</v>
+      </c>
+      <c r="BI55">
+        <v>1.3</v>
+      </c>
+      <c r="BJ55">
+        <v>3.2</v>
+      </c>
+      <c r="BK55">
+        <v>1.51</v>
+      </c>
+      <c r="BL55">
+        <v>2.48</v>
+      </c>
+      <c r="BM55">
+        <v>1.85</v>
+      </c>
+      <c r="BN55">
+        <v>1.95</v>
+      </c>
+      <c r="BO55">
+        <v>2.29</v>
+      </c>
+      <c r="BP55">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7330980</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q56">
+        <v>2.5</v>
+      </c>
+      <c r="R56">
+        <v>2.1</v>
+      </c>
+      <c r="S56">
+        <v>4.75</v>
+      </c>
+      <c r="T56">
+        <v>1.44</v>
+      </c>
+      <c r="U56">
+        <v>2.63</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>1.36</v>
+      </c>
+      <c r="X56">
+        <v>9</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>2.1</v>
+      </c>
+      <c r="AA56">
+        <v>3.2</v>
+      </c>
+      <c r="AB56">
+        <v>3.1</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.35</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>1.94</v>
+      </c>
+      <c r="AH56">
+        <v>1.76</v>
+      </c>
+      <c r="AI56">
+        <v>1.91</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.26</v>
+      </c>
+      <c r="AL56">
+        <v>1.28</v>
+      </c>
+      <c r="AM56">
+        <v>1.55</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.33</v>
+      </c>
+      <c r="AQ56">
+        <v>1.33</v>
+      </c>
+      <c r="AR56">
+        <v>1.41</v>
+      </c>
+      <c r="AS56">
+        <v>1.89</v>
+      </c>
+      <c r="AT56">
+        <v>3.3</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>9</v>
+      </c>
+      <c r="AX56">
+        <v>8</v>
+      </c>
+      <c r="AY56">
+        <v>16</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>8</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>9</v>
+      </c>
+      <c r="BD56">
+        <v>1.51</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>3.16</v>
+      </c>
+      <c r="BG56">
+        <v>1.27</v>
+      </c>
+      <c r="BH56">
+        <v>3.4</v>
+      </c>
+      <c r="BI56">
+        <v>1.45</v>
+      </c>
+      <c r="BJ56">
+        <v>2.55</v>
+      </c>
+      <c r="BK56">
+        <v>1.8</v>
+      </c>
+      <c r="BL56">
+        <v>2</v>
+      </c>
+      <c r="BM56">
+        <v>2.32</v>
+      </c>
+      <c r="BN56">
+        <v>1.54</v>
+      </c>
+      <c r="BO56">
+        <v>3.1</v>
+      </c>
+      <c r="BP56">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7330976</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q57">
+        <v>4.33</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>2.5</v>
+      </c>
+      <c r="T57">
+        <v>1.43</v>
+      </c>
+      <c r="U57">
+        <v>2.65</v>
+      </c>
+      <c r="V57">
+        <v>2.85</v>
+      </c>
+      <c r="W57">
+        <v>1.36</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>4.2</v>
+      </c>
+      <c r="AA57">
+        <v>3.4</v>
+      </c>
+      <c r="AB57">
+        <v>1.73</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>8.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.3</v>
+      </c>
+      <c r="AF57">
+        <v>3.3</v>
+      </c>
+      <c r="AG57">
+        <v>2.03</v>
+      </c>
+      <c r="AH57">
+        <v>1.85</v>
+      </c>
+      <c r="AI57">
+        <v>1.83</v>
+      </c>
+      <c r="AJ57">
+        <v>1.9</v>
+      </c>
+      <c r="AK57">
+        <v>1.85</v>
+      </c>
+      <c r="AL57">
+        <v>1.25</v>
+      </c>
+      <c r="AM57">
+        <v>1.18</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1.5</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1.33</v>
+      </c>
+      <c r="AR57">
+        <v>1.4</v>
+      </c>
+      <c r="AS57">
+        <v>1.88</v>
+      </c>
+      <c r="AT57">
+        <v>3.28</v>
+      </c>
+      <c r="AU57">
+        <v>5</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>8</v>
+      </c>
+      <c r="AX57">
+        <v>7</v>
+      </c>
+      <c r="AY57">
+        <v>13</v>
+      </c>
+      <c r="AZ57">
+        <v>13</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>2.62</v>
+      </c>
+      <c r="BE57">
+        <v>8</v>
+      </c>
+      <c r="BF57">
+        <v>1.69</v>
+      </c>
+      <c r="BG57">
+        <v>1.33</v>
+      </c>
+      <c r="BH57">
+        <v>3</v>
+      </c>
+      <c r="BI57">
+        <v>1.58</v>
+      </c>
+      <c r="BJ57">
+        <v>2.33</v>
+      </c>
+      <c r="BK57">
+        <v>1.95</v>
+      </c>
+      <c r="BL57">
+        <v>1.85</v>
+      </c>
+      <c r="BM57">
+        <v>2.47</v>
+      </c>
+      <c r="BN57">
+        <v>1.52</v>
+      </c>
+      <c r="BO57">
+        <v>3.2</v>
+      </c>
+      <c r="BP57">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7330975</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>92</v>
+      </c>
+      <c r="P58" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q58">
+        <v>3.1</v>
+      </c>
+      <c r="R58">
+        <v>2.05</v>
+      </c>
+      <c r="S58">
+        <v>3.25</v>
+      </c>
+      <c r="T58">
+        <v>1.4</v>
+      </c>
+      <c r="U58">
+        <v>2.75</v>
+      </c>
+      <c r="V58">
+        <v>2.7</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>6.6</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>2.45</v>
+      </c>
+      <c r="AA58">
+        <v>3.25</v>
+      </c>
+      <c r="AB58">
+        <v>2.6</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>8.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.28</v>
+      </c>
+      <c r="AF58">
+        <v>3.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.98</v>
+      </c>
+      <c r="AH58">
+        <v>1.9</v>
+      </c>
+      <c r="AI58">
+        <v>1.68</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>1.38</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.42</v>
+      </c>
+      <c r="AN58">
+        <v>2</v>
+      </c>
+      <c r="AO58">
+        <v>2</v>
+      </c>
+      <c r="AP58">
+        <v>1.67</v>
+      </c>
+      <c r="AQ58">
+        <v>1.75</v>
+      </c>
+      <c r="AR58">
+        <v>1.7</v>
+      </c>
+      <c r="AS58">
+        <v>0.98</v>
+      </c>
+      <c r="AT58">
+        <v>2.68</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>5</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>9</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>8</v>
+      </c>
+      <c r="BC58">
+        <v>12</v>
+      </c>
+      <c r="BD58">
+        <v>1.64</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.67</v>
+      </c>
+      <c r="BG58">
+        <v>1.25</v>
+      </c>
+      <c r="BH58">
+        <v>3.6</v>
+      </c>
+      <c r="BI58">
+        <v>1.42</v>
+      </c>
+      <c r="BJ58">
+        <v>2.62</v>
+      </c>
+      <c r="BK58">
+        <v>1.71</v>
+      </c>
+      <c r="BL58">
+        <v>2.11</v>
+      </c>
+      <c r="BM58">
+        <v>2.14</v>
+      </c>
+      <c r="BN58">
+        <v>1.69</v>
+      </c>
+      <c r="BO58">
+        <v>2.62</v>
+      </c>
+      <c r="BP58">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7330974</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q59">
+        <v>2.4</v>
+      </c>
+      <c r="R59">
+        <v>2.1</v>
+      </c>
+      <c r="S59">
+        <v>4.33</v>
+      </c>
+      <c r="T59">
+        <v>1.4</v>
+      </c>
+      <c r="U59">
+        <v>2.75</v>
+      </c>
+      <c r="V59">
+        <v>2.8</v>
+      </c>
+      <c r="W59">
+        <v>1.38</v>
+      </c>
+      <c r="X59">
+        <v>7</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>1.8</v>
+      </c>
+      <c r="AA59">
+        <v>3.4</v>
+      </c>
+      <c r="AB59">
+        <v>3.9</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE59">
+        <v>1.36</v>
+      </c>
+      <c r="AF59">
+        <v>3.17</v>
+      </c>
+      <c r="AG59">
+        <v>2.08</v>
+      </c>
+      <c r="AH59">
+        <v>1.8</v>
+      </c>
+      <c r="AI59">
+        <v>1.77</v>
+      </c>
+      <c r="AJ59">
+        <v>1.85</v>
+      </c>
+      <c r="AK59">
+        <v>1.18</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.9</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>1.5</v>
+      </c>
+      <c r="AP59">
+        <v>1.67</v>
+      </c>
+      <c r="AQ59">
+        <v>1.33</v>
+      </c>
+      <c r="AR59">
+        <v>1.62</v>
+      </c>
+      <c r="AS59">
+        <v>1.22</v>
+      </c>
+      <c r="AT59">
+        <v>2.84</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>8</v>
+      </c>
+      <c r="AX59">
+        <v>7</v>
+      </c>
+      <c r="AY59">
+        <v>15</v>
+      </c>
+      <c r="AZ59">
+        <v>12</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>7</v>
+      </c>
+      <c r="BD59">
+        <v>1.37</v>
+      </c>
+      <c r="BE59">
+        <v>9</v>
+      </c>
+      <c r="BF59">
+        <v>3.83</v>
+      </c>
+      <c r="BG59">
+        <v>1.38</v>
+      </c>
+      <c r="BH59">
+        <v>2.8</v>
+      </c>
+      <c r="BI59">
+        <v>1.63</v>
+      </c>
+      <c r="BJ59">
+        <v>2.22</v>
+      </c>
+      <c r="BK59">
+        <v>2.05</v>
+      </c>
+      <c r="BL59">
+        <v>1.75</v>
+      </c>
+      <c r="BM59">
+        <v>2.5</v>
+      </c>
+      <c r="BN59">
+        <v>1.48</v>
+      </c>
+      <c r="BO59">
+        <v>3.3</v>
+      </c>
+      <c r="BP59">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7330977</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45375.08333333334</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>131</v>
+      </c>
+      <c r="P60" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q60">
+        <v>3.75</v>
+      </c>
+      <c r="R60">
+        <v>1.9</v>
+      </c>
+      <c r="S60">
+        <v>3.1</v>
+      </c>
+      <c r="T60">
+        <v>1.54</v>
+      </c>
+      <c r="U60">
+        <v>2.36</v>
+      </c>
+      <c r="V60">
+        <v>3.45</v>
+      </c>
+      <c r="W60">
+        <v>1.25</v>
+      </c>
+      <c r="X60">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>1.03</v>
+      </c>
+      <c r="Z60">
+        <v>2.9</v>
+      </c>
+      <c r="AA60">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <v>2.3</v>
+      </c>
+      <c r="AC60">
+        <v>1.1</v>
+      </c>
+      <c r="AD60">
+        <v>6.25</v>
+      </c>
+      <c r="AE60">
+        <v>1.47</v>
+      </c>
+      <c r="AF60">
+        <v>2.55</v>
+      </c>
+      <c r="AG60">
+        <v>2.45</v>
+      </c>
+      <c r="AH60">
+        <v>1.48</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
+        <v>1.75</v>
+      </c>
+      <c r="AK60">
+        <v>1.47</v>
+      </c>
+      <c r="AL60">
+        <v>1.3</v>
+      </c>
+      <c r="AM60">
+        <v>1.3</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>1.5</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>0.89</v>
+      </c>
+      <c r="AS60">
+        <v>1.34</v>
+      </c>
+      <c r="AT60">
+        <v>2.23</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>9</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>14</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>2.54</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>1.69</v>
+      </c>
+      <c r="BG60">
+        <v>1.25</v>
+      </c>
+      <c r="BH60">
+        <v>3.6</v>
+      </c>
+      <c r="BI60">
+        <v>1.42</v>
+      </c>
+      <c r="BJ60">
+        <v>2.62</v>
+      </c>
+      <c r="BK60">
+        <v>1.73</v>
+      </c>
+      <c r="BL60">
+        <v>2.09</v>
+      </c>
+      <c r="BM60">
+        <v>2.16</v>
+      </c>
+      <c r="BN60">
+        <v>1.68</v>
+      </c>
+      <c r="BO60">
+        <v>2.62</v>
+      </c>
+      <c r="BP60">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7330983</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45375.20833333334</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q61">
+        <v>4.75</v>
+      </c>
+      <c r="R61">
+        <v>2.05</v>
+      </c>
+      <c r="S61">
+        <v>2.38</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>2.6</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>7.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.07</v>
+      </c>
+      <c r="Z61">
+        <v>4.4</v>
+      </c>
+      <c r="AA61">
+        <v>3.4</v>
+      </c>
+      <c r="AB61">
+        <v>1.7</v>
+      </c>
+      <c r="AC61">
+        <v>1.06</v>
+      </c>
+      <c r="AD61">
+        <v>8</v>
+      </c>
+      <c r="AE61">
+        <v>1.36</v>
+      </c>
+      <c r="AF61">
+        <v>3</v>
+      </c>
+      <c r="AG61">
+        <v>1.93</v>
+      </c>
+      <c r="AH61">
+        <v>1.75</v>
+      </c>
+      <c r="AI61">
+        <v>1.93</v>
+      </c>
+      <c r="AJ61">
+        <v>1.73</v>
+      </c>
+      <c r="AK61">
+        <v>1.8</v>
+      </c>
+      <c r="AL61">
+        <v>1.24</v>
+      </c>
+      <c r="AM61">
+        <v>1.17</v>
+      </c>
+      <c r="AN61">
+        <v>0.33</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>0.25</v>
+      </c>
+      <c r="AQ61">
+        <v>2.33</v>
+      </c>
+      <c r="AR61">
+        <v>1.14</v>
+      </c>
+      <c r="AS61">
+        <v>1.5</v>
+      </c>
+      <c r="AT61">
+        <v>2.64</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>1</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>4</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>2</v>
+      </c>
+      <c r="BD61">
+        <v>2.33</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>1.82</v>
+      </c>
+      <c r="BG61">
+        <v>1.31</v>
+      </c>
+      <c r="BH61">
+        <v>3.1</v>
+      </c>
+      <c r="BI61">
+        <v>1.48</v>
+      </c>
+      <c r="BJ61">
+        <v>2.47</v>
+      </c>
+      <c r="BK61">
+        <v>2</v>
+      </c>
+      <c r="BL61">
+        <v>1.8</v>
+      </c>
+      <c r="BM61">
+        <v>2.47</v>
+      </c>
+      <c r="BN61">
+        <v>1.48</v>
+      </c>
+      <c r="BO61">
+        <v>3.2</v>
+      </c>
+      <c r="BP61">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -9330,7 +9330,7 @@
         <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -9456,22 +9456,22 @@
         <v>3.46</v>
       </c>
       <c r="AU42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
         <v>4</v>
       </c>
-      <c r="AW42">
-        <v>6</v>
-      </c>
       <c r="AX42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY42">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA42">
         <v>9</v>
@@ -9536,7 +9536,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -9662,19 +9662,19 @@
         <v>3.52</v>
       </c>
       <c r="AU43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV43">
         <v>4</v>
       </c>
       <c r="AW43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX43">
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ43">
         <v>8</v>
@@ -9742,7 +9742,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -9868,19 +9868,19 @@
         <v>2.39</v>
       </c>
       <c r="AU44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV44">
         <v>2</v>
       </c>
       <c r="AW44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX44">
         <v>5</v>
       </c>
       <c r="AY44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AZ44">
         <v>7</v>
@@ -9948,7 +9948,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -10074,22 +10074,22 @@
         <v>2.77</v>
       </c>
       <c r="AU45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV45">
         <v>7</v>
       </c>
       <c r="AW45">
+        <v>2</v>
+      </c>
+      <c r="AX45">
         <v>7</v>
       </c>
-      <c r="AX45">
-        <v>12</v>
-      </c>
       <c r="AY45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AZ45">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -10154,7 +10154,7 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -10280,22 +10280,22 @@
         <v>2.89</v>
       </c>
       <c r="AU46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX46">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AY46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA46">
         <v>1</v>
@@ -10360,7 +10360,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -10486,22 +10486,22 @@
         <v>2.32</v>
       </c>
       <c r="AU47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV47">
         <v>5</v>
       </c>
       <c r="AW47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AZ47">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA47">
         <v>10</v>
@@ -10566,7 +10566,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -10692,16 +10692,16 @@
         <v>3.89</v>
       </c>
       <c r="AU48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY48">
         <v>9</v>
@@ -10772,7 +10772,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45371.08541666667</v>
+        <v>45371.08333333334</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -10901,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="AV49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW49">
         <v>2</v>
@@ -10913,7 +10913,7 @@
         <v>4</v>
       </c>
       <c r="AZ49">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -10978,7 +10978,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45371.12708333333</v>
+        <v>45371.125</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -11107,19 +11107,19 @@
         <v>2</v>
       </c>
       <c r="AV50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX50">
+        <v>8</v>
+      </c>
+      <c r="AY50">
+        <v>8</v>
+      </c>
+      <c r="AZ50">
         <v>12</v>
-      </c>
-      <c r="AY50">
-        <v>12</v>
-      </c>
-      <c r="AZ50">
-        <v>17</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11184,7 +11184,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45371.16180555556</v>
+        <v>45371.15972222222</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -11313,19 +11313,19 @@
         <v>3</v>
       </c>
       <c r="AV51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW51">
+        <v>8</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>11</v>
+      </c>
+      <c r="AZ51">
         <v>7</v>
-      </c>
-      <c r="AX51">
-        <v>3</v>
-      </c>
-      <c r="AY51">
-        <v>10</v>
-      </c>
-      <c r="AZ51">
-        <v>8</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -11922,10 +11922,10 @@
         <v>1.41</v>
       </c>
       <c r="AS54">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AT54">
-        <v>3.01</v>
+        <v>3.36</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12949,13 +12949,13 @@
         <v>1.33</v>
       </c>
       <c r="AR59">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="AS59">
         <v>1.22</v>
       </c>
       <c r="AT59">
-        <v>2.84</v>
+        <v>3.16</v>
       </c>
       <c r="AU59">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,18 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['34', '88']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['47', '72', '88']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -460,9 +472,6 @@
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['9', '90+6']</t>
   </si>
   <si>
@@ -503,6 +512,15 @@
   </si>
   <si>
     <t>['53', '90+4']</t>
+  </si>
+  <si>
+    <t>['50', '79']</t>
+  </si>
+  <si>
+    <t>['57', '62']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1329,7 +1347,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1407,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1616,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1819,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -1947,7 +1965,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2359,7 +2377,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2437,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2646,7 +2664,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2771,7 +2789,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3055,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3183,7 +3201,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3264,7 +3282,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3389,7 +3407,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3676,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4085,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4500,7 +4518,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4831,7 +4849,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -4909,10 +4927,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5037,7 +5055,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5115,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>1.75</v>
@@ -5243,7 +5261,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5449,7 +5467,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5527,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5733,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5861,7 +5879,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -5942,7 +5960,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6273,7 +6291,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6560,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -6685,7 +6703,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6766,7 +6784,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -6891,7 +6909,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -6969,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7097,7 +7115,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7178,7 +7196,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7303,7 +7321,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7384,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7715,7 +7733,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>2.82</v>
@@ -7921,7 +7939,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8127,7 +8145,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8205,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>2.5</v>
@@ -8411,10 +8429,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8617,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -8745,7 +8763,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -8826,7 +8844,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -8951,7 +8969,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9029,10 +9047,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9157,7 +9175,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9238,7 +9256,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -9441,10 +9459,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -9853,10 +9871,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10059,10 +10077,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10187,7 +10205,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10265,10 +10283,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10471,7 +10489,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10805,7 +10823,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10886,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>2.09</v>
@@ -11011,7 +11029,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11089,10 +11107,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11217,7 +11235,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11298,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11423,7 +11441,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11629,7 +11647,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11835,7 +11853,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12534,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13071,7 +13089,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13149,7 +13167,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13277,7 +13295,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13358,7 +13376,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ61">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13434,6 +13452,2066 @@
       </c>
       <c r="BP61">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7330984</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45381.04166666666</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>92</v>
+      </c>
+      <c r="P62" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q62">
+        <v>2.24</v>
+      </c>
+      <c r="R62">
+        <v>2.34</v>
+      </c>
+      <c r="S62">
+        <v>5.44</v>
+      </c>
+      <c r="T62">
+        <v>1.39</v>
+      </c>
+      <c r="U62">
+        <v>2.7</v>
+      </c>
+      <c r="V62">
+        <v>2.88</v>
+      </c>
+      <c r="W62">
+        <v>1.33</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>1.63</v>
+      </c>
+      <c r="AA62">
+        <v>3.75</v>
+      </c>
+      <c r="AB62">
+        <v>4.84</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>9.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.27</v>
+      </c>
+      <c r="AF62">
+        <v>3.56</v>
+      </c>
+      <c r="AG62">
+        <v>1.84</v>
+      </c>
+      <c r="AH62">
+        <v>1.89</v>
+      </c>
+      <c r="AI62">
+        <v>1.8</v>
+      </c>
+      <c r="AJ62">
+        <v>1.96</v>
+      </c>
+      <c r="AK62">
+        <v>1.15</v>
+      </c>
+      <c r="AL62">
+        <v>1.22</v>
+      </c>
+      <c r="AM62">
+        <v>2.1</v>
+      </c>
+      <c r="AN62">
+        <v>0.5</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>0.33</v>
+      </c>
+      <c r="AQ62">
+        <v>1.75</v>
+      </c>
+      <c r="AR62">
+        <v>1.39</v>
+      </c>
+      <c r="AS62">
+        <v>1.4</v>
+      </c>
+      <c r="AT62">
+        <v>2.79</v>
+      </c>
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>9</v>
+      </c>
+      <c r="AX62">
+        <v>10</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>14</v>
+      </c>
+      <c r="BA62">
+        <v>8</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>13</v>
+      </c>
+      <c r="BD62">
+        <v>1.56</v>
+      </c>
+      <c r="BE62">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF62">
+        <v>2.75</v>
+      </c>
+      <c r="BG62">
+        <v>1.29</v>
+      </c>
+      <c r="BH62">
+        <v>3.3</v>
+      </c>
+      <c r="BI62">
+        <v>1.49</v>
+      </c>
+      <c r="BJ62">
+        <v>2.53</v>
+      </c>
+      <c r="BK62">
+        <v>1.84</v>
+      </c>
+      <c r="BL62">
+        <v>1.96</v>
+      </c>
+      <c r="BM62">
+        <v>2.31</v>
+      </c>
+      <c r="BN62">
+        <v>1.58</v>
+      </c>
+      <c r="BO62">
+        <v>2.88</v>
+      </c>
+      <c r="BP62">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7330985</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q63">
+        <v>3.25</v>
+      </c>
+      <c r="R63">
+        <v>2.01</v>
+      </c>
+      <c r="S63">
+        <v>3.98</v>
+      </c>
+      <c r="T63">
+        <v>1.53</v>
+      </c>
+      <c r="U63">
+        <v>2.51</v>
+      </c>
+      <c r="V63">
+        <v>3.46</v>
+      </c>
+      <c r="W63">
+        <v>1.28</v>
+      </c>
+      <c r="X63">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>1.03</v>
+      </c>
+      <c r="Z63">
+        <v>2.31</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>3</v>
+      </c>
+      <c r="AC63">
+        <v>1.09</v>
+      </c>
+      <c r="AD63">
+        <v>6</v>
+      </c>
+      <c r="AE63">
+        <v>1.48</v>
+      </c>
+      <c r="AF63">
+        <v>2.5</v>
+      </c>
+      <c r="AG63">
+        <v>2.4</v>
+      </c>
+      <c r="AH63">
+        <v>1.5</v>
+      </c>
+      <c r="AI63">
+        <v>1.98</v>
+      </c>
+      <c r="AJ63">
+        <v>1.79</v>
+      </c>
+      <c r="AK63">
+        <v>1.34</v>
+      </c>
+      <c r="AL63">
+        <v>1.32</v>
+      </c>
+      <c r="AM63">
+        <v>1.52</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>1.33</v>
+      </c>
+      <c r="AP63">
+        <v>2.33</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>1.2</v>
+      </c>
+      <c r="AS63">
+        <v>2.07</v>
+      </c>
+      <c r="AT63">
+        <v>3.27</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>8</v>
+      </c>
+      <c r="AZ63">
+        <v>8</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.83</v>
+      </c>
+      <c r="BE63">
+        <v>9</v>
+      </c>
+      <c r="BF63">
+        <v>2.17</v>
+      </c>
+      <c r="BG63">
+        <v>1.2</v>
+      </c>
+      <c r="BH63">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>1.33</v>
+      </c>
+      <c r="BJ63">
+        <v>3</v>
+      </c>
+      <c r="BK63">
+        <v>1.57</v>
+      </c>
+      <c r="BL63">
+        <v>2.25</v>
+      </c>
+      <c r="BM63">
+        <v>1.85</v>
+      </c>
+      <c r="BN63">
+        <v>1.85</v>
+      </c>
+      <c r="BO63">
+        <v>2.3</v>
+      </c>
+      <c r="BP63">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7330986</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>134</v>
+      </c>
+      <c r="P64" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q64">
+        <v>4.56</v>
+      </c>
+      <c r="R64">
+        <v>2.36</v>
+      </c>
+      <c r="S64">
+        <v>2.42</v>
+      </c>
+      <c r="T64">
+        <v>1.34</v>
+      </c>
+      <c r="U64">
+        <v>3.27</v>
+      </c>
+      <c r="V64">
+        <v>2.68</v>
+      </c>
+      <c r="W64">
+        <v>1.47</v>
+      </c>
+      <c r="X64">
+        <v>5.9</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>3.55</v>
+      </c>
+      <c r="AA64">
+        <v>3.7</v>
+      </c>
+      <c r="AB64">
+        <v>1.9</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>10</v>
+      </c>
+      <c r="AE64">
+        <v>1.25</v>
+      </c>
+      <c r="AF64">
+        <v>3.6</v>
+      </c>
+      <c r="AG64">
+        <v>1.72</v>
+      </c>
+      <c r="AH64">
+        <v>2</v>
+      </c>
+      <c r="AI64">
+        <v>1.67</v>
+      </c>
+      <c r="AJ64">
+        <v>2.15</v>
+      </c>
+      <c r="AK64">
+        <v>1.92</v>
+      </c>
+      <c r="AL64">
+        <v>1.23</v>
+      </c>
+      <c r="AM64">
+        <v>1.21</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.29</v>
+      </c>
+      <c r="AS64">
+        <v>1.56</v>
+      </c>
+      <c r="AT64">
+        <v>2.85</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>9</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>15</v>
+      </c>
+      <c r="AZ64">
+        <v>8</v>
+      </c>
+      <c r="BA64">
+        <v>2</v>
+      </c>
+      <c r="BB64">
+        <v>8</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>2.6</v>
+      </c>
+      <c r="BE64">
+        <v>8.9</v>
+      </c>
+      <c r="BF64">
+        <v>1.61</v>
+      </c>
+      <c r="BG64">
+        <v>1.25</v>
+      </c>
+      <c r="BH64">
+        <v>3.6</v>
+      </c>
+      <c r="BI64">
+        <v>1.44</v>
+      </c>
+      <c r="BJ64">
+        <v>2.6</v>
+      </c>
+      <c r="BK64">
+        <v>1.73</v>
+      </c>
+      <c r="BL64">
+        <v>2</v>
+      </c>
+      <c r="BM64">
+        <v>2.1</v>
+      </c>
+      <c r="BN64">
+        <v>1.65</v>
+      </c>
+      <c r="BO64">
+        <v>2.62</v>
+      </c>
+      <c r="BP64">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7330987</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>92</v>
+      </c>
+      <c r="P65" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q65">
+        <v>3.1</v>
+      </c>
+      <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
+        <v>3.75</v>
+      </c>
+      <c r="T65">
+        <v>1.44</v>
+      </c>
+      <c r="U65">
+        <v>2.63</v>
+      </c>
+      <c r="V65">
+        <v>3.25</v>
+      </c>
+      <c r="W65">
+        <v>1.33</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>2.29</v>
+      </c>
+      <c r="AA65">
+        <v>3.25</v>
+      </c>
+      <c r="AB65">
+        <v>2.95</v>
+      </c>
+      <c r="AC65">
+        <v>1.07</v>
+      </c>
+      <c r="AD65">
+        <v>7.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.36</v>
+      </c>
+      <c r="AF65">
+        <v>2.95</v>
+      </c>
+      <c r="AG65">
+        <v>2.12</v>
+      </c>
+      <c r="AH65">
+        <v>1.65</v>
+      </c>
+      <c r="AI65">
+        <v>1.83</v>
+      </c>
+      <c r="AJ65">
+        <v>1.83</v>
+      </c>
+      <c r="AK65">
+        <v>1.36</v>
+      </c>
+      <c r="AL65">
+        <v>1.28</v>
+      </c>
+      <c r="AM65">
+        <v>1.57</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>0.33</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>0.5</v>
+      </c>
+      <c r="AR65">
+        <v>1.44</v>
+      </c>
+      <c r="AS65">
+        <v>1.45</v>
+      </c>
+      <c r="AT65">
+        <v>2.89</v>
+      </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>1</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>4</v>
+      </c>
+      <c r="AZ65">
+        <v>8</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>8</v>
+      </c>
+      <c r="BD65">
+        <v>1.86</v>
+      </c>
+      <c r="BE65">
+        <v>8.4</v>
+      </c>
+      <c r="BF65">
+        <v>2.17</v>
+      </c>
+      <c r="BG65">
+        <v>1.33</v>
+      </c>
+      <c r="BH65">
+        <v>3</v>
+      </c>
+      <c r="BI65">
+        <v>1.56</v>
+      </c>
+      <c r="BJ65">
+        <v>2.39</v>
+      </c>
+      <c r="BK65">
+        <v>1.92</v>
+      </c>
+      <c r="BL65">
+        <v>1.87</v>
+      </c>
+      <c r="BM65">
+        <v>2.44</v>
+      </c>
+      <c r="BN65">
+        <v>1.53</v>
+      </c>
+      <c r="BO65">
+        <v>3</v>
+      </c>
+      <c r="BP65">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7330988</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q66">
+        <v>2.25</v>
+      </c>
+      <c r="R66">
+        <v>2.25</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>1.36</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>8</v>
+      </c>
+      <c r="Y66">
+        <v>1.08</v>
+      </c>
+      <c r="Z66">
+        <v>1.76</v>
+      </c>
+      <c r="AA66">
+        <v>3.7</v>
+      </c>
+      <c r="AB66">
+        <v>4.15</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>9</v>
+      </c>
+      <c r="AE66">
+        <v>1.28</v>
+      </c>
+      <c r="AF66">
+        <v>3.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.99</v>
+      </c>
+      <c r="AH66">
+        <v>1.88</v>
+      </c>
+      <c r="AI66">
+        <v>1.83</v>
+      </c>
+      <c r="AJ66">
+        <v>1.83</v>
+      </c>
+      <c r="AK66">
+        <v>1.14</v>
+      </c>
+      <c r="AL66">
+        <v>1.2</v>
+      </c>
+      <c r="AM66">
+        <v>2.15</v>
+      </c>
+      <c r="AN66">
+        <v>2.33</v>
+      </c>
+      <c r="AO66">
+        <v>1.67</v>
+      </c>
+      <c r="AP66">
+        <v>1.75</v>
+      </c>
+      <c r="AQ66">
+        <v>2</v>
+      </c>
+      <c r="AR66">
+        <v>1.56</v>
+      </c>
+      <c r="AS66">
+        <v>1.2</v>
+      </c>
+      <c r="AT66">
+        <v>2.76</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>9</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>10</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>9</v>
+      </c>
+      <c r="BD66">
+        <v>1.49</v>
+      </c>
+      <c r="BE66">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF66">
+        <v>3.12</v>
+      </c>
+      <c r="BG66">
+        <v>1.36</v>
+      </c>
+      <c r="BH66">
+        <v>2.9</v>
+      </c>
+      <c r="BI66">
+        <v>1.6</v>
+      </c>
+      <c r="BJ66">
+        <v>2.29</v>
+      </c>
+      <c r="BK66">
+        <v>2</v>
+      </c>
+      <c r="BL66">
+        <v>1.79</v>
+      </c>
+      <c r="BM66">
+        <v>2.58</v>
+      </c>
+      <c r="BN66">
+        <v>1.48</v>
+      </c>
+      <c r="BO66">
+        <v>3.2</v>
+      </c>
+      <c r="BP66">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7330989</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q67">
+        <v>2.95</v>
+      </c>
+      <c r="R67">
+        <v>1.95</v>
+      </c>
+      <c r="S67">
+        <v>3.7</v>
+      </c>
+      <c r="T67">
+        <v>1.5</v>
+      </c>
+      <c r="U67">
+        <v>2.4</v>
+      </c>
+      <c r="V67">
+        <v>3.35</v>
+      </c>
+      <c r="W67">
+        <v>1.28</v>
+      </c>
+      <c r="X67">
+        <v>8.1</v>
+      </c>
+      <c r="Y67">
+        <v>1.04</v>
+      </c>
+      <c r="Z67">
+        <v>2.23</v>
+      </c>
+      <c r="AA67">
+        <v>3.25</v>
+      </c>
+      <c r="AB67">
+        <v>3.1</v>
+      </c>
+      <c r="AC67">
+        <v>1.06</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.4</v>
+      </c>
+      <c r="AF67">
+        <v>2.8</v>
+      </c>
+      <c r="AG67">
+        <v>2.3</v>
+      </c>
+      <c r="AH67">
+        <v>1.54</v>
+      </c>
+      <c r="AI67">
+        <v>1.9</v>
+      </c>
+      <c r="AJ67">
+        <v>1.75</v>
+      </c>
+      <c r="AK67">
+        <v>1.36</v>
+      </c>
+      <c r="AL67">
+        <v>1.28</v>
+      </c>
+      <c r="AM67">
+        <v>1.62</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0.5</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>1.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.03</v>
+      </c>
+      <c r="AS67">
+        <v>0.83</v>
+      </c>
+      <c r="AT67">
+        <v>1.86</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>10</v>
+      </c>
+      <c r="AX67">
+        <v>1</v>
+      </c>
+      <c r="AY67">
+        <v>15</v>
+      </c>
+      <c r="AZ67">
+        <v>4</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.76</v>
+      </c>
+      <c r="BE67">
+        <v>8.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.38</v>
+      </c>
+      <c r="BG67">
+        <v>1.36</v>
+      </c>
+      <c r="BH67">
+        <v>2.9</v>
+      </c>
+      <c r="BI67">
+        <v>1.61</v>
+      </c>
+      <c r="BJ67">
+        <v>2.28</v>
+      </c>
+      <c r="BK67">
+        <v>2</v>
+      </c>
+      <c r="BL67">
+        <v>1.79</v>
+      </c>
+      <c r="BM67">
+        <v>2.57</v>
+      </c>
+      <c r="BN67">
+        <v>1.48</v>
+      </c>
+      <c r="BO67">
+        <v>3.2</v>
+      </c>
+      <c r="BP67">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7330990</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>92</v>
+      </c>
+      <c r="P68" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q68">
+        <v>3.75</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>3.25</v>
+      </c>
+      <c r="T68">
+        <v>1.5</v>
+      </c>
+      <c r="U68">
+        <v>2.5</v>
+      </c>
+      <c r="V68">
+        <v>3.5</v>
+      </c>
+      <c r="W68">
+        <v>1.29</v>
+      </c>
+      <c r="X68">
+        <v>11</v>
+      </c>
+      <c r="Y68">
+        <v>1.05</v>
+      </c>
+      <c r="Z68">
+        <v>2.99</v>
+      </c>
+      <c r="AA68">
+        <v>3.25</v>
+      </c>
+      <c r="AB68">
+        <v>2.29</v>
+      </c>
+      <c r="AC68">
+        <v>1.08</v>
+      </c>
+      <c r="AD68">
+        <v>7</v>
+      </c>
+      <c r="AE68">
+        <v>1.42</v>
+      </c>
+      <c r="AF68">
+        <v>2.75</v>
+      </c>
+      <c r="AG68">
+        <v>2.25</v>
+      </c>
+      <c r="AH68">
+        <v>1.57</v>
+      </c>
+      <c r="AI68">
+        <v>2</v>
+      </c>
+      <c r="AJ68">
+        <v>1.73</v>
+      </c>
+      <c r="AK68">
+        <v>1.53</v>
+      </c>
+      <c r="AL68">
+        <v>1.3</v>
+      </c>
+      <c r="AM68">
+        <v>1.38</v>
+      </c>
+      <c r="AN68">
+        <v>1.67</v>
+      </c>
+      <c r="AO68">
+        <v>2.33</v>
+      </c>
+      <c r="AP68">
+        <v>1.5</v>
+      </c>
+      <c r="AQ68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <v>1.32</v>
+      </c>
+      <c r="AS68">
+        <v>1.57</v>
+      </c>
+      <c r="AT68">
+        <v>2.89</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>6</v>
+      </c>
+      <c r="BB68">
+        <v>8</v>
+      </c>
+      <c r="BC68">
+        <v>14</v>
+      </c>
+      <c r="BD68">
+        <v>1.97</v>
+      </c>
+      <c r="BE68">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF68">
+        <v>2.05</v>
+      </c>
+      <c r="BG68">
+        <v>1.38</v>
+      </c>
+      <c r="BH68">
+        <v>2.8</v>
+      </c>
+      <c r="BI68">
+        <v>1.65</v>
+      </c>
+      <c r="BJ68">
+        <v>2.19</v>
+      </c>
+      <c r="BK68">
+        <v>2.07</v>
+      </c>
+      <c r="BL68">
+        <v>1.73</v>
+      </c>
+      <c r="BM68">
+        <v>2.6</v>
+      </c>
+      <c r="BN68">
+        <v>1.44</v>
+      </c>
+      <c r="BO68">
+        <v>3.4</v>
+      </c>
+      <c r="BP68">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7330991</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45381.125</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>100</v>
+      </c>
+      <c r="P69" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q69">
+        <v>3.75</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>3.25</v>
+      </c>
+      <c r="AA69">
+        <v>3.45</v>
+      </c>
+      <c r="AB69">
+        <v>2.08</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>8</v>
+      </c>
+      <c r="AE69">
+        <v>1.36</v>
+      </c>
+      <c r="AF69">
+        <v>2.95</v>
+      </c>
+      <c r="AG69">
+        <v>2.03</v>
+      </c>
+      <c r="AH69">
+        <v>1.84</v>
+      </c>
+      <c r="AI69">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69">
+        <v>1.8</v>
+      </c>
+      <c r="AK69">
+        <v>1.62</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.35</v>
+      </c>
+      <c r="AN69">
+        <v>0.33</v>
+      </c>
+      <c r="AO69">
+        <v>1.33</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1.6</v>
+      </c>
+      <c r="AS69">
+        <v>1.83</v>
+      </c>
+      <c r="AT69">
+        <v>3.43</v>
+      </c>
+      <c r="AU69">
+        <v>2</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>10</v>
+      </c>
+      <c r="AY69">
+        <v>9</v>
+      </c>
+      <c r="AZ69">
+        <v>15</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>5</v>
+      </c>
+      <c r="BD69">
+        <v>2.13</v>
+      </c>
+      <c r="BE69">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF69">
+        <v>1.9</v>
+      </c>
+      <c r="BG69">
+        <v>1.31</v>
+      </c>
+      <c r="BH69">
+        <v>3.15</v>
+      </c>
+      <c r="BI69">
+        <v>1.63</v>
+      </c>
+      <c r="BJ69">
+        <v>2.09</v>
+      </c>
+      <c r="BK69">
+        <v>2.09</v>
+      </c>
+      <c r="BL69">
+        <v>1.63</v>
+      </c>
+      <c r="BM69">
+        <v>2.79</v>
+      </c>
+      <c r="BN69">
+        <v>1.36</v>
+      </c>
+      <c r="BO69">
+        <v>3.6</v>
+      </c>
+      <c r="BP69">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7330992</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45381.16666666666</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>136</v>
+      </c>
+      <c r="P70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q70">
+        <v>3.4</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>3.5</v>
+      </c>
+      <c r="T70">
+        <v>1.5</v>
+      </c>
+      <c r="U70">
+        <v>2.5</v>
+      </c>
+      <c r="V70">
+        <v>3.4</v>
+      </c>
+      <c r="W70">
+        <v>1.3</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.06</v>
+      </c>
+      <c r="Z70">
+        <v>2.53</v>
+      </c>
+      <c r="AA70">
+        <v>3.35</v>
+      </c>
+      <c r="AB70">
+        <v>2.6</v>
+      </c>
+      <c r="AC70">
+        <v>1.07</v>
+      </c>
+      <c r="AD70">
+        <v>7.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.38</v>
+      </c>
+      <c r="AF70">
+        <v>2.88</v>
+      </c>
+      <c r="AG70">
+        <v>1.96</v>
+      </c>
+      <c r="AH70">
+        <v>1.91</v>
+      </c>
+      <c r="AI70">
+        <v>1.83</v>
+      </c>
+      <c r="AJ70">
+        <v>1.83</v>
+      </c>
+      <c r="AK70">
+        <v>1.42</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.48</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.5</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>1.14</v>
+      </c>
+      <c r="AS70">
+        <v>1.6</v>
+      </c>
+      <c r="AT70">
+        <v>2.74</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
+        <v>7</v>
+      </c>
+      <c r="AX70">
+        <v>16</v>
+      </c>
+      <c r="AY70">
+        <v>13</v>
+      </c>
+      <c r="AZ70">
+        <v>19</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>6</v>
+      </c>
+      <c r="BC70">
+        <v>9</v>
+      </c>
+      <c r="BD70">
+        <v>2.06</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>1.94</v>
+      </c>
+      <c r="BG70">
+        <v>1.29</v>
+      </c>
+      <c r="BH70">
+        <v>3.4</v>
+      </c>
+      <c r="BI70">
+        <v>1.48</v>
+      </c>
+      <c r="BJ70">
+        <v>2.5</v>
+      </c>
+      <c r="BK70">
+        <v>1.76</v>
+      </c>
+      <c r="BL70">
+        <v>2.03</v>
+      </c>
+      <c r="BM70">
+        <v>2.21</v>
+      </c>
+      <c r="BN70">
+        <v>1.64</v>
+      </c>
+      <c r="BO70">
+        <v>2.7</v>
+      </c>
+      <c r="BP70">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7330993</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45381.25</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>130</v>
+      </c>
+      <c r="P71" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q71">
+        <v>4.6</v>
+      </c>
+      <c r="R71">
+        <v>2.11</v>
+      </c>
+      <c r="S71">
+        <v>2.73</v>
+      </c>
+      <c r="T71">
+        <v>1.47</v>
+      </c>
+      <c r="U71">
+        <v>2.68</v>
+      </c>
+      <c r="V71">
+        <v>3.36</v>
+      </c>
+      <c r="W71">
+        <v>1.32</v>
+      </c>
+      <c r="X71">
+        <v>7.8</v>
+      </c>
+      <c r="Y71">
+        <v>1.05</v>
+      </c>
+      <c r="Z71">
+        <v>3.65</v>
+      </c>
+      <c r="AA71">
+        <v>3.4</v>
+      </c>
+      <c r="AB71">
+        <v>1.96</v>
+      </c>
+      <c r="AC71">
+        <v>1.07</v>
+      </c>
+      <c r="AD71">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <v>1.38</v>
+      </c>
+      <c r="AF71">
+        <v>2.8</v>
+      </c>
+      <c r="AG71">
+        <v>2.12</v>
+      </c>
+      <c r="AH71">
+        <v>1.65</v>
+      </c>
+      <c r="AI71">
+        <v>1.88</v>
+      </c>
+      <c r="AJ71">
+        <v>1.88</v>
+      </c>
+      <c r="AK71">
+        <v>1.75</v>
+      </c>
+      <c r="AL71">
+        <v>1.28</v>
+      </c>
+      <c r="AM71">
+        <v>1.24</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>2.33</v>
+      </c>
+      <c r="AP71">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.06</v>
+      </c>
+      <c r="AS71">
+        <v>1.4</v>
+      </c>
+      <c r="AT71">
+        <v>2.46</v>
+      </c>
+      <c r="AU71">
+        <v>3</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>9</v>
+      </c>
+      <c r="AY71">
+        <v>8</v>
+      </c>
+      <c r="AZ71">
+        <v>15</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>6</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>1.95</v>
+      </c>
+      <c r="BE71">
+        <v>7.2</v>
+      </c>
+      <c r="BF71">
+        <v>2.15</v>
+      </c>
+      <c r="BG71">
+        <v>1.25</v>
+      </c>
+      <c r="BH71">
+        <v>3.6</v>
+      </c>
+      <c r="BI71">
+        <v>1.42</v>
+      </c>
+      <c r="BJ71">
+        <v>2.62</v>
+      </c>
+      <c r="BK71">
+        <v>1.69</v>
+      </c>
+      <c r="BL71">
+        <v>2.14</v>
+      </c>
+      <c r="BM71">
+        <v>2.1</v>
+      </c>
+      <c r="BN71">
+        <v>1.72</v>
+      </c>
+      <c r="BO71">
+        <v>2.6</v>
+      </c>
+      <c r="BP71">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,24 @@
     <t>['47', '72', '88']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['29', '66', '78']</t>
+  </si>
+  <si>
+    <t>['3', '35', '42', '50', '56', '59', '74', '76']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['27', '70']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -521,6 +539,21 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['67', '79']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['24', '90+2']</t>
+  </si>
+  <si>
+    <t>['10', '32', '43']</t>
+  </si>
+  <si>
+    <t>['82', '89']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,7 +1380,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1965,7 +1998,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2043,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2377,7 +2410,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2661,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2789,7 +2822,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -2870,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3201,7 +3234,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3279,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3407,7 +3440,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3488,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -3691,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -3897,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4106,7 +4139,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4309,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4515,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4721,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -4849,7 +4882,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5055,7 +5088,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5136,7 +5169,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5261,7 +5294,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5467,7 +5500,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5548,7 +5581,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5754,7 +5787,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5879,7 +5912,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -5957,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6163,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6291,7 +6324,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6372,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6575,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -6703,7 +6736,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6781,7 +6814,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -6909,7 +6942,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -6990,7 +7023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7115,7 +7148,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7193,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7321,7 +7354,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7605,10 +7638,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -7811,10 +7844,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -7939,7 +7972,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8020,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8145,7 +8178,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8226,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8429,7 +8462,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8638,7 +8671,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -8763,7 +8796,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -8841,7 +8874,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8969,7 +9002,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9175,7 +9208,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9253,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9665,10 +9698,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>2.12</v>
@@ -10205,7 +10238,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10286,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10489,10 +10522,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
         <v>1.2</v>
@@ -10695,10 +10728,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.94</v>
@@ -10823,7 +10856,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10901,7 +10934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11029,7 +11062,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11235,7 +11268,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11441,7 +11474,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11519,10 +11552,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11647,7 +11680,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11725,10 +11758,10 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -11853,7 +11886,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11934,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12137,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12343,10 +12376,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12755,10 +12788,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -12961,10 +12994,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13089,7 +13122,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13170,7 +13203,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13295,7 +13328,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13373,7 +13406,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -13501,7 +13534,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13785,7 +13818,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14325,7 +14358,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15230,7 +15263,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15355,7 +15388,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15512,6 +15545,2066 @@
       </c>
       <c r="BP71">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7330994</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>108</v>
+      </c>
+      <c r="P72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q72">
+        <v>2.42</v>
+      </c>
+      <c r="R72">
+        <v>2.08</v>
+      </c>
+      <c r="S72">
+        <v>4.63</v>
+      </c>
+      <c r="T72">
+        <v>1.43</v>
+      </c>
+      <c r="U72">
+        <v>2.63</v>
+      </c>
+      <c r="V72">
+        <v>2.94</v>
+      </c>
+      <c r="W72">
+        <v>1.35</v>
+      </c>
+      <c r="X72">
+        <v>6.85</v>
+      </c>
+      <c r="Y72">
+        <v>1.07</v>
+      </c>
+      <c r="Z72">
+        <v>1.95</v>
+      </c>
+      <c r="AA72">
+        <v>3.15</v>
+      </c>
+      <c r="AB72">
+        <v>3.3</v>
+      </c>
+      <c r="AC72">
+        <v>1.07</v>
+      </c>
+      <c r="AD72">
+        <v>7.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.33</v>
+      </c>
+      <c r="AF72">
+        <v>3.13</v>
+      </c>
+      <c r="AG72">
+        <v>2.15</v>
+      </c>
+      <c r="AH72">
+        <v>1.62</v>
+      </c>
+      <c r="AI72">
+        <v>1.89</v>
+      </c>
+      <c r="AJ72">
+        <v>1.81</v>
+      </c>
+      <c r="AK72">
+        <v>1.21</v>
+      </c>
+      <c r="AL72">
+        <v>1.28</v>
+      </c>
+      <c r="AM72">
+        <v>1.81</v>
+      </c>
+      <c r="AN72">
+        <v>1.67</v>
+      </c>
+      <c r="AO72">
+        <v>1.33</v>
+      </c>
+      <c r="AP72">
+        <v>1.25</v>
+      </c>
+      <c r="AQ72">
+        <v>1.75</v>
+      </c>
+      <c r="AR72">
+        <v>1.99</v>
+      </c>
+      <c r="AS72">
+        <v>1.74</v>
+      </c>
+      <c r="AT72">
+        <v>3.73</v>
+      </c>
+      <c r="AU72">
+        <v>9</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>12</v>
+      </c>
+      <c r="AY72">
+        <v>14</v>
+      </c>
+      <c r="AZ72">
+        <v>18</v>
+      </c>
+      <c r="BA72">
+        <v>1</v>
+      </c>
+      <c r="BB72">
+        <v>6</v>
+      </c>
+      <c r="BC72">
+        <v>7</v>
+      </c>
+      <c r="BD72">
+        <v>1.57</v>
+      </c>
+      <c r="BE72">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF72">
+        <v>2.68</v>
+      </c>
+      <c r="BG72">
+        <v>1.22</v>
+      </c>
+      <c r="BH72">
+        <v>3.8</v>
+      </c>
+      <c r="BI72">
+        <v>1.36</v>
+      </c>
+      <c r="BJ72">
+        <v>2.88</v>
+      </c>
+      <c r="BK72">
+        <v>1.61</v>
+      </c>
+      <c r="BL72">
+        <v>2.26</v>
+      </c>
+      <c r="BM72">
+        <v>2</v>
+      </c>
+      <c r="BN72">
+        <v>1.8</v>
+      </c>
+      <c r="BO72">
+        <v>2.55</v>
+      </c>
+      <c r="BP72">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7330995</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>137</v>
+      </c>
+      <c r="P73" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q73">
+        <v>2.8</v>
+      </c>
+      <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
+        <v>4.5</v>
+      </c>
+      <c r="T73">
+        <v>1.6</v>
+      </c>
+      <c r="U73">
+        <v>2.2</v>
+      </c>
+      <c r="V73">
+        <v>3.8</v>
+      </c>
+      <c r="W73">
+        <v>1.22</v>
+      </c>
+      <c r="X73">
+        <v>9.9</v>
+      </c>
+      <c r="Y73">
+        <v>1.02</v>
+      </c>
+      <c r="Z73">
+        <v>1.83</v>
+      </c>
+      <c r="AA73">
+        <v>3.05</v>
+      </c>
+      <c r="AB73">
+        <v>3.85</v>
+      </c>
+      <c r="AC73">
+        <v>1.1</v>
+      </c>
+      <c r="AD73">
+        <v>6.25</v>
+      </c>
+      <c r="AE73">
+        <v>1.53</v>
+      </c>
+      <c r="AF73">
+        <v>2.33</v>
+      </c>
+      <c r="AG73">
+        <v>2.5</v>
+      </c>
+      <c r="AH73">
+        <v>1.46</v>
+      </c>
+      <c r="AI73">
+        <v>2.15</v>
+      </c>
+      <c r="AJ73">
+        <v>1.57</v>
+      </c>
+      <c r="AK73">
+        <v>1.2</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.63</v>
+      </c>
+      <c r="AN73">
+        <v>2.33</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>0.33</v>
+      </c>
+      <c r="AR73">
+        <v>1.28</v>
+      </c>
+      <c r="AS73">
+        <v>1.4</v>
+      </c>
+      <c r="AT73">
+        <v>2.68</v>
+      </c>
+      <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>4</v>
+      </c>
+      <c r="AX73">
+        <v>6</v>
+      </c>
+      <c r="AY73">
+        <v>10</v>
+      </c>
+      <c r="AZ73">
+        <v>10</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>7</v>
+      </c>
+      <c r="BD73">
+        <v>1.51</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>3.07</v>
+      </c>
+      <c r="BG73">
+        <v>1.29</v>
+      </c>
+      <c r="BH73">
+        <v>3.4</v>
+      </c>
+      <c r="BI73">
+        <v>1.41</v>
+      </c>
+      <c r="BJ73">
+        <v>2.7</v>
+      </c>
+      <c r="BK73">
+        <v>1.73</v>
+      </c>
+      <c r="BL73">
+        <v>1.99</v>
+      </c>
+      <c r="BM73">
+        <v>2.2</v>
+      </c>
+      <c r="BN73">
+        <v>1.6</v>
+      </c>
+      <c r="BO73">
+        <v>2.9</v>
+      </c>
+      <c r="BP73">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7330996</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>138</v>
+      </c>
+      <c r="P74" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q74">
+        <v>2.5</v>
+      </c>
+      <c r="R74">
+        <v>2.15</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>1.38</v>
+      </c>
+      <c r="U74">
+        <v>2.8</v>
+      </c>
+      <c r="V74">
+        <v>2.7</v>
+      </c>
+      <c r="W74">
+        <v>1.4</v>
+      </c>
+      <c r="X74">
+        <v>6.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>1.77</v>
+      </c>
+      <c r="AA74">
+        <v>3.5</v>
+      </c>
+      <c r="AB74">
+        <v>3.55</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>8.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.28</v>
+      </c>
+      <c r="AF74">
+        <v>3.5</v>
+      </c>
+      <c r="AG74">
+        <v>1.82</v>
+      </c>
+      <c r="AH74">
+        <v>1.88</v>
+      </c>
+      <c r="AI74">
+        <v>1.67</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>1.25</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.8</v>
+      </c>
+      <c r="AN74">
+        <v>1.67</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>2</v>
+      </c>
+      <c r="AQ74">
+        <v>0.75</v>
+      </c>
+      <c r="AR74">
+        <v>1.55</v>
+      </c>
+      <c r="AS74">
+        <v>1.87</v>
+      </c>
+      <c r="AT74">
+        <v>3.42</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>9</v>
+      </c>
+      <c r="AY74">
+        <v>11</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.69</v>
+      </c>
+      <c r="BE74">
+        <v>8.5</v>
+      </c>
+      <c r="BF74">
+        <v>2.62</v>
+      </c>
+      <c r="BG74">
+        <v>1.25</v>
+      </c>
+      <c r="BH74">
+        <v>3.6</v>
+      </c>
+      <c r="BI74">
+        <v>1.32</v>
+      </c>
+      <c r="BJ74">
+        <v>3.1</v>
+      </c>
+      <c r="BK74">
+        <v>1.56</v>
+      </c>
+      <c r="BL74">
+        <v>2.27</v>
+      </c>
+      <c r="BM74">
+        <v>1.99</v>
+      </c>
+      <c r="BN74">
+        <v>1.73</v>
+      </c>
+      <c r="BO74">
+        <v>2.6</v>
+      </c>
+      <c r="BP74">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7330997</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P75" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q75">
+        <v>3.6</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>3.1</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.6</v>
+      </c>
+      <c r="V75">
+        <v>3</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>7</v>
+      </c>
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>2.77</v>
+      </c>
+      <c r="AA75">
+        <v>3.28</v>
+      </c>
+      <c r="AB75">
+        <v>2.3</v>
+      </c>
+      <c r="AC75">
+        <v>1.06</v>
+      </c>
+      <c r="AD75">
+        <v>7.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.36</v>
+      </c>
+      <c r="AF75">
+        <v>2.9</v>
+      </c>
+      <c r="AG75">
+        <v>2.03</v>
+      </c>
+      <c r="AH75">
+        <v>1.65</v>
+      </c>
+      <c r="AI75">
+        <v>1.85</v>
+      </c>
+      <c r="AJ75">
+        <v>1.85</v>
+      </c>
+      <c r="AK75">
+        <v>1.55</v>
+      </c>
+      <c r="AL75">
+        <v>1.35</v>
+      </c>
+      <c r="AM75">
+        <v>1.4</v>
+      </c>
+      <c r="AN75">
+        <v>0.25</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>0.2</v>
+      </c>
+      <c r="AQ75">
+        <v>1.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.05</v>
+      </c>
+      <c r="AS75">
+        <v>1.58</v>
+      </c>
+      <c r="AT75">
+        <v>2.63</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
+        <v>12</v>
+      </c>
+      <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>15</v>
+      </c>
+      <c r="BD75">
+        <v>2.61</v>
+      </c>
+      <c r="BE75">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF75">
+        <v>1.62</v>
+      </c>
+      <c r="BG75">
+        <v>1.33</v>
+      </c>
+      <c r="BH75">
+        <v>3</v>
+      </c>
+      <c r="BI75">
+        <v>1.57</v>
+      </c>
+      <c r="BJ75">
+        <v>2.32</v>
+      </c>
+      <c r="BK75">
+        <v>1.96</v>
+      </c>
+      <c r="BL75">
+        <v>1.83</v>
+      </c>
+      <c r="BM75">
+        <v>2.47</v>
+      </c>
+      <c r="BN75">
+        <v>1.51</v>
+      </c>
+      <c r="BO75">
+        <v>3.2</v>
+      </c>
+      <c r="BP75">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7330998</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>8</v>
+      </c>
+      <c r="O76" t="s">
+        <v>139</v>
+      </c>
+      <c r="P76" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q76">
+        <v>2.09</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>6.15</v>
+      </c>
+      <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.66</v>
+      </c>
+      <c r="V76">
+        <v>3.1</v>
+      </c>
+      <c r="W76">
+        <v>1.34</v>
+      </c>
+      <c r="X76">
+        <v>7.6</v>
+      </c>
+      <c r="Y76">
+        <v>1.05</v>
+      </c>
+      <c r="Z76">
+        <v>1.53</v>
+      </c>
+      <c r="AA76">
+        <v>3.55</v>
+      </c>
+      <c r="AB76">
+        <v>5</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>8</v>
+      </c>
+      <c r="AE76">
+        <v>1.33</v>
+      </c>
+      <c r="AF76">
+        <v>2.91</v>
+      </c>
+      <c r="AG76">
+        <v>2.07</v>
+      </c>
+      <c r="AH76">
+        <v>1.67</v>
+      </c>
+      <c r="AI76">
+        <v>2.09</v>
+      </c>
+      <c r="AJ76">
+        <v>1.63</v>
+      </c>
+      <c r="AK76">
+        <v>1.1</v>
+      </c>
+      <c r="AL76">
+        <v>1.23</v>
+      </c>
+      <c r="AM76">
+        <v>2.28</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AP76">
+        <v>1.5</v>
+      </c>
+      <c r="AQ76">
+        <v>0.75</v>
+      </c>
+      <c r="AR76">
+        <v>2.09</v>
+      </c>
+      <c r="AS76">
+        <v>1.12</v>
+      </c>
+      <c r="AT76">
+        <v>3.21</v>
+      </c>
+      <c r="AU76">
+        <v>13</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>7</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>20</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>7</v>
+      </c>
+      <c r="BC76">
+        <v>14</v>
+      </c>
+      <c r="BD76">
+        <v>1.34</v>
+      </c>
+      <c r="BE76">
+        <v>9.5</v>
+      </c>
+      <c r="BF76">
+        <v>4.07</v>
+      </c>
+      <c r="BG76">
+        <v>1.3</v>
+      </c>
+      <c r="BH76">
+        <v>3.2</v>
+      </c>
+      <c r="BI76">
+        <v>1.47</v>
+      </c>
+      <c r="BJ76">
+        <v>2.5</v>
+      </c>
+      <c r="BK76">
+        <v>1.85</v>
+      </c>
+      <c r="BL76">
+        <v>1.85</v>
+      </c>
+      <c r="BM76">
+        <v>2.37</v>
+      </c>
+      <c r="BN76">
+        <v>1.51</v>
+      </c>
+      <c r="BO76">
+        <v>3.2</v>
+      </c>
+      <c r="BP76">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7330999</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>107</v>
+      </c>
+      <c r="P77" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q77">
+        <v>1.8</v>
+      </c>
+      <c r="R77">
+        <v>2.45</v>
+      </c>
+      <c r="S77">
+        <v>6.25</v>
+      </c>
+      <c r="T77">
+        <v>1.3</v>
+      </c>
+      <c r="U77">
+        <v>3.2</v>
+      </c>
+      <c r="V77">
+        <v>2.45</v>
+      </c>
+      <c r="W77">
+        <v>1.48</v>
+      </c>
+      <c r="X77">
+        <v>5.7</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.27</v>
+      </c>
+      <c r="AA77">
+        <v>4.55</v>
+      </c>
+      <c r="AB77">
+        <v>7.75</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>10</v>
+      </c>
+      <c r="AE77">
+        <v>1.2</v>
+      </c>
+      <c r="AF77">
+        <v>4.2</v>
+      </c>
+      <c r="AG77">
+        <v>1.7</v>
+      </c>
+      <c r="AH77">
+        <v>2.02</v>
+      </c>
+      <c r="AI77">
+        <v>1.95</v>
+      </c>
+      <c r="AJ77">
+        <v>1.7</v>
+      </c>
+      <c r="AK77">
+        <v>1.04</v>
+      </c>
+      <c r="AL77">
+        <v>1.12</v>
+      </c>
+      <c r="AM77">
+        <v>3.1</v>
+      </c>
+      <c r="AN77">
+        <v>3</v>
+      </c>
+      <c r="AO77">
+        <v>1.33</v>
+      </c>
+      <c r="AP77">
+        <v>2.5</v>
+      </c>
+      <c r="AQ77">
+        <v>1.25</v>
+      </c>
+      <c r="AR77">
+        <v>2.06</v>
+      </c>
+      <c r="AS77">
+        <v>1.33</v>
+      </c>
+      <c r="AT77">
+        <v>3.39</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>5</v>
+      </c>
+      <c r="AX77">
+        <v>8</v>
+      </c>
+      <c r="AY77">
+        <v>8</v>
+      </c>
+      <c r="AZ77">
+        <v>13</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
+        <v>12</v>
+      </c>
+      <c r="BD77">
+        <v>1.21</v>
+      </c>
+      <c r="BE77">
+        <v>11</v>
+      </c>
+      <c r="BF77">
+        <v>5.6</v>
+      </c>
+      <c r="BG77">
+        <v>1.25</v>
+      </c>
+      <c r="BH77">
+        <v>3.6</v>
+      </c>
+      <c r="BI77">
+        <v>1.29</v>
+      </c>
+      <c r="BJ77">
+        <v>3.3</v>
+      </c>
+      <c r="BK77">
+        <v>1.51</v>
+      </c>
+      <c r="BL77">
+        <v>2.37</v>
+      </c>
+      <c r="BM77">
+        <v>1.9</v>
+      </c>
+      <c r="BN77">
+        <v>1.8</v>
+      </c>
+      <c r="BO77">
+        <v>2.45</v>
+      </c>
+      <c r="BP77">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7331000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>140</v>
+      </c>
+      <c r="P78" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q78">
+        <v>2.74</v>
+      </c>
+      <c r="R78">
+        <v>1.99</v>
+      </c>
+      <c r="S78">
+        <v>4.13</v>
+      </c>
+      <c r="T78">
+        <v>1.48</v>
+      </c>
+      <c r="U78">
+        <v>2.48</v>
+      </c>
+      <c r="V78">
+        <v>3.15</v>
+      </c>
+      <c r="W78">
+        <v>1.31</v>
+      </c>
+      <c r="X78">
+        <v>7.4</v>
+      </c>
+      <c r="Y78">
+        <v>1.06</v>
+      </c>
+      <c r="Z78">
+        <v>2.45</v>
+      </c>
+      <c r="AA78">
+        <v>3</v>
+      </c>
+      <c r="AB78">
+        <v>2.56</v>
+      </c>
+      <c r="AC78">
+        <v>1.08</v>
+      </c>
+      <c r="AD78">
+        <v>7</v>
+      </c>
+      <c r="AE78">
+        <v>1.38</v>
+      </c>
+      <c r="AF78">
+        <v>2.88</v>
+      </c>
+      <c r="AG78">
+        <v>2.29</v>
+      </c>
+      <c r="AH78">
+        <v>1.55</v>
+      </c>
+      <c r="AI78">
+        <v>1.93</v>
+      </c>
+      <c r="AJ78">
+        <v>1.78</v>
+      </c>
+      <c r="AK78">
+        <v>1.27</v>
+      </c>
+      <c r="AL78">
+        <v>1.31</v>
+      </c>
+      <c r="AM78">
+        <v>1.63</v>
+      </c>
+      <c r="AN78">
+        <v>3</v>
+      </c>
+      <c r="AO78">
+        <v>1.33</v>
+      </c>
+      <c r="AP78">
+        <v>2.25</v>
+      </c>
+      <c r="AQ78">
+        <v>1.75</v>
+      </c>
+      <c r="AR78">
+        <v>2.12</v>
+      </c>
+      <c r="AS78">
+        <v>1.87</v>
+      </c>
+      <c r="AT78">
+        <v>3.99</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>2</v>
+      </c>
+      <c r="AY78">
+        <v>9</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>9</v>
+      </c>
+      <c r="BD78">
+        <v>1.98</v>
+      </c>
+      <c r="BE78">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF78">
+        <v>2.01</v>
+      </c>
+      <c r="BG78">
+        <v>1.29</v>
+      </c>
+      <c r="BH78">
+        <v>3.4</v>
+      </c>
+      <c r="BI78">
+        <v>1.47</v>
+      </c>
+      <c r="BJ78">
+        <v>2.61</v>
+      </c>
+      <c r="BK78">
+        <v>1.76</v>
+      </c>
+      <c r="BL78">
+        <v>2.03</v>
+      </c>
+      <c r="BM78">
+        <v>2.21</v>
+      </c>
+      <c r="BN78">
+        <v>1.64</v>
+      </c>
+      <c r="BO78">
+        <v>2.7</v>
+      </c>
+      <c r="BP78">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7331001</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>141</v>
+      </c>
+      <c r="P79" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q79">
+        <v>3.22</v>
+      </c>
+      <c r="R79">
+        <v>2.01</v>
+      </c>
+      <c r="S79">
+        <v>3.33</v>
+      </c>
+      <c r="T79">
+        <v>1.46</v>
+      </c>
+      <c r="U79">
+        <v>2.54</v>
+      </c>
+      <c r="V79">
+        <v>3.03</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>7.1</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>2.47</v>
+      </c>
+      <c r="AA79">
+        <v>3.2</v>
+      </c>
+      <c r="AB79">
+        <v>2.41</v>
+      </c>
+      <c r="AC79">
+        <v>1.07</v>
+      </c>
+      <c r="AD79">
+        <v>7.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.35</v>
+      </c>
+      <c r="AF79">
+        <v>3.02</v>
+      </c>
+      <c r="AG79">
+        <v>2.04</v>
+      </c>
+      <c r="AH79">
+        <v>1.69</v>
+      </c>
+      <c r="AI79">
+        <v>1.83</v>
+      </c>
+      <c r="AJ79">
+        <v>1.87</v>
+      </c>
+      <c r="AK79">
+        <v>1.41</v>
+      </c>
+      <c r="AL79">
+        <v>1.32</v>
+      </c>
+      <c r="AM79">
+        <v>1.44</v>
+      </c>
+      <c r="AN79">
+        <v>1.33</v>
+      </c>
+      <c r="AO79">
+        <v>1.33</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>1.75</v>
+      </c>
+      <c r="AR79">
+        <v>1.68</v>
+      </c>
+      <c r="AS79">
+        <v>2.19</v>
+      </c>
+      <c r="AT79">
+        <v>3.87</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>10</v>
+      </c>
+      <c r="AX79">
+        <v>1</v>
+      </c>
+      <c r="AY79">
+        <v>16</v>
+      </c>
+      <c r="AZ79">
+        <v>6</v>
+      </c>
+      <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
+        <v>10</v>
+      </c>
+      <c r="BC79">
+        <v>13</v>
+      </c>
+      <c r="BD79">
+        <v>2.09</v>
+      </c>
+      <c r="BE79">
+        <v>7.9</v>
+      </c>
+      <c r="BF79">
+        <v>1.95</v>
+      </c>
+      <c r="BG79">
+        <v>1.5</v>
+      </c>
+      <c r="BH79">
+        <v>2.5</v>
+      </c>
+      <c r="BI79">
+        <v>1.87</v>
+      </c>
+      <c r="BJ79">
+        <v>1.93</v>
+      </c>
+      <c r="BK79">
+        <v>2.37</v>
+      </c>
+      <c r="BL79">
+        <v>1.55</v>
+      </c>
+      <c r="BM79">
+        <v>3</v>
+      </c>
+      <c r="BN79">
+        <v>1.33</v>
+      </c>
+      <c r="BO79">
+        <v>4</v>
+      </c>
+      <c r="BP79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7331002</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>142</v>
+      </c>
+      <c r="P80" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q80">
+        <v>2.59</v>
+      </c>
+      <c r="R80">
+        <v>2.09</v>
+      </c>
+      <c r="S80">
+        <v>3.96</v>
+      </c>
+      <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.81</v>
+      </c>
+      <c r="V80">
+        <v>2.85</v>
+      </c>
+      <c r="W80">
+        <v>1.39</v>
+      </c>
+      <c r="X80">
+        <v>7</v>
+      </c>
+      <c r="Y80">
+        <v>1.07</v>
+      </c>
+      <c r="Z80">
+        <v>1.97</v>
+      </c>
+      <c r="AA80">
+        <v>3.3</v>
+      </c>
+      <c r="AB80">
+        <v>3.1</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE80">
+        <v>1.28</v>
+      </c>
+      <c r="AF80">
+        <v>3.2</v>
+      </c>
+      <c r="AG80">
+        <v>1.95</v>
+      </c>
+      <c r="AH80">
+        <v>1.75</v>
+      </c>
+      <c r="AI80">
+        <v>1.75</v>
+      </c>
+      <c r="AJ80">
+        <v>1.92</v>
+      </c>
+      <c r="AK80">
+        <v>1.27</v>
+      </c>
+      <c r="AL80">
+        <v>1.27</v>
+      </c>
+      <c r="AM80">
+        <v>1.69</v>
+      </c>
+      <c r="AN80">
+        <v>1.33</v>
+      </c>
+      <c r="AO80">
+        <v>1.75</v>
+      </c>
+      <c r="AP80">
+        <v>1.75</v>
+      </c>
+      <c r="AQ80">
+        <v>1.4</v>
+      </c>
+      <c r="AR80">
+        <v>1.51</v>
+      </c>
+      <c r="AS80">
+        <v>1.15</v>
+      </c>
+      <c r="AT80">
+        <v>2.66</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>8</v>
+      </c>
+      <c r="AW80">
+        <v>3</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>12</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>6</v>
+      </c>
+      <c r="BC80">
+        <v>9</v>
+      </c>
+      <c r="BD80">
+        <v>2.1</v>
+      </c>
+      <c r="BE80">
+        <v>8</v>
+      </c>
+      <c r="BF80">
+        <v>1.95</v>
+      </c>
+      <c r="BG80">
+        <v>1.3</v>
+      </c>
+      <c r="BH80">
+        <v>3.2</v>
+      </c>
+      <c r="BI80">
+        <v>1.5</v>
+      </c>
+      <c r="BJ80">
+        <v>2.4</v>
+      </c>
+      <c r="BK80">
+        <v>1.85</v>
+      </c>
+      <c r="BL80">
+        <v>1.85</v>
+      </c>
+      <c r="BM80">
+        <v>2.4</v>
+      </c>
+      <c r="BN80">
+        <v>1.5</v>
+      </c>
+      <c r="BO80">
+        <v>3.2</v>
+      </c>
+      <c r="BP80">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7331003</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45385.29166666666</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q81">
+        <v>3.4</v>
+      </c>
+      <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>2.9</v>
+      </c>
+      <c r="T81">
+        <v>1.44</v>
+      </c>
+      <c r="U81">
+        <v>2.59</v>
+      </c>
+      <c r="V81">
+        <v>2.97</v>
+      </c>
+      <c r="W81">
+        <v>1.35</v>
+      </c>
+      <c r="X81">
+        <v>6.9</v>
+      </c>
+      <c r="Y81">
+        <v>1.07</v>
+      </c>
+      <c r="Z81">
+        <v>2.9</v>
+      </c>
+      <c r="AA81">
+        <v>3.25</v>
+      </c>
+      <c r="AB81">
+        <v>2.08</v>
+      </c>
+      <c r="AC81">
+        <v>1.07</v>
+      </c>
+      <c r="AD81">
+        <v>7.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.34</v>
+      </c>
+      <c r="AF81">
+        <v>3.12</v>
+      </c>
+      <c r="AG81">
+        <v>1.97</v>
+      </c>
+      <c r="AH81">
+        <v>1.74</v>
+      </c>
+      <c r="AI81">
+        <v>1.8</v>
+      </c>
+      <c r="AJ81">
+        <v>1.91</v>
+      </c>
+      <c r="AK81">
+        <v>1.5</v>
+      </c>
+      <c r="AL81">
+        <v>1.32</v>
+      </c>
+      <c r="AM81">
+        <v>1.36</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>2.5</v>
+      </c>
+      <c r="AP81">
+        <v>1.5</v>
+      </c>
+      <c r="AQ81">
+        <v>2.6</v>
+      </c>
+      <c r="AR81">
+        <v>1.19</v>
+      </c>
+      <c r="AS81">
+        <v>1.5</v>
+      </c>
+      <c r="AT81">
+        <v>2.69</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>8</v>
+      </c>
+      <c r="AY81">
+        <v>9</v>
+      </c>
+      <c r="AZ81">
+        <v>11</v>
+      </c>
+      <c r="BA81">
+        <v>4</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>6</v>
+      </c>
+      <c r="BD81">
+        <v>2.3</v>
+      </c>
+      <c r="BE81">
+        <v>9</v>
+      </c>
+      <c r="BF81">
+        <v>1.75</v>
+      </c>
+      <c r="BG81">
+        <v>1.18</v>
+      </c>
+      <c r="BH81">
+        <v>4.33</v>
+      </c>
+      <c r="BI81">
+        <v>1.32</v>
+      </c>
+      <c r="BJ81">
+        <v>3.1</v>
+      </c>
+      <c r="BK81">
+        <v>1.55</v>
+      </c>
+      <c r="BL81">
+        <v>2.38</v>
+      </c>
+      <c r="BM81">
+        <v>1.93</v>
+      </c>
+      <c r="BN81">
+        <v>1.86</v>
+      </c>
+      <c r="BO81">
+        <v>2.36</v>
+      </c>
+      <c r="BP81">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,18 @@
     <t>['27', '70']</t>
   </si>
   <si>
+    <t>['48', '51', '90+2']</t>
+  </si>
+  <si>
+    <t>['11', '90']</t>
+  </si>
+  <si>
+    <t>['17', '49']</t>
+  </si>
+  <si>
+    <t>['12', '70']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -554,6 +566,27 @@
   </si>
   <si>
     <t>['82', '89']</t>
+  </si>
+  <si>
+    <t>['13', '32', '40', '71']</t>
+  </si>
+  <si>
+    <t>['3', '13', '90+1']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['16', '53']</t>
+  </si>
+  <si>
+    <t>['68', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,7 +1413,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1458,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1667,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1870,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1998,7 +2031,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2410,7 +2443,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2488,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2694,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2822,7 +2855,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3106,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3234,7 +3267,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3315,7 +3348,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3440,7 +3473,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4136,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4551,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4757,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4882,7 +4915,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -4960,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5088,7 +5121,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5166,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21">
         <v>1.4</v>
@@ -5294,7 +5327,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5375,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5500,7 +5533,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5578,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5784,7 +5817,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -5912,7 +5945,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -5993,7 +6026,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6199,7 +6232,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6324,7 +6357,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6611,7 +6644,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -6736,7 +6769,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6817,7 +6850,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -6942,7 +6975,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7020,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
         <v>1.75</v>
@@ -7148,7 +7181,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7226,10 +7259,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7354,7 +7387,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7435,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7844,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -7972,7 +8005,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8178,7 +8211,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8256,7 +8289,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>2.6</v>
@@ -8465,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8668,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -8796,7 +8829,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -8877,7 +8910,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9002,7 +9035,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9080,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9208,7 +9241,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9289,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -9492,7 +9525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9701,7 +9734,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>2.12</v>
@@ -9904,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ44">
         <v>1.33</v>
@@ -10110,10 +10143,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ45">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10238,7 +10271,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10316,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -10856,7 +10889,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10937,7 +10970,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR49">
         <v>2.09</v>
@@ -11062,7 +11095,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11140,10 +11173,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11268,7 +11301,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11349,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11474,7 +11507,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11680,7 +11713,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11886,7 +11919,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12173,7 +12206,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12585,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13122,7 +13155,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13200,7 +13233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13328,7 +13361,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13406,10 +13439,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13534,7 +13567,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13612,10 +13645,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14024,10 +14057,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR64">
         <v>1.29</v>
@@ -14233,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>1.44</v>
@@ -14358,7 +14391,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14436,10 +14469,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14848,10 +14881,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15054,10 +15087,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15260,7 +15293,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
         <v>0.75</v>
@@ -15388,7 +15421,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15466,10 +15499,10 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -15594,7 +15627,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15800,7 +15833,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -15881,7 +15914,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16212,7 +16245,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16290,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16624,7 +16657,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16830,7 +16863,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17036,7 +17069,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17605,6 +17638,2066 @@
       </c>
       <c r="BP81">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7331004</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45389.04166666666</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>7</v>
+      </c>
+      <c r="O82" t="s">
+        <v>143</v>
+      </c>
+      <c r="P82" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q82">
+        <v>3.4</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>3.1</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>2.75</v>
+      </c>
+      <c r="W82">
+        <v>1.4</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>2.76</v>
+      </c>
+      <c r="AA82">
+        <v>3.19</v>
+      </c>
+      <c r="AB82">
+        <v>2.35</v>
+      </c>
+      <c r="AC82">
+        <v>1.05</v>
+      </c>
+      <c r="AD82">
+        <v>8.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.28</v>
+      </c>
+      <c r="AF82">
+        <v>3.4</v>
+      </c>
+      <c r="AG82">
+        <v>1.98</v>
+      </c>
+      <c r="AH82">
+        <v>1.9</v>
+      </c>
+      <c r="AI82">
+        <v>1.73</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AK82">
+        <v>1.55</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.4</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>2</v>
+      </c>
+      <c r="AP82">
+        <v>0.8</v>
+      </c>
+      <c r="AQ82">
+        <v>2.2</v>
+      </c>
+      <c r="AR82">
+        <v>1.47</v>
+      </c>
+      <c r="AS82">
+        <v>1.61</v>
+      </c>
+      <c r="AT82">
+        <v>3.08</v>
+      </c>
+      <c r="AU82">
+        <v>11</v>
+      </c>
+      <c r="AV82">
+        <v>12</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>16</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>1.49</v>
+      </c>
+      <c r="BE82">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF82">
+        <v>3.12</v>
+      </c>
+      <c r="BG82">
+        <v>1.33</v>
+      </c>
+      <c r="BH82">
+        <v>3</v>
+      </c>
+      <c r="BI82">
+        <v>1.57</v>
+      </c>
+      <c r="BJ82">
+        <v>2.19</v>
+      </c>
+      <c r="BK82">
+        <v>1.98</v>
+      </c>
+      <c r="BL82">
+        <v>1.7</v>
+      </c>
+      <c r="BM82">
+        <v>2.6</v>
+      </c>
+      <c r="BN82">
+        <v>1.41</v>
+      </c>
+      <c r="BO82">
+        <v>3.2</v>
+      </c>
+      <c r="BP82">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7331012</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>89</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>108</v>
+      </c>
+      <c r="P83" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q83">
+        <v>3.25</v>
+      </c>
+      <c r="R83">
+        <v>1.87</v>
+      </c>
+      <c r="S83">
+        <v>3.6</v>
+      </c>
+      <c r="T83">
+        <v>1.53</v>
+      </c>
+      <c r="U83">
+        <v>2.38</v>
+      </c>
+      <c r="V83">
+        <v>3.3</v>
+      </c>
+      <c r="W83">
+        <v>1.29</v>
+      </c>
+      <c r="X83">
+        <v>8.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.04</v>
+      </c>
+      <c r="Z83">
+        <v>2.5</v>
+      </c>
+      <c r="AA83">
+        <v>2.88</v>
+      </c>
+      <c r="AB83">
+        <v>2.88</v>
+      </c>
+      <c r="AC83">
+        <v>1.09</v>
+      </c>
+      <c r="AD83">
+        <v>6</v>
+      </c>
+      <c r="AE83">
+        <v>1.53</v>
+      </c>
+      <c r="AF83">
+        <v>2.38</v>
+      </c>
+      <c r="AG83">
+        <v>2.7</v>
+      </c>
+      <c r="AH83">
+        <v>1.39</v>
+      </c>
+      <c r="AI83">
+        <v>2.1</v>
+      </c>
+      <c r="AJ83">
+        <v>1.67</v>
+      </c>
+      <c r="AK83">
+        <v>1.34</v>
+      </c>
+      <c r="AL83">
+        <v>1.32</v>
+      </c>
+      <c r="AM83">
+        <v>1.4</v>
+      </c>
+      <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
+        <v>0.75</v>
+      </c>
+      <c r="AP83">
+        <v>1.2</v>
+      </c>
+      <c r="AQ83">
+        <v>1.2</v>
+      </c>
+      <c r="AR83">
+        <v>1.34</v>
+      </c>
+      <c r="AS83">
+        <v>1.53</v>
+      </c>
+      <c r="AT83">
+        <v>2.87</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>9</v>
+      </c>
+      <c r="AX83">
+        <v>12</v>
+      </c>
+      <c r="AY83">
+        <v>16</v>
+      </c>
+      <c r="AZ83">
+        <v>18</v>
+      </c>
+      <c r="BA83">
+        <v>8</v>
+      </c>
+      <c r="BB83">
+        <v>4</v>
+      </c>
+      <c r="BC83">
+        <v>12</v>
+      </c>
+      <c r="BD83">
+        <v>1.88</v>
+      </c>
+      <c r="BE83">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF83">
+        <v>2.12</v>
+      </c>
+      <c r="BG83">
+        <v>1.22</v>
+      </c>
+      <c r="BH83">
+        <v>3.8</v>
+      </c>
+      <c r="BI83">
+        <v>1.38</v>
+      </c>
+      <c r="BJ83">
+        <v>2.8</v>
+      </c>
+      <c r="BK83">
+        <v>1.65</v>
+      </c>
+      <c r="BL83">
+        <v>2.1</v>
+      </c>
+      <c r="BM83">
+        <v>2</v>
+      </c>
+      <c r="BN83">
+        <v>1.73</v>
+      </c>
+      <c r="BO83">
+        <v>2.5</v>
+      </c>
+      <c r="BP83">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7331011</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>92</v>
+      </c>
+      <c r="P84" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q84">
+        <v>4.33</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>2.55</v>
+      </c>
+      <c r="T84">
+        <v>1.45</v>
+      </c>
+      <c r="U84">
+        <v>2.55</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>1.33</v>
+      </c>
+      <c r="X84">
+        <v>7</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>4.2</v>
+      </c>
+      <c r="AA84">
+        <v>3.4</v>
+      </c>
+      <c r="AB84">
+        <v>1.75</v>
+      </c>
+      <c r="AC84">
+        <v>1.06</v>
+      </c>
+      <c r="AD84">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>1.36</v>
+      </c>
+      <c r="AF84">
+        <v>2.95</v>
+      </c>
+      <c r="AG84">
+        <v>2.05</v>
+      </c>
+      <c r="AH84">
+        <v>1.7</v>
+      </c>
+      <c r="AI84">
+        <v>1.83</v>
+      </c>
+      <c r="AJ84">
+        <v>1.8</v>
+      </c>
+      <c r="AK84">
+        <v>1.67</v>
+      </c>
+      <c r="AL84">
+        <v>1.26</v>
+      </c>
+      <c r="AM84">
+        <v>1.2</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>1</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>1.4</v>
+      </c>
+      <c r="AR84">
+        <v>1.35</v>
+      </c>
+      <c r="AS84">
+        <v>1.79</v>
+      </c>
+      <c r="AT84">
+        <v>3.14</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>2</v>
+      </c>
+      <c r="AW84">
+        <v>4</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>9</v>
+      </c>
+      <c r="AZ84">
+        <v>6</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>6</v>
+      </c>
+      <c r="BD84">
+        <v>2.94</v>
+      </c>
+      <c r="BE84">
+        <v>9</v>
+      </c>
+      <c r="BF84">
+        <v>1.5</v>
+      </c>
+      <c r="BG84">
+        <v>1.3</v>
+      </c>
+      <c r="BH84">
+        <v>3.2</v>
+      </c>
+      <c r="BI84">
+        <v>1.5</v>
+      </c>
+      <c r="BJ84">
+        <v>2.4</v>
+      </c>
+      <c r="BK84">
+        <v>1.8</v>
+      </c>
+      <c r="BL84">
+        <v>1.91</v>
+      </c>
+      <c r="BM84">
+        <v>2.25</v>
+      </c>
+      <c r="BN84">
+        <v>1.57</v>
+      </c>
+      <c r="BO84">
+        <v>2.9</v>
+      </c>
+      <c r="BP84">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7331010</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>87</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>90</v>
+      </c>
+      <c r="P85" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q85">
+        <v>3.5</v>
+      </c>
+      <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>2.9</v>
+      </c>
+      <c r="T85">
+        <v>1.41</v>
+      </c>
+      <c r="U85">
+        <v>2.7</v>
+      </c>
+      <c r="V85">
+        <v>2.8</v>
+      </c>
+      <c r="W85">
+        <v>1.38</v>
+      </c>
+      <c r="X85">
+        <v>6.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>3.1</v>
+      </c>
+      <c r="AA85">
+        <v>3.2</v>
+      </c>
+      <c r="AB85">
+        <v>2.15</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>8.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.3</v>
+      </c>
+      <c r="AF85">
+        <v>3.3</v>
+      </c>
+      <c r="AG85">
+        <v>1.91</v>
+      </c>
+      <c r="AH85">
+        <v>1.8</v>
+      </c>
+      <c r="AI85">
+        <v>1.75</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.52</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.3</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>2</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>1.8</v>
+      </c>
+      <c r="AR85">
+        <v>1.3</v>
+      </c>
+      <c r="AS85">
+        <v>1.23</v>
+      </c>
+      <c r="AT85">
+        <v>2.53</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>8</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>7</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>1.98</v>
+      </c>
+      <c r="BE85">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF85">
+        <v>2.04</v>
+      </c>
+      <c r="BG85">
+        <v>1.36</v>
+      </c>
+      <c r="BH85">
+        <v>2.9</v>
+      </c>
+      <c r="BI85">
+        <v>1.62</v>
+      </c>
+      <c r="BJ85">
+        <v>2.2</v>
+      </c>
+      <c r="BK85">
+        <v>2</v>
+      </c>
+      <c r="BL85">
+        <v>1.73</v>
+      </c>
+      <c r="BM85">
+        <v>2.5</v>
+      </c>
+      <c r="BN85">
+        <v>1.48</v>
+      </c>
+      <c r="BO85">
+        <v>3.3</v>
+      </c>
+      <c r="BP85">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7331009</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q86">
+        <v>3.9</v>
+      </c>
+      <c r="R86">
+        <v>2.1</v>
+      </c>
+      <c r="S86">
+        <v>2.6</v>
+      </c>
+      <c r="T86">
+        <v>1.38</v>
+      </c>
+      <c r="U86">
+        <v>2.8</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>3</v>
+      </c>
+      <c r="AA86">
+        <v>3.3</v>
+      </c>
+      <c r="AB86">
+        <v>2.15</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE86">
+        <v>1.26</v>
+      </c>
+      <c r="AF86">
+        <v>3.4</v>
+      </c>
+      <c r="AG86">
+        <v>1.85</v>
+      </c>
+      <c r="AH86">
+        <v>1.85</v>
+      </c>
+      <c r="AI86">
+        <v>1.67</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>1.6</v>
+      </c>
+      <c r="AL86">
+        <v>1.26</v>
+      </c>
+      <c r="AM86">
+        <v>1.25</v>
+      </c>
+      <c r="AN86">
+        <v>0.33</v>
+      </c>
+      <c r="AO86">
+        <v>1.5</v>
+      </c>
+      <c r="AP86">
+        <v>0.25</v>
+      </c>
+      <c r="AQ86">
+        <v>1.8</v>
+      </c>
+      <c r="AR86">
+        <v>1.43</v>
+      </c>
+      <c r="AS86">
+        <v>1.41</v>
+      </c>
+      <c r="AT86">
+        <v>2.84</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
+        <v>10</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>13</v>
+      </c>
+      <c r="BD86">
+        <v>1.99</v>
+      </c>
+      <c r="BE86">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF86">
+        <v>2</v>
+      </c>
+      <c r="BG86">
+        <v>1.29</v>
+      </c>
+      <c r="BH86">
+        <v>3.4</v>
+      </c>
+      <c r="BI86">
+        <v>1.48</v>
+      </c>
+      <c r="BJ86">
+        <v>2.5</v>
+      </c>
+      <c r="BK86">
+        <v>1.73</v>
+      </c>
+      <c r="BL86">
+        <v>2</v>
+      </c>
+      <c r="BM86">
+        <v>2.1</v>
+      </c>
+      <c r="BN86">
+        <v>1.65</v>
+      </c>
+      <c r="BO86">
+        <v>2.7</v>
+      </c>
+      <c r="BP86">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7331006</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>85</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q87">
+        <v>3.5</v>
+      </c>
+      <c r="R87">
+        <v>1.9</v>
+      </c>
+      <c r="S87">
+        <v>3.25</v>
+      </c>
+      <c r="T87">
+        <v>1.56</v>
+      </c>
+      <c r="U87">
+        <v>2.31</v>
+      </c>
+      <c r="V87">
+        <v>3.75</v>
+      </c>
+      <c r="W87">
+        <v>1.22</v>
+      </c>
+      <c r="X87">
+        <v>9</v>
+      </c>
+      <c r="Y87">
+        <v>1.05</v>
+      </c>
+      <c r="Z87">
+        <v>3.1</v>
+      </c>
+      <c r="AA87">
+        <v>3</v>
+      </c>
+      <c r="AB87">
+        <v>2.25</v>
+      </c>
+      <c r="AC87">
+        <v>1.09</v>
+      </c>
+      <c r="AD87">
+        <v>6.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.5</v>
+      </c>
+      <c r="AF87">
+        <v>2.4</v>
+      </c>
+      <c r="AG87">
+        <v>2.3</v>
+      </c>
+      <c r="AH87">
+        <v>1.54</v>
+      </c>
+      <c r="AI87">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87">
+        <v>1.7</v>
+      </c>
+      <c r="AK87">
+        <v>1.44</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.33</v>
+      </c>
+      <c r="AN87">
+        <v>1.75</v>
+      </c>
+      <c r="AO87">
+        <v>1.75</v>
+      </c>
+      <c r="AP87">
+        <v>1.6</v>
+      </c>
+      <c r="AQ87">
+        <v>1.6</v>
+      </c>
+      <c r="AR87">
+        <v>1.12</v>
+      </c>
+      <c r="AS87">
+        <v>1.47</v>
+      </c>
+      <c r="AT87">
+        <v>2.59</v>
+      </c>
+      <c r="AU87">
+        <v>2</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>4</v>
+      </c>
+      <c r="AX87">
+        <v>9</v>
+      </c>
+      <c r="AY87">
+        <v>6</v>
+      </c>
+      <c r="AZ87">
+        <v>12</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>12</v>
+      </c>
+      <c r="BC87">
+        <v>15</v>
+      </c>
+      <c r="BD87">
+        <v>2.31</v>
+      </c>
+      <c r="BE87">
+        <v>8.6</v>
+      </c>
+      <c r="BF87">
+        <v>1.76</v>
+      </c>
+      <c r="BG87">
+        <v>1.29</v>
+      </c>
+      <c r="BH87">
+        <v>3.3</v>
+      </c>
+      <c r="BI87">
+        <v>1.5</v>
+      </c>
+      <c r="BJ87">
+        <v>2.4</v>
+      </c>
+      <c r="BK87">
+        <v>1.8</v>
+      </c>
+      <c r="BL87">
+        <v>1.91</v>
+      </c>
+      <c r="BM87">
+        <v>2.25</v>
+      </c>
+      <c r="BN87">
+        <v>1.57</v>
+      </c>
+      <c r="BO87">
+        <v>2.9</v>
+      </c>
+      <c r="BP87">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7331007</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P88" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q88">
+        <v>3.4</v>
+      </c>
+      <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
+        <v>3.2</v>
+      </c>
+      <c r="T88">
+        <v>1.48</v>
+      </c>
+      <c r="U88">
+        <v>2.45</v>
+      </c>
+      <c r="V88">
+        <v>3.2</v>
+      </c>
+      <c r="W88">
+        <v>1.3</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>3</v>
+      </c>
+      <c r="AA88">
+        <v>3.1</v>
+      </c>
+      <c r="AB88">
+        <v>2.25</v>
+      </c>
+      <c r="AC88">
+        <v>1.07</v>
+      </c>
+      <c r="AD88">
+        <v>7.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.38</v>
+      </c>
+      <c r="AF88">
+        <v>2.88</v>
+      </c>
+      <c r="AG88">
+        <v>2.38</v>
+      </c>
+      <c r="AH88">
+        <v>1.53</v>
+      </c>
+      <c r="AI88">
+        <v>1.83</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.5</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.42</v>
+      </c>
+      <c r="AN88">
+        <v>0.2</v>
+      </c>
+      <c r="AO88">
+        <v>0.33</v>
+      </c>
+      <c r="AP88">
+        <v>0.33</v>
+      </c>
+      <c r="AQ88">
+        <v>0.5</v>
+      </c>
+      <c r="AR88">
+        <v>1.13</v>
+      </c>
+      <c r="AS88">
+        <v>1.33</v>
+      </c>
+      <c r="AT88">
+        <v>2.46</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>4</v>
+      </c>
+      <c r="AX88">
+        <v>6</v>
+      </c>
+      <c r="AY88">
+        <v>8</v>
+      </c>
+      <c r="AZ88">
+        <v>11</v>
+      </c>
+      <c r="BA88">
+        <v>5</v>
+      </c>
+      <c r="BB88">
+        <v>7</v>
+      </c>
+      <c r="BC88">
+        <v>12</v>
+      </c>
+      <c r="BD88">
+        <v>2.01</v>
+      </c>
+      <c r="BE88">
+        <v>8.1</v>
+      </c>
+      <c r="BF88">
+        <v>2.01</v>
+      </c>
+      <c r="BG88">
+        <v>1.33</v>
+      </c>
+      <c r="BH88">
+        <v>3</v>
+      </c>
+      <c r="BI88">
+        <v>1.54</v>
+      </c>
+      <c r="BJ88">
+        <v>2.25</v>
+      </c>
+      <c r="BK88">
+        <v>1.92</v>
+      </c>
+      <c r="BL88">
+        <v>1.75</v>
+      </c>
+      <c r="BM88">
+        <v>2.54</v>
+      </c>
+      <c r="BN88">
+        <v>1.43</v>
+      </c>
+      <c r="BO88">
+        <v>3.2</v>
+      </c>
+      <c r="BP88">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7331005</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>144</v>
+      </c>
+      <c r="P89" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q89">
+        <v>2.5</v>
+      </c>
+      <c r="R89">
+        <v>2.2</v>
+      </c>
+      <c r="S89">
+        <v>4.33</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>7</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>2.05</v>
+      </c>
+      <c r="AA89">
+        <v>3.3</v>
+      </c>
+      <c r="AB89">
+        <v>3.2</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
+        <v>3.55</v>
+      </c>
+      <c r="AG89">
+        <v>1.91</v>
+      </c>
+      <c r="AH89">
+        <v>1.8</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.2</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.83</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>0.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.5</v>
+      </c>
+      <c r="AQ89">
+        <v>0.4</v>
+      </c>
+      <c r="AR89">
+        <v>1.51</v>
+      </c>
+      <c r="AS89">
+        <v>1.34</v>
+      </c>
+      <c r="AT89">
+        <v>2.85</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>7</v>
+      </c>
+      <c r="AY89">
+        <v>11</v>
+      </c>
+      <c r="AZ89">
+        <v>11</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>11</v>
+      </c>
+      <c r="BD89">
+        <v>1.75</v>
+      </c>
+      <c r="BE89">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF89">
+        <v>2.39</v>
+      </c>
+      <c r="BG89">
+        <v>1.29</v>
+      </c>
+      <c r="BH89">
+        <v>3.4</v>
+      </c>
+      <c r="BI89">
+        <v>1.43</v>
+      </c>
+      <c r="BJ89">
+        <v>2.54</v>
+      </c>
+      <c r="BK89">
+        <v>1.75</v>
+      </c>
+      <c r="BL89">
+        <v>1.92</v>
+      </c>
+      <c r="BM89">
+        <v>2.23</v>
+      </c>
+      <c r="BN89">
+        <v>1.55</v>
+      </c>
+      <c r="BO89">
+        <v>2.8</v>
+      </c>
+      <c r="BP89">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7331008</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45389.08333333334</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>83</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>145</v>
+      </c>
+      <c r="P90" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q90">
+        <v>2.38</v>
+      </c>
+      <c r="R90">
+        <v>2.2</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>2.75</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>1.85</v>
+      </c>
+      <c r="AA90">
+        <v>3.4</v>
+      </c>
+      <c r="AB90">
+        <v>3.75</v>
+      </c>
+      <c r="AC90">
+        <v>1.05</v>
+      </c>
+      <c r="AD90">
+        <v>7.8</v>
+      </c>
+      <c r="AE90">
+        <v>1.27</v>
+      </c>
+      <c r="AF90">
+        <v>3.4</v>
+      </c>
+      <c r="AG90">
+        <v>1.91</v>
+      </c>
+      <c r="AH90">
+        <v>1.8</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.91</v>
+      </c>
+      <c r="AK90">
+        <v>1.15</v>
+      </c>
+      <c r="AL90">
+        <v>1.27</v>
+      </c>
+      <c r="AM90">
+        <v>1.83</v>
+      </c>
+      <c r="AN90">
+        <v>1.75</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1.6</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>1.52</v>
+      </c>
+      <c r="AS90">
+        <v>1.73</v>
+      </c>
+      <c r="AT90">
+        <v>3.25</v>
+      </c>
+      <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>12</v>
+      </c>
+      <c r="AZ90">
+        <v>5</v>
+      </c>
+      <c r="BA90">
+        <v>10</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>10</v>
+      </c>
+      <c r="BD90">
+        <v>1.44</v>
+      </c>
+      <c r="BE90">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF90">
+        <v>3.3</v>
+      </c>
+      <c r="BG90">
+        <v>1.29</v>
+      </c>
+      <c r="BH90">
+        <v>3.3</v>
+      </c>
+      <c r="BI90">
+        <v>1.45</v>
+      </c>
+      <c r="BJ90">
+        <v>2.48</v>
+      </c>
+      <c r="BK90">
+        <v>1.79</v>
+      </c>
+      <c r="BL90">
+        <v>1.87</v>
+      </c>
+      <c r="BM90">
+        <v>2.3</v>
+      </c>
+      <c r="BN90">
+        <v>1.52</v>
+      </c>
+      <c r="BO90">
+        <v>2.9</v>
+      </c>
+      <c r="BP90">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7331013</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45389.125</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>146</v>
+      </c>
+      <c r="P91" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q91">
+        <v>3.75</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>2.88</v>
+      </c>
+      <c r="T91">
+        <v>1.44</v>
+      </c>
+      <c r="U91">
+        <v>2.63</v>
+      </c>
+      <c r="V91">
+        <v>3.25</v>
+      </c>
+      <c r="W91">
+        <v>1.33</v>
+      </c>
+      <c r="X91">
+        <v>9</v>
+      </c>
+      <c r="Y91">
+        <v>1.07</v>
+      </c>
+      <c r="Z91">
+        <v>3.4</v>
+      </c>
+      <c r="AA91">
+        <v>3.1</v>
+      </c>
+      <c r="AB91">
+        <v>2.05</v>
+      </c>
+      <c r="AC91">
+        <v>1.06</v>
+      </c>
+      <c r="AD91">
+        <v>7.2</v>
+      </c>
+      <c r="AE91">
+        <v>1.32</v>
+      </c>
+      <c r="AF91">
+        <v>3.1</v>
+      </c>
+      <c r="AG91">
+        <v>2.1</v>
+      </c>
+      <c r="AH91">
+        <v>1.67</v>
+      </c>
+      <c r="AI91">
+        <v>1.83</v>
+      </c>
+      <c r="AJ91">
+        <v>1.83</v>
+      </c>
+      <c r="AK91">
+        <v>1.55</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.28</v>
+      </c>
+      <c r="AN91">
+        <v>1.5</v>
+      </c>
+      <c r="AO91">
+        <v>2</v>
+      </c>
+      <c r="AP91">
+        <v>1.4</v>
+      </c>
+      <c r="AQ91">
+        <v>1.8</v>
+      </c>
+      <c r="AR91">
+        <v>1.35</v>
+      </c>
+      <c r="AS91">
+        <v>1.45</v>
+      </c>
+      <c r="AT91">
+        <v>2.8</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>3</v>
+      </c>
+      <c r="AX91">
+        <v>7</v>
+      </c>
+      <c r="AY91">
+        <v>6</v>
+      </c>
+      <c r="AZ91">
+        <v>12</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>12</v>
+      </c>
+      <c r="BC91">
+        <v>13</v>
+      </c>
+      <c r="BD91">
+        <v>2.37</v>
+      </c>
+      <c r="BE91">
+        <v>8.6</v>
+      </c>
+      <c r="BF91">
+        <v>1.76</v>
+      </c>
+      <c r="BG91">
+        <v>1.29</v>
+      </c>
+      <c r="BH91">
+        <v>3.4</v>
+      </c>
+      <c r="BI91">
+        <v>1.41</v>
+      </c>
+      <c r="BJ91">
+        <v>2.6</v>
+      </c>
+      <c r="BK91">
+        <v>1.71</v>
+      </c>
+      <c r="BL91">
+        <v>1.97</v>
+      </c>
+      <c r="BM91">
+        <v>2.17</v>
+      </c>
+      <c r="BN91">
+        <v>1.58</v>
+      </c>
+      <c r="BO91">
+        <v>2.8</v>
+      </c>
+      <c r="BP91">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,24 @@
     <t>['12', '70']</t>
   </si>
   <si>
+    <t>['4', '12', '47', '55', '65', '87']</t>
+  </si>
+  <si>
+    <t>['10', '38']</t>
+  </si>
+  <si>
+    <t>['33', '77']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['25', '49']</t>
+  </si>
+  <si>
+    <t>['22', '80']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -587,6 +605,15 @@
   </si>
   <si>
     <t>['68', '90+2']</t>
+  </si>
+  <si>
+    <t>['42', '73']</t>
+  </si>
+  <si>
+    <t>['60', '90+7']</t>
+  </si>
+  <si>
+    <t>['7', '9', '68']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1413,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1903,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -2031,7 +2058,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2109,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2318,7 +2345,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2443,7 +2470,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2524,7 +2551,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2730,7 +2757,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2855,7 +2882,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3267,7 +3294,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3345,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.8</v>
@@ -3473,7 +3500,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3757,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4378,7 +4405,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4581,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>1.8</v>
@@ -4915,7 +4942,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5121,7 +5148,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5202,7 +5229,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5327,7 +5354,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5533,7 +5560,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5614,7 +5641,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5820,7 +5847,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5945,7 +5972,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6023,10 +6050,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6229,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6357,7 +6384,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6438,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6769,7 +6796,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6847,10 +6874,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -6975,7 +7002,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7053,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>1.75</v>
@@ -7181,7 +7208,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7387,7 +7414,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7674,7 +7701,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8005,7 +8032,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8086,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8211,7 +8238,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8829,7 +8856,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9035,7 +9062,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9241,7 +9268,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -10146,7 +10173,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ45">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10271,7 +10298,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10558,7 +10585,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.2</v>
@@ -10761,7 +10788,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>1.75</v>
@@ -10889,7 +10916,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10967,10 +10994,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>2.09</v>
@@ -11095,7 +11122,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11173,7 +11200,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>2.2</v>
@@ -11301,7 +11328,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11507,7 +11534,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11713,7 +11740,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11791,7 +11818,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>2.6</v>
@@ -11919,7 +11946,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12821,10 +12848,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13027,10 +13054,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13155,7 +13182,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13236,7 +13263,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13361,7 +13388,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13567,7 +13594,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14060,7 +14087,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.29</v>
@@ -14266,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.44</v>
@@ -14391,7 +14418,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15293,7 +15320,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>0.75</v>
@@ -15421,7 +15448,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15627,7 +15654,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15705,7 +15732,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72">
         <v>1.75</v>
@@ -15833,7 +15860,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16117,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>0.75</v>
@@ -16245,7 +16272,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16326,7 +16353,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
         <v>1.05</v>
@@ -16529,10 +16556,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>2.09</v>
@@ -16657,7 +16684,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16738,7 +16765,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>2.06</v>
@@ -16863,7 +16890,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17069,7 +17096,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17353,10 +17380,10 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR80">
         <v>1.51</v>
@@ -17687,7 +17714,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17893,7 +17920,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18099,7 +18126,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18305,7 +18332,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18511,7 +18538,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -18592,7 +18619,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ86">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19210,7 +19237,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.51</v>
@@ -19335,7 +19362,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19541,7 +19568,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19619,7 +19646,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>1.8</v>
@@ -19698,6 +19725,1242 @@
       </c>
       <c r="BP91">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7331017</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>7</v>
+      </c>
+      <c r="O92" t="s">
+        <v>147</v>
+      </c>
+      <c r="P92" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q92">
+        <v>2.28</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>4.95</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.7</v>
+      </c>
+      <c r="V92">
+        <v>2.8</v>
+      </c>
+      <c r="W92">
+        <v>1.38</v>
+      </c>
+      <c r="X92">
+        <v>6.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>1.71</v>
+      </c>
+      <c r="AA92">
+        <v>3.5</v>
+      </c>
+      <c r="AB92">
+        <v>4.5</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>8</v>
+      </c>
+      <c r="AE92">
+        <v>1.3</v>
+      </c>
+      <c r="AF92">
+        <v>3.2</v>
+      </c>
+      <c r="AG92">
+        <v>1.96</v>
+      </c>
+      <c r="AH92">
+        <v>1.75</v>
+      </c>
+      <c r="AI92">
+        <v>1.86</v>
+      </c>
+      <c r="AJ92">
+        <v>1.8</v>
+      </c>
+      <c r="AK92">
+        <v>1.22</v>
+      </c>
+      <c r="AL92">
+        <v>1.29</v>
+      </c>
+      <c r="AM92">
+        <v>2</v>
+      </c>
+      <c r="AN92">
+        <v>1.75</v>
+      </c>
+      <c r="AO92">
+        <v>1.25</v>
+      </c>
+      <c r="AP92">
+        <v>2</v>
+      </c>
+      <c r="AQ92">
+        <v>1</v>
+      </c>
+      <c r="AR92">
+        <v>1.45</v>
+      </c>
+      <c r="AS92">
+        <v>1.37</v>
+      </c>
+      <c r="AT92">
+        <v>2.82</v>
+      </c>
+      <c r="AU92">
+        <v>13</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>5</v>
+      </c>
+      <c r="AX92">
+        <v>8</v>
+      </c>
+      <c r="AY92">
+        <v>18</v>
+      </c>
+      <c r="AZ92">
+        <v>11</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>11</v>
+      </c>
+      <c r="BD92">
+        <v>1.64</v>
+      </c>
+      <c r="BE92">
+        <v>8</v>
+      </c>
+      <c r="BF92">
+        <v>2.67</v>
+      </c>
+      <c r="BG92">
+        <v>1.29</v>
+      </c>
+      <c r="BH92">
+        <v>3.3</v>
+      </c>
+      <c r="BI92">
+        <v>1.48</v>
+      </c>
+      <c r="BJ92">
+        <v>2.47</v>
+      </c>
+      <c r="BK92">
+        <v>1.85</v>
+      </c>
+      <c r="BL92">
+        <v>1.95</v>
+      </c>
+      <c r="BM92">
+        <v>2.37</v>
+      </c>
+      <c r="BN92">
+        <v>1.51</v>
+      </c>
+      <c r="BO92">
+        <v>3.2</v>
+      </c>
+      <c r="BP92">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7331014</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>87</v>
+      </c>
+      <c r="H93" t="s">
+        <v>88</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>148</v>
+      </c>
+      <c r="P93" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <v>3.12</v>
+      </c>
+      <c r="R93">
+        <v>1.97</v>
+      </c>
+      <c r="S93">
+        <v>3.45</v>
+      </c>
+      <c r="T93">
+        <v>1.48</v>
+      </c>
+      <c r="U93">
+        <v>2.54</v>
+      </c>
+      <c r="V93">
+        <v>3.2</v>
+      </c>
+      <c r="W93">
+        <v>1.32</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.05</v>
+      </c>
+      <c r="Z93">
+        <v>2.5</v>
+      </c>
+      <c r="AA93">
+        <v>2.95</v>
+      </c>
+      <c r="AB93">
+        <v>2.85</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>7.4</v>
+      </c>
+      <c r="AE93">
+        <v>1.38</v>
+      </c>
+      <c r="AF93">
+        <v>2.71</v>
+      </c>
+      <c r="AG93">
+        <v>2.23</v>
+      </c>
+      <c r="AH93">
+        <v>1.58</v>
+      </c>
+      <c r="AI93">
+        <v>1.87</v>
+      </c>
+      <c r="AJ93">
+        <v>1.79</v>
+      </c>
+      <c r="AK93">
+        <v>1.39</v>
+      </c>
+      <c r="AL93">
+        <v>1.31</v>
+      </c>
+      <c r="AM93">
+        <v>1.47</v>
+      </c>
+      <c r="AN93">
+        <v>1.25</v>
+      </c>
+      <c r="AO93">
+        <v>1.4</v>
+      </c>
+      <c r="AP93">
+        <v>1.6</v>
+      </c>
+      <c r="AQ93">
+        <v>1.17</v>
+      </c>
+      <c r="AR93">
+        <v>1.92</v>
+      </c>
+      <c r="AS93">
+        <v>1.33</v>
+      </c>
+      <c r="AT93">
+        <v>3.25</v>
+      </c>
+      <c r="AU93">
+        <v>4</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>6</v>
+      </c>
+      <c r="AX93">
+        <v>10</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>13</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>6</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>1.75</v>
+      </c>
+      <c r="BE93">
+        <v>7.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.53</v>
+      </c>
+      <c r="BG93">
+        <v>1.38</v>
+      </c>
+      <c r="BH93">
+        <v>2.8</v>
+      </c>
+      <c r="BI93">
+        <v>1.73</v>
+      </c>
+      <c r="BJ93">
+        <v>1.99</v>
+      </c>
+      <c r="BK93">
+        <v>2.23</v>
+      </c>
+      <c r="BL93">
+        <v>1.58</v>
+      </c>
+      <c r="BM93">
+        <v>3.05</v>
+      </c>
+      <c r="BN93">
+        <v>1.33</v>
+      </c>
+      <c r="BO93">
+        <v>3.2</v>
+      </c>
+      <c r="BP93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7331015</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>149</v>
+      </c>
+      <c r="P94" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q94">
+        <v>2.64</v>
+      </c>
+      <c r="R94">
+        <v>1.93</v>
+      </c>
+      <c r="S94">
+        <v>4.55</v>
+      </c>
+      <c r="T94">
+        <v>1.52</v>
+      </c>
+      <c r="U94">
+        <v>2.43</v>
+      </c>
+      <c r="V94">
+        <v>3.46</v>
+      </c>
+      <c r="W94">
+        <v>1.28</v>
+      </c>
+      <c r="X94">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y94">
+        <v>1.03</v>
+      </c>
+      <c r="Z94">
+        <v>2.02</v>
+      </c>
+      <c r="AA94">
+        <v>3.05</v>
+      </c>
+      <c r="AB94">
+        <v>3.65</v>
+      </c>
+      <c r="AC94">
+        <v>1.06</v>
+      </c>
+      <c r="AD94">
+        <v>6.8</v>
+      </c>
+      <c r="AE94">
+        <v>1.43</v>
+      </c>
+      <c r="AF94">
+        <v>2.54</v>
+      </c>
+      <c r="AG94">
+        <v>2.45</v>
+      </c>
+      <c r="AH94">
+        <v>1.48</v>
+      </c>
+      <c r="AI94">
+        <v>2.04</v>
+      </c>
+      <c r="AJ94">
+        <v>1.66</v>
+      </c>
+      <c r="AK94">
+        <v>1.23</v>
+      </c>
+      <c r="AL94">
+        <v>1.31</v>
+      </c>
+      <c r="AM94">
+        <v>1.72</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>0.75</v>
+      </c>
+      <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
+        <v>0.8</v>
+      </c>
+      <c r="AR94">
+        <v>1.32</v>
+      </c>
+      <c r="AS94">
+        <v>1.09</v>
+      </c>
+      <c r="AT94">
+        <v>2.41</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>8</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>13</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>2</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>6</v>
+      </c>
+      <c r="BD94">
+        <v>1.64</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>2.77</v>
+      </c>
+      <c r="BG94">
+        <v>1.29</v>
+      </c>
+      <c r="BH94">
+        <v>3.3</v>
+      </c>
+      <c r="BI94">
+        <v>1.51</v>
+      </c>
+      <c r="BJ94">
+        <v>2.37</v>
+      </c>
+      <c r="BK94">
+        <v>2</v>
+      </c>
+      <c r="BL94">
+        <v>1.8</v>
+      </c>
+      <c r="BM94">
+        <v>2.47</v>
+      </c>
+      <c r="BN94">
+        <v>1.48</v>
+      </c>
+      <c r="BO94">
+        <v>3.1</v>
+      </c>
+      <c r="BP94">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7331016</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45395.08333333334</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s">
+        <v>79</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>150</v>
+      </c>
+      <c r="P95" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q95">
+        <v>2.38</v>
+      </c>
+      <c r="R95">
+        <v>2.07</v>
+      </c>
+      <c r="S95">
+        <v>4.65</v>
+      </c>
+      <c r="T95">
+        <v>1.43</v>
+      </c>
+      <c r="U95">
+        <v>2.7</v>
+      </c>
+      <c r="V95">
+        <v>2.99</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>7.4</v>
+      </c>
+      <c r="Y95">
+        <v>1.06</v>
+      </c>
+      <c r="Z95">
+        <v>1.83</v>
+      </c>
+      <c r="AA95">
+        <v>3.35</v>
+      </c>
+      <c r="AB95">
+        <v>4</v>
+      </c>
+      <c r="AC95">
+        <v>1.03</v>
+      </c>
+      <c r="AD95">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE95">
+        <v>1.32</v>
+      </c>
+      <c r="AF95">
+        <v>2.98</v>
+      </c>
+      <c r="AG95">
+        <v>2.02</v>
+      </c>
+      <c r="AH95">
+        <v>1.71</v>
+      </c>
+      <c r="AI95">
+        <v>1.86</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8</v>
+      </c>
+      <c r="AK95">
+        <v>1.19</v>
+      </c>
+      <c r="AL95">
+        <v>1.26</v>
+      </c>
+      <c r="AM95">
+        <v>1.87</v>
+      </c>
+      <c r="AN95">
+        <v>1.5</v>
+      </c>
+      <c r="AO95">
+        <v>1.5</v>
+      </c>
+      <c r="AP95">
+        <v>1.4</v>
+      </c>
+      <c r="AQ95">
+        <v>1.4</v>
+      </c>
+      <c r="AR95">
+        <v>2.25</v>
+      </c>
+      <c r="AS95">
+        <v>1.58</v>
+      </c>
+      <c r="AT95">
+        <v>3.83</v>
+      </c>
+      <c r="AU95">
+        <v>7</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>13</v>
+      </c>
+      <c r="AX95">
+        <v>8</v>
+      </c>
+      <c r="AY95">
+        <v>20</v>
+      </c>
+      <c r="AZ95">
+        <v>12</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>11</v>
+      </c>
+      <c r="BD95">
+        <v>1.75</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>2.45</v>
+      </c>
+      <c r="BG95">
+        <v>1.39</v>
+      </c>
+      <c r="BH95">
+        <v>2.77</v>
+      </c>
+      <c r="BI95">
+        <v>1.73</v>
+      </c>
+      <c r="BJ95">
+        <v>1.99</v>
+      </c>
+      <c r="BK95">
+        <v>2.23</v>
+      </c>
+      <c r="BL95">
+        <v>1.58</v>
+      </c>
+      <c r="BM95">
+        <v>3.05</v>
+      </c>
+      <c r="BN95">
+        <v>1.33</v>
+      </c>
+      <c r="BO95">
+        <v>3.2</v>
+      </c>
+      <c r="BP95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7331019</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45395.16666666666</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>151</v>
+      </c>
+      <c r="P96" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q96">
+        <v>1.06</v>
+      </c>
+      <c r="R96">
+        <v>1.2</v>
+      </c>
+      <c r="S96">
+        <v>1.06</v>
+      </c>
+      <c r="T96">
+        <v>1.38</v>
+      </c>
+      <c r="U96">
+        <v>2.8</v>
+      </c>
+      <c r="V96">
+        <v>2.75</v>
+      </c>
+      <c r="W96">
+        <v>1.4</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.08</v>
+      </c>
+      <c r="Z96">
+        <v>2.45</v>
+      </c>
+      <c r="AA96">
+        <v>3.25</v>
+      </c>
+      <c r="AB96">
+        <v>2.65</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.3</v>
+      </c>
+      <c r="AF96">
+        <v>3.45</v>
+      </c>
+      <c r="AG96">
+        <v>1.85</v>
+      </c>
+      <c r="AH96">
+        <v>1.85</v>
+      </c>
+      <c r="AI96">
+        <v>1.71</v>
+      </c>
+      <c r="AJ96">
+        <v>2.04</v>
+      </c>
+      <c r="AK96">
+        <v>1.43</v>
+      </c>
+      <c r="AL96">
+        <v>1.36</v>
+      </c>
+      <c r="AM96">
+        <v>1.57</v>
+      </c>
+      <c r="AN96">
+        <v>1.4</v>
+      </c>
+      <c r="AO96">
+        <v>0.4</v>
+      </c>
+      <c r="AP96">
+        <v>1.33</v>
+      </c>
+      <c r="AQ96">
+        <v>0.5</v>
+      </c>
+      <c r="AR96">
+        <v>1.2</v>
+      </c>
+      <c r="AS96">
+        <v>1.34</v>
+      </c>
+      <c r="AT96">
+        <v>2.54</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>13</v>
+      </c>
+      <c r="AX96">
+        <v>9</v>
+      </c>
+      <c r="AY96">
+        <v>18</v>
+      </c>
+      <c r="AZ96">
+        <v>16</v>
+      </c>
+      <c r="BA96">
+        <v>4</v>
+      </c>
+      <c r="BB96">
+        <v>8</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>1.96</v>
+      </c>
+      <c r="BE96">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF96">
+        <v>2</v>
+      </c>
+      <c r="BG96">
+        <v>1.15</v>
+      </c>
+      <c r="BH96">
+        <v>4.75</v>
+      </c>
+      <c r="BI96">
+        <v>1.29</v>
+      </c>
+      <c r="BJ96">
+        <v>3.3</v>
+      </c>
+      <c r="BK96">
+        <v>1.42</v>
+      </c>
+      <c r="BL96">
+        <v>2.75</v>
+      </c>
+      <c r="BM96">
+        <v>1.71</v>
+      </c>
+      <c r="BN96">
+        <v>2.09</v>
+      </c>
+      <c r="BO96">
+        <v>2.12</v>
+      </c>
+      <c r="BP96">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7331018</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45395.16666666666</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" t="s">
+        <v>81</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97" t="s">
+        <v>152</v>
+      </c>
+      <c r="P97" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q97">
+        <v>3.92</v>
+      </c>
+      <c r="R97">
+        <v>2.13</v>
+      </c>
+      <c r="S97">
+        <v>2.55</v>
+      </c>
+      <c r="T97">
+        <v>1.36</v>
+      </c>
+      <c r="U97">
+        <v>2.88</v>
+      </c>
+      <c r="V97">
+        <v>2.62</v>
+      </c>
+      <c r="W97">
+        <v>1.42</v>
+      </c>
+      <c r="X97">
+        <v>6</v>
+      </c>
+      <c r="Y97">
+        <v>1.09</v>
+      </c>
+      <c r="Z97">
+        <v>3.35</v>
+      </c>
+      <c r="AA97">
+        <v>3.5</v>
+      </c>
+      <c r="AB97">
+        <v>1.98</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>9</v>
+      </c>
+      <c r="AE97">
+        <v>1.29</v>
+      </c>
+      <c r="AF97">
+        <v>3.3</v>
+      </c>
+      <c r="AG97">
+        <v>1.86</v>
+      </c>
+      <c r="AH97">
+        <v>1.84</v>
+      </c>
+      <c r="AI97">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97">
+        <v>2</v>
+      </c>
+      <c r="AK97">
+        <v>1.6</v>
+      </c>
+      <c r="AL97">
+        <v>1.25</v>
+      </c>
+      <c r="AM97">
+        <v>1.26</v>
+      </c>
+      <c r="AN97">
+        <v>2</v>
+      </c>
+      <c r="AO97">
+        <v>1.8</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>2</v>
+      </c>
+      <c r="AR97">
+        <v>1.54</v>
+      </c>
+      <c r="AS97">
+        <v>1.4</v>
+      </c>
+      <c r="AT97">
+        <v>2.94</v>
+      </c>
+      <c r="AU97">
+        <v>9</v>
+      </c>
+      <c r="AV97">
+        <v>6</v>
+      </c>
+      <c r="AW97">
+        <v>5</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>14</v>
+      </c>
+      <c r="AZ97">
+        <v>8</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>2.05</v>
+      </c>
+      <c r="BE97">
+        <v>8.5</v>
+      </c>
+      <c r="BF97">
+        <v>2</v>
+      </c>
+      <c r="BG97">
+        <v>1.22</v>
+      </c>
+      <c r="BH97">
+        <v>3.8</v>
+      </c>
+      <c r="BI97">
+        <v>1.29</v>
+      </c>
+      <c r="BJ97">
+        <v>3.3</v>
+      </c>
+      <c r="BK97">
+        <v>1.38</v>
+      </c>
+      <c r="BL97">
+        <v>2.8</v>
+      </c>
+      <c r="BM97">
+        <v>1.73</v>
+      </c>
+      <c r="BN97">
+        <v>1.99</v>
+      </c>
+      <c r="BO97">
+        <v>2.15</v>
+      </c>
+      <c r="BP97">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,15 @@
     <t>['22', '80']</t>
   </si>
   <si>
+    <t>['10', '85']</t>
+  </si>
+  <si>
+    <t>['4', '55', '66', '90+4']</t>
+  </si>
+  <si>
+    <t>['11', '42', '79']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -614,6 +623,9 @@
   </si>
   <si>
     <t>['7', '9', '68']</t>
+  </si>
+  <si>
+    <t>['4', '12', '45+7']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1518,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
         <v>1.6</v>
@@ -2058,7 +2070,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2470,7 +2482,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2548,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2882,7 +2894,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -2963,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3294,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3500,7 +3512,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3581,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -3787,7 +3799,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4611,7 +4623,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4814,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>1.2</v>
@@ -4942,7 +4954,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5020,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5148,7 +5160,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5354,7 +5366,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5560,7 +5572,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5844,7 +5856,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -5972,7 +5984,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6384,7 +6396,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6796,7 +6808,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7002,7 +7014,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7208,7 +7220,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7414,7 +7426,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7495,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8032,7 +8044,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8238,7 +8250,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8319,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8522,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>1.8</v>
@@ -8856,7 +8868,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9062,7 +9074,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9140,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9268,7 +9280,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9346,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>2.2</v>
@@ -9964,10 +9976,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10298,7 +10310,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10379,7 +10391,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10582,7 +10594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>0.8</v>
@@ -10916,7 +10928,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11122,7 +11134,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11328,7 +11340,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11534,7 +11546,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11740,7 +11752,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11821,7 +11833,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -11946,7 +11958,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12436,7 +12448,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
         <v>1.75</v>
@@ -13182,7 +13194,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13388,7 +13400,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13469,7 +13481,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ61">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13594,7 +13606,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13878,7 +13890,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14418,7 +14430,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14496,7 +14508,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>1.8</v>
@@ -14705,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -14911,7 +14923,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15114,7 +15126,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15323,7 +15335,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15448,7 +15460,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15654,7 +15666,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15860,7 +15872,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -15938,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16147,7 +16159,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR74">
         <v>1.55</v>
@@ -16272,7 +16284,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16684,7 +16696,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16890,7 +16902,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17096,7 +17108,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17174,7 +17186,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ79">
         <v>1.75</v>
@@ -17589,7 +17601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR81">
         <v>1.19</v>
@@ -17714,7 +17726,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17792,7 +17804,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82">
         <v>2.2</v>
@@ -17920,7 +17932,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18126,7 +18138,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18332,7 +18344,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18538,7 +18550,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -19362,7 +19374,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19440,7 +19452,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19568,7 +19580,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19649,7 +19661,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20186,7 +20198,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20392,7 +20404,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20598,7 +20610,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20804,7 +20816,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -20961,6 +20973,830 @@
       </c>
       <c r="BP97">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7331020</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45396.08333333334</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>89</v>
+      </c>
+      <c r="H98" t="s">
+        <v>75</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
+        <v>92</v>
+      </c>
+      <c r="P98" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q98">
+        <v>3.6</v>
+      </c>
+      <c r="R98">
+        <v>2.1</v>
+      </c>
+      <c r="S98">
+        <v>3.1</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3.25</v>
+      </c>
+      <c r="W98">
+        <v>1.33</v>
+      </c>
+      <c r="X98">
+        <v>9</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>2.95</v>
+      </c>
+      <c r="AA98">
+        <v>3.4</v>
+      </c>
+      <c r="AB98">
+        <v>2.4</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>8.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.5</v>
+      </c>
+      <c r="AF98">
+        <v>2.4</v>
+      </c>
+      <c r="AG98">
+        <v>2.4</v>
+      </c>
+      <c r="AH98">
+        <v>1.5</v>
+      </c>
+      <c r="AI98">
+        <v>1.83</v>
+      </c>
+      <c r="AJ98">
+        <v>1.83</v>
+      </c>
+      <c r="AK98">
+        <v>1.57</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.4</v>
+      </c>
+      <c r="AN98">
+        <v>2</v>
+      </c>
+      <c r="AO98">
+        <v>1.8</v>
+      </c>
+      <c r="AP98">
+        <v>1.8</v>
+      </c>
+      <c r="AQ98">
+        <v>1.67</v>
+      </c>
+      <c r="AR98">
+        <v>1.35</v>
+      </c>
+      <c r="AS98">
+        <v>1.51</v>
+      </c>
+      <c r="AT98">
+        <v>2.86</v>
+      </c>
+      <c r="AU98">
+        <v>7</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>12</v>
+      </c>
+      <c r="AZ98">
+        <v>5</v>
+      </c>
+      <c r="BA98">
+        <v>10</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>12</v>
+      </c>
+      <c r="BD98">
+        <v>1.85</v>
+      </c>
+      <c r="BE98">
+        <v>8.6</v>
+      </c>
+      <c r="BF98">
+        <v>2.17</v>
+      </c>
+      <c r="BG98">
+        <v>1.29</v>
+      </c>
+      <c r="BH98">
+        <v>3.4</v>
+      </c>
+      <c r="BI98">
+        <v>1.48</v>
+      </c>
+      <c r="BJ98">
+        <v>2.5</v>
+      </c>
+      <c r="BK98">
+        <v>1.73</v>
+      </c>
+      <c r="BL98">
+        <v>2</v>
+      </c>
+      <c r="BM98">
+        <v>2.2</v>
+      </c>
+      <c r="BN98">
+        <v>1.62</v>
+      </c>
+      <c r="BO98">
+        <v>2.7</v>
+      </c>
+      <c r="BP98">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7331021</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45396.08333333334</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q99">
+        <v>1.91</v>
+      </c>
+      <c r="R99">
+        <v>2.5</v>
+      </c>
+      <c r="S99">
+        <v>6.5</v>
+      </c>
+      <c r="T99">
+        <v>1.3</v>
+      </c>
+      <c r="U99">
+        <v>3.4</v>
+      </c>
+      <c r="V99">
+        <v>2.5</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>6</v>
+      </c>
+      <c r="Y99">
+        <v>1.13</v>
+      </c>
+      <c r="Z99">
+        <v>1.43</v>
+      </c>
+      <c r="AA99">
+        <v>4.8</v>
+      </c>
+      <c r="AB99">
+        <v>7</v>
+      </c>
+      <c r="AC99">
+        <v>1.03</v>
+      </c>
+      <c r="AD99">
+        <v>10</v>
+      </c>
+      <c r="AE99">
+        <v>1.2</v>
+      </c>
+      <c r="AF99">
+        <v>4.2</v>
+      </c>
+      <c r="AG99">
+        <v>1.62</v>
+      </c>
+      <c r="AH99">
+        <v>2.15</v>
+      </c>
+      <c r="AI99">
+        <v>1.83</v>
+      </c>
+      <c r="AJ99">
+        <v>1.83</v>
+      </c>
+      <c r="AK99">
+        <v>1.13</v>
+      </c>
+      <c r="AL99">
+        <v>1.18</v>
+      </c>
+      <c r="AM99">
+        <v>2.7</v>
+      </c>
+      <c r="AN99">
+        <v>1.6</v>
+      </c>
+      <c r="AO99">
+        <v>0.75</v>
+      </c>
+      <c r="AP99">
+        <v>1.83</v>
+      </c>
+      <c r="AQ99">
+        <v>0.6</v>
+      </c>
+      <c r="AR99">
+        <v>1.54</v>
+      </c>
+      <c r="AS99">
+        <v>1.65</v>
+      </c>
+      <c r="AT99">
+        <v>3.19</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>4</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>11</v>
+      </c>
+      <c r="AZ99">
+        <v>8</v>
+      </c>
+      <c r="BA99">
+        <v>8</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>1.28</v>
+      </c>
+      <c r="BE99">
+        <v>10.25</v>
+      </c>
+      <c r="BF99">
+        <v>4.15</v>
+      </c>
+      <c r="BG99">
+        <v>1.3</v>
+      </c>
+      <c r="BH99">
+        <v>3.2</v>
+      </c>
+      <c r="BI99">
+        <v>1.5</v>
+      </c>
+      <c r="BJ99">
+        <v>2.4</v>
+      </c>
+      <c r="BK99">
+        <v>1.8</v>
+      </c>
+      <c r="BL99">
+        <v>1.91</v>
+      </c>
+      <c r="BM99">
+        <v>2.25</v>
+      </c>
+      <c r="BN99">
+        <v>1.57</v>
+      </c>
+      <c r="BO99">
+        <v>2.9</v>
+      </c>
+      <c r="BP99">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7331022</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45396.08333333334</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>84</v>
+      </c>
+      <c r="H100" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>154</v>
+      </c>
+      <c r="P100" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q100">
+        <v>2.4</v>
+      </c>
+      <c r="R100">
+        <v>2.1</v>
+      </c>
+      <c r="S100">
+        <v>4.75</v>
+      </c>
+      <c r="T100">
+        <v>1.44</v>
+      </c>
+      <c r="U100">
+        <v>2.6</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>7</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>1.85</v>
+      </c>
+      <c r="AA100">
+        <v>3.65</v>
+      </c>
+      <c r="AB100">
+        <v>4.2</v>
+      </c>
+      <c r="AC100">
+        <v>1.07</v>
+      </c>
+      <c r="AD100">
+        <v>7</v>
+      </c>
+      <c r="AE100">
+        <v>1.38</v>
+      </c>
+      <c r="AF100">
+        <v>2.8</v>
+      </c>
+      <c r="AG100">
+        <v>2.2</v>
+      </c>
+      <c r="AH100">
+        <v>1.6</v>
+      </c>
+      <c r="AI100">
+        <v>2</v>
+      </c>
+      <c r="AJ100">
+        <v>1.73</v>
+      </c>
+      <c r="AK100">
+        <v>1.2</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.91</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>1.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.4</v>
+      </c>
+      <c r="AQ100">
+        <v>1</v>
+      </c>
+      <c r="AR100">
+        <v>1.77</v>
+      </c>
+      <c r="AS100">
+        <v>0.93</v>
+      </c>
+      <c r="AT100">
+        <v>2.7</v>
+      </c>
+      <c r="AU100">
+        <v>7</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>8</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>11</v>
+      </c>
+      <c r="BD100">
+        <v>1.4</v>
+      </c>
+      <c r="BE100">
+        <v>9.1</v>
+      </c>
+      <c r="BF100">
+        <v>3.4</v>
+      </c>
+      <c r="BG100">
+        <v>1.36</v>
+      </c>
+      <c r="BH100">
+        <v>2.9</v>
+      </c>
+      <c r="BI100">
+        <v>1.6</v>
+      </c>
+      <c r="BJ100">
+        <v>2.2</v>
+      </c>
+      <c r="BK100">
+        <v>1.95</v>
+      </c>
+      <c r="BL100">
+        <v>1.75</v>
+      </c>
+      <c r="BM100">
+        <v>2.4</v>
+      </c>
+      <c r="BN100">
+        <v>1.5</v>
+      </c>
+      <c r="BO100">
+        <v>3.2</v>
+      </c>
+      <c r="BP100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7331023</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45396.08333333334</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s">
+        <v>86</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>6</v>
+      </c>
+      <c r="O101" t="s">
+        <v>155</v>
+      </c>
+      <c r="P101" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q101">
+        <v>3.75</v>
+      </c>
+      <c r="R101">
+        <v>2.2</v>
+      </c>
+      <c r="S101">
+        <v>2.88</v>
+      </c>
+      <c r="T101">
+        <v>1.4</v>
+      </c>
+      <c r="U101">
+        <v>2.75</v>
+      </c>
+      <c r="V101">
+        <v>2.75</v>
+      </c>
+      <c r="W101">
+        <v>1.4</v>
+      </c>
+      <c r="X101">
+        <v>8</v>
+      </c>
+      <c r="Y101">
+        <v>1.08</v>
+      </c>
+      <c r="Z101">
+        <v>3.3</v>
+      </c>
+      <c r="AA101">
+        <v>3.5</v>
+      </c>
+      <c r="AB101">
+        <v>2.16</v>
+      </c>
+      <c r="AC101">
+        <v>1.05</v>
+      </c>
+      <c r="AD101">
+        <v>8.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.28</v>
+      </c>
+      <c r="AF101">
+        <v>3.4</v>
+      </c>
+      <c r="AG101">
+        <v>1.9</v>
+      </c>
+      <c r="AH101">
+        <v>1.9</v>
+      </c>
+      <c r="AI101">
+        <v>1.73</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>1.67</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.33</v>
+      </c>
+      <c r="AN101">
+        <v>0.8</v>
+      </c>
+      <c r="AO101">
+        <v>2.6</v>
+      </c>
+      <c r="AP101">
+        <v>0.83</v>
+      </c>
+      <c r="AQ101">
+        <v>2.33</v>
+      </c>
+      <c r="AR101">
+        <v>1.63</v>
+      </c>
+      <c r="AS101">
+        <v>1.47</v>
+      </c>
+      <c r="AT101">
+        <v>3.1</v>
+      </c>
+      <c r="AU101">
+        <v>10</v>
+      </c>
+      <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>4</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
+        <v>8</v>
+      </c>
+      <c r="BA101">
+        <v>1</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>4</v>
+      </c>
+      <c r="BD101">
+        <v>2.01</v>
+      </c>
+      <c r="BE101">
+        <v>8.1</v>
+      </c>
+      <c r="BF101">
+        <v>2.01</v>
+      </c>
+      <c r="BG101">
+        <v>1.36</v>
+      </c>
+      <c r="BH101">
+        <v>2.9</v>
+      </c>
+      <c r="BI101">
+        <v>1.6</v>
+      </c>
+      <c r="BJ101">
+        <v>2.2</v>
+      </c>
+      <c r="BK101">
+        <v>1.95</v>
+      </c>
+      <c r="BL101">
+        <v>1.75</v>
+      </c>
+      <c r="BM101">
+        <v>2.4</v>
+      </c>
+      <c r="BN101">
+        <v>1.5</v>
+      </c>
+      <c r="BO101">
+        <v>3.2</v>
+      </c>
+      <c r="BP101">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,18 @@
     <t>['11', '42', '79']</t>
   </si>
   <si>
+    <t>['24', '68']</t>
+  </si>
+  <si>
+    <t>['6', '10', '19', '62']</t>
+  </si>
+  <si>
+    <t>['16', '54', '83']</t>
+  </si>
+  <si>
+    <t>['30', '45+1']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -626,6 +638,12 @@
   </si>
   <si>
     <t>['4', '12', '45+7']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['65', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,7 +1470,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1736,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ4">
         <v>2.2</v>
@@ -2070,7 +2088,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2354,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2482,7 +2500,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2894,7 +2912,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3181,7 +3199,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3306,7 +3324,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3387,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3512,7 +3530,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4002,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4417,7 +4435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4954,7 +4972,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5035,7 +5053,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5160,7 +5178,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5366,7 +5384,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5572,7 +5590,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5650,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -5984,7 +6002,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6396,7 +6414,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6474,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ27">
         <v>1.4</v>
@@ -6680,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ28">
         <v>1.6</v>
@@ -6808,7 +6826,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7014,7 +7032,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7095,7 +7113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7220,7 +7238,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7426,7 +7444,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7504,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7710,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ33">
         <v>1.4</v>
@@ -7919,7 +7937,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8044,7 +8062,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8125,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8250,7 +8268,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8328,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>2.33</v>
@@ -8537,7 +8555,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8868,7 +8886,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9074,7 +9092,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9280,7 +9298,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9564,7 +9582,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9770,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -9979,7 +9997,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10310,7 +10328,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10388,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
         <v>0.6</v>
@@ -10803,7 +10821,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>1.94</v>
@@ -10928,7 +10946,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11134,7 +11152,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11340,7 +11358,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11546,7 +11564,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11752,7 +11770,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11958,7 +11976,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12036,10 +12054,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12242,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ55">
         <v>1.2</v>
@@ -12451,7 +12469,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -13069,7 +13087,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13194,7 +13212,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13400,7 +13418,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13606,7 +13624,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13684,7 +13702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>1.6</v>
@@ -14096,7 +14114,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14430,7 +14448,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14511,7 +14529,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14717,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15460,7 +15478,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15666,7 +15684,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15747,7 +15765,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ72">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR72">
         <v>1.99</v>
@@ -15872,7 +15890,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16284,7 +16302,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16696,7 +16714,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16774,10 +16792,10 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>2.06</v>
@@ -16902,7 +16920,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -16980,7 +16998,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ78">
         <v>1.75</v>
@@ -17108,7 +17126,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17189,7 +17207,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17726,7 +17744,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17932,7 +17950,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18138,7 +18156,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18344,7 +18362,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18422,10 +18440,10 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.3</v>
@@ -18550,7 +18568,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -18628,7 +18646,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -19246,7 +19264,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19374,7 +19392,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19580,7 +19598,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19867,7 +19885,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.45</v>
@@ -20198,7 +20216,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20404,7 +20422,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20610,7 +20628,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20816,7 +20834,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -21515,7 +21533,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21640,7 +21658,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21797,6 +21815,1036 @@
       </c>
       <c r="BP101">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7331024</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>156</v>
+      </c>
+      <c r="P102" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q102">
+        <v>2.73</v>
+      </c>
+      <c r="R102">
+        <v>2.26</v>
+      </c>
+      <c r="S102">
+        <v>4.05</v>
+      </c>
+      <c r="T102">
+        <v>1.38</v>
+      </c>
+      <c r="U102">
+        <v>3.08</v>
+      </c>
+      <c r="V102">
+        <v>2.86</v>
+      </c>
+      <c r="W102">
+        <v>1.42</v>
+      </c>
+      <c r="X102">
+        <v>6.4</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>2.05</v>
+      </c>
+      <c r="AA102">
+        <v>3.6</v>
+      </c>
+      <c r="AB102">
+        <v>3.3</v>
+      </c>
+      <c r="AC102">
+        <v>1.05</v>
+      </c>
+      <c r="AD102">
+        <v>7.8</v>
+      </c>
+      <c r="AE102">
+        <v>1.27</v>
+      </c>
+      <c r="AF102">
+        <v>3.4</v>
+      </c>
+      <c r="AG102">
+        <v>1.91</v>
+      </c>
+      <c r="AH102">
+        <v>1.86</v>
+      </c>
+      <c r="AI102">
+        <v>1.68</v>
+      </c>
+      <c r="AJ102">
+        <v>2.13</v>
+      </c>
+      <c r="AK102">
+        <v>1.26</v>
+      </c>
+      <c r="AL102">
+        <v>1.25</v>
+      </c>
+      <c r="AM102">
+        <v>1.59</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>1.75</v>
+      </c>
+      <c r="AP102">
+        <v>1.8</v>
+      </c>
+      <c r="AQ102">
+        <v>1.4</v>
+      </c>
+      <c r="AR102">
+        <v>1.44</v>
+      </c>
+      <c r="AS102">
+        <v>1.78</v>
+      </c>
+      <c r="AT102">
+        <v>3.22</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>2</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>5</v>
+      </c>
+      <c r="BA102">
+        <v>10</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.64</v>
+      </c>
+      <c r="BE102">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF102">
+        <v>2.57</v>
+      </c>
+      <c r="BG102">
+        <v>1.18</v>
+      </c>
+      <c r="BH102">
+        <v>4.33</v>
+      </c>
+      <c r="BI102">
+        <v>1.33</v>
+      </c>
+      <c r="BJ102">
+        <v>3</v>
+      </c>
+      <c r="BK102">
+        <v>1.34</v>
+      </c>
+      <c r="BL102">
+        <v>3</v>
+      </c>
+      <c r="BM102">
+        <v>1.79</v>
+      </c>
+      <c r="BN102">
+        <v>1.87</v>
+      </c>
+      <c r="BO102">
+        <v>2.28</v>
+      </c>
+      <c r="BP102">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7331025</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103" t="s">
+        <v>157</v>
+      </c>
+      <c r="P103" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q103">
+        <v>2.05</v>
+      </c>
+      <c r="R103">
+        <v>2.35</v>
+      </c>
+      <c r="S103">
+        <v>6.85</v>
+      </c>
+      <c r="T103">
+        <v>1.4</v>
+      </c>
+      <c r="U103">
+        <v>2.97</v>
+      </c>
+      <c r="V103">
+        <v>2.99</v>
+      </c>
+      <c r="W103">
+        <v>1.39</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.07</v>
+      </c>
+      <c r="Z103">
+        <v>1.56</v>
+      </c>
+      <c r="AA103">
+        <v>3.95</v>
+      </c>
+      <c r="AB103">
+        <v>5.6</v>
+      </c>
+      <c r="AC103">
+        <v>1.02</v>
+      </c>
+      <c r="AD103">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE103">
+        <v>1.32</v>
+      </c>
+      <c r="AF103">
+        <v>3.4</v>
+      </c>
+      <c r="AG103">
+        <v>2</v>
+      </c>
+      <c r="AH103">
+        <v>1.79</v>
+      </c>
+      <c r="AI103">
+        <v>2.01</v>
+      </c>
+      <c r="AJ103">
+        <v>1.76</v>
+      </c>
+      <c r="AK103">
+        <v>1.11</v>
+      </c>
+      <c r="AL103">
+        <v>1.19</v>
+      </c>
+      <c r="AM103">
+        <v>2.11</v>
+      </c>
+      <c r="AN103">
+        <v>0.25</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>0.8</v>
+      </c>
+      <c r="AQ103">
+        <v>0.8</v>
+      </c>
+      <c r="AR103">
+        <v>1.44</v>
+      </c>
+      <c r="AS103">
+        <v>0.96</v>
+      </c>
+      <c r="AT103">
+        <v>2.4</v>
+      </c>
+      <c r="AU103">
+        <v>7</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>4</v>
+      </c>
+      <c r="AX103">
+        <v>9</v>
+      </c>
+      <c r="AY103">
+        <v>11</v>
+      </c>
+      <c r="AZ103">
+        <v>15</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>8</v>
+      </c>
+      <c r="BC103">
+        <v>13</v>
+      </c>
+      <c r="BD103">
+        <v>1.31</v>
+      </c>
+      <c r="BE103">
+        <v>10.2</v>
+      </c>
+      <c r="BF103">
+        <v>4.08</v>
+      </c>
+      <c r="BG103">
+        <v>1.25</v>
+      </c>
+      <c r="BH103">
+        <v>3.6</v>
+      </c>
+      <c r="BI103">
+        <v>1.39</v>
+      </c>
+      <c r="BJ103">
+        <v>2.67</v>
+      </c>
+      <c r="BK103">
+        <v>2</v>
+      </c>
+      <c r="BL103">
+        <v>1.8</v>
+      </c>
+      <c r="BM103">
+        <v>2.12</v>
+      </c>
+      <c r="BN103">
+        <v>1.61</v>
+      </c>
+      <c r="BO103">
+        <v>3.35</v>
+      </c>
+      <c r="BP103">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7331026</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s">
+        <v>87</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104" t="s">
+        <v>158</v>
+      </c>
+      <c r="P104" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q104">
+        <v>2.45</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>4.2</v>
+      </c>
+      <c r="T104">
+        <v>1.4</v>
+      </c>
+      <c r="U104">
+        <v>2.75</v>
+      </c>
+      <c r="V104">
+        <v>2.8</v>
+      </c>
+      <c r="W104">
+        <v>1.39</v>
+      </c>
+      <c r="X104">
+        <v>6.9</v>
+      </c>
+      <c r="Y104">
+        <v>1.07</v>
+      </c>
+      <c r="Z104">
+        <v>1.82</v>
+      </c>
+      <c r="AA104">
+        <v>3.7</v>
+      </c>
+      <c r="AB104">
+        <v>4</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE104">
+        <v>1.3</v>
+      </c>
+      <c r="AF104">
+        <v>3.3</v>
+      </c>
+      <c r="AG104">
+        <v>1.95</v>
+      </c>
+      <c r="AH104">
+        <v>1.82</v>
+      </c>
+      <c r="AI104">
+        <v>1.83</v>
+      </c>
+      <c r="AJ104">
+        <v>1.9</v>
+      </c>
+      <c r="AK104">
+        <v>1.2</v>
+      </c>
+      <c r="AL104">
+        <v>1.22</v>
+      </c>
+      <c r="AM104">
+        <v>1.87</v>
+      </c>
+      <c r="AN104">
+        <v>2.5</v>
+      </c>
+      <c r="AO104">
+        <v>1.8</v>
+      </c>
+      <c r="AP104">
+        <v>2.6</v>
+      </c>
+      <c r="AQ104">
+        <v>1.5</v>
+      </c>
+      <c r="AR104">
+        <v>1.83</v>
+      </c>
+      <c r="AS104">
+        <v>1.23</v>
+      </c>
+      <c r="AT104">
+        <v>3.06</v>
+      </c>
+      <c r="AU104">
+        <v>10</v>
+      </c>
+      <c r="AV104">
+        <v>5</v>
+      </c>
+      <c r="AW104">
+        <v>6</v>
+      </c>
+      <c r="AX104">
+        <v>2</v>
+      </c>
+      <c r="AY104">
+        <v>16</v>
+      </c>
+      <c r="AZ104">
+        <v>7</v>
+      </c>
+      <c r="BA104">
+        <v>2</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>7</v>
+      </c>
+      <c r="BD104">
+        <v>1.63</v>
+      </c>
+      <c r="BE104">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF104">
+        <v>2.65</v>
+      </c>
+      <c r="BG104">
+        <v>1.3</v>
+      </c>
+      <c r="BH104">
+        <v>3.2</v>
+      </c>
+      <c r="BI104">
+        <v>1.48</v>
+      </c>
+      <c r="BJ104">
+        <v>2.4</v>
+      </c>
+      <c r="BK104">
+        <v>2</v>
+      </c>
+      <c r="BL104">
+        <v>1.8</v>
+      </c>
+      <c r="BM104">
+        <v>2.38</v>
+      </c>
+      <c r="BN104">
+        <v>1.49</v>
+      </c>
+      <c r="BO104">
+        <v>3</v>
+      </c>
+      <c r="BP104">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7331027</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>92</v>
+      </c>
+      <c r="P105" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q105">
+        <v>3.01</v>
+      </c>
+      <c r="R105">
+        <v>2.25</v>
+      </c>
+      <c r="S105">
+        <v>3.59</v>
+      </c>
+      <c r="T105">
+        <v>1.38</v>
+      </c>
+      <c r="U105">
+        <v>3.07</v>
+      </c>
+      <c r="V105">
+        <v>2.88</v>
+      </c>
+      <c r="W105">
+        <v>1.42</v>
+      </c>
+      <c r="X105">
+        <v>6.7</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>2.33</v>
+      </c>
+      <c r="AA105">
+        <v>3.3</v>
+      </c>
+      <c r="AB105">
+        <v>2.95</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE105">
+        <v>1.27</v>
+      </c>
+      <c r="AF105">
+        <v>3.28</v>
+      </c>
+      <c r="AG105">
+        <v>1.91</v>
+      </c>
+      <c r="AH105">
+        <v>1.87</v>
+      </c>
+      <c r="AI105">
+        <v>1.69</v>
+      </c>
+      <c r="AJ105">
+        <v>2</v>
+      </c>
+      <c r="AK105">
+        <v>1.35</v>
+      </c>
+      <c r="AL105">
+        <v>1.27</v>
+      </c>
+      <c r="AM105">
+        <v>1.46</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>0.83</v>
+      </c>
+      <c r="AQ105">
+        <v>1.33</v>
+      </c>
+      <c r="AR105">
+        <v>1.24</v>
+      </c>
+      <c r="AS105">
+        <v>1.36</v>
+      </c>
+      <c r="AT105">
+        <v>2.6</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>11</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>16</v>
+      </c>
+      <c r="AZ105">
+        <v>6</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>2</v>
+      </c>
+      <c r="BC105">
+        <v>5</v>
+      </c>
+      <c r="BD105">
+        <v>1.71</v>
+      </c>
+      <c r="BE105">
+        <v>8.6</v>
+      </c>
+      <c r="BF105">
+        <v>2.47</v>
+      </c>
+      <c r="BG105">
+        <v>1.3</v>
+      </c>
+      <c r="BH105">
+        <v>3.2</v>
+      </c>
+      <c r="BI105">
+        <v>1.48</v>
+      </c>
+      <c r="BJ105">
+        <v>2.4</v>
+      </c>
+      <c r="BK105">
+        <v>1.9</v>
+      </c>
+      <c r="BL105">
+        <v>1.9</v>
+      </c>
+      <c r="BM105">
+        <v>2.38</v>
+      </c>
+      <c r="BN105">
+        <v>1.49</v>
+      </c>
+      <c r="BO105">
+        <v>3.2</v>
+      </c>
+      <c r="BP105">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7331028</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45402.08333333334</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>159</v>
+      </c>
+      <c r="P106" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q106">
+        <v>2.5</v>
+      </c>
+      <c r="R106">
+        <v>2.23</v>
+      </c>
+      <c r="S106">
+        <v>4.84</v>
+      </c>
+      <c r="T106">
+        <v>1.43</v>
+      </c>
+      <c r="U106">
+        <v>2.59</v>
+      </c>
+      <c r="V106">
+        <v>3.1</v>
+      </c>
+      <c r="W106">
+        <v>1.27</v>
+      </c>
+      <c r="X106">
+        <v>7.2</v>
+      </c>
+      <c r="Y106">
+        <v>1.06</v>
+      </c>
+      <c r="Z106">
+        <v>1.85</v>
+      </c>
+      <c r="AA106">
+        <v>3.4</v>
+      </c>
+      <c r="AB106">
+        <v>4.3</v>
+      </c>
+      <c r="AC106">
+        <v>1.06</v>
+      </c>
+      <c r="AD106">
+        <v>7.2</v>
+      </c>
+      <c r="AE106">
+        <v>1.28</v>
+      </c>
+      <c r="AF106">
+        <v>3.3</v>
+      </c>
+      <c r="AG106">
+        <v>2.08</v>
+      </c>
+      <c r="AH106">
+        <v>1.78</v>
+      </c>
+      <c r="AI106">
+        <v>1.83</v>
+      </c>
+      <c r="AJ106">
+        <v>1.93</v>
+      </c>
+      <c r="AK106">
+        <v>1.21</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.69</v>
+      </c>
+      <c r="AN106">
+        <v>2.25</v>
+      </c>
+      <c r="AO106">
+        <v>1.75</v>
+      </c>
+      <c r="AP106">
+        <v>2.4</v>
+      </c>
+      <c r="AQ106">
+        <v>1.4</v>
+      </c>
+      <c r="AR106">
+        <v>1.81</v>
+      </c>
+      <c r="AS106">
+        <v>1.91</v>
+      </c>
+      <c r="AT106">
+        <v>3.72</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>8</v>
+      </c>
+      <c r="AY106">
+        <v>10</v>
+      </c>
+      <c r="AZ106">
+        <v>13</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>5</v>
+      </c>
+      <c r="BC106">
+        <v>8</v>
+      </c>
+      <c r="BD106">
+        <v>1.67</v>
+      </c>
+      <c r="BE106">
+        <v>8.5</v>
+      </c>
+      <c r="BF106">
+        <v>2.57</v>
+      </c>
+      <c r="BG106">
+        <v>1.36</v>
+      </c>
+      <c r="BH106">
+        <v>2.9</v>
+      </c>
+      <c r="BI106">
+        <v>1.54</v>
+      </c>
+      <c r="BJ106">
+        <v>2.25</v>
+      </c>
+      <c r="BK106">
+        <v>1.98</v>
+      </c>
+      <c r="BL106">
+        <v>1.82</v>
+      </c>
+      <c r="BM106">
+        <v>2.54</v>
+      </c>
+      <c r="BN106">
+        <v>1.43</v>
+      </c>
+      <c r="BO106">
+        <v>3.3</v>
+      </c>
+      <c r="BP106">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,12 @@
     <t>['30', '45+1']</t>
   </si>
   <si>
+    <t>['27', '50']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -644,6 +650,15 @@
   </si>
   <si>
     <t>['65', '90+4']</t>
+  </si>
+  <si>
+    <t>['59', '74']</t>
+  </si>
+  <si>
+    <t>['14', '30']</t>
+  </si>
+  <si>
+    <t>['89', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1470,7 +1485,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1963,7 +1978,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2088,7 +2103,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2166,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -2375,7 +2390,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2500,7 +2515,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2912,7 +2927,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3196,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3324,7 +3339,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3402,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3530,7 +3545,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3814,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -4226,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4432,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4844,10 +4859,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4972,7 +4987,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5178,7 +5193,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5384,7 +5399,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5465,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5590,7 +5605,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5671,7 +5686,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6002,7 +6017,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6289,7 +6304,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6414,7 +6429,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6826,7 +6841,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6904,7 +6919,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -7032,7 +7047,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7238,7 +7253,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7444,7 +7459,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8062,7 +8077,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8268,7 +8283,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8761,7 +8776,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -8886,7 +8901,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -8964,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.4</v>
@@ -9092,7 +9107,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9173,7 +9188,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9298,7 +9313,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9376,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ41">
         <v>2.2</v>
@@ -9585,7 +9600,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -9791,7 +9806,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>2.12</v>
@@ -10200,7 +10215,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>0.5</v>
@@ -10328,7 +10343,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10615,7 +10630,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.2</v>
@@ -10946,7 +10961,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11024,7 +11039,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11152,7 +11167,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11358,7 +11373,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11564,7 +11579,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11642,10 +11657,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11770,7 +11785,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11848,7 +11863,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>2.33</v>
@@ -11976,7 +11991,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12263,7 +12278,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12466,7 +12481,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ56">
         <v>1.4</v>
@@ -13212,7 +13227,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13418,7 +13433,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13624,7 +13639,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13911,7 +13926,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.2</v>
@@ -14448,7 +14463,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14938,7 +14953,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>1.67</v>
@@ -15478,7 +15493,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15684,7 +15699,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15890,7 +15905,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -15971,7 +15986,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16302,7 +16317,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16586,10 +16601,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
         <v>2.09</v>
@@ -16714,7 +16729,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16920,7 +16935,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17001,7 +17016,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR78">
         <v>2.12</v>
@@ -17126,7 +17141,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17204,7 +17219,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79">
         <v>1.4</v>
@@ -17410,7 +17425,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ80">
         <v>1.17</v>
@@ -17616,7 +17631,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
         <v>2.33</v>
@@ -17744,7 +17759,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17950,7 +17965,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18028,10 +18043,10 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18156,7 +18171,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18362,7 +18377,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18568,7 +18583,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -19061,7 +19076,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.13</v>
@@ -19392,7 +19407,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19473,7 +19488,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.52</v>
@@ -19598,7 +19613,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19882,7 +19897,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20216,7 +20231,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20297,7 +20312,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.32</v>
@@ -20422,7 +20437,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20500,7 +20515,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ95">
         <v>1.4</v>
@@ -20628,7 +20643,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20834,7 +20849,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -21530,7 +21545,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ100">
         <v>0.8</v>
@@ -21658,7 +21673,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21864,7 +21879,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -22070,7 +22085,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22276,7 +22291,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22845,6 +22860,1036 @@
       </c>
       <c r="BP106">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7331033</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45403.08333333334</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>160</v>
+      </c>
+      <c r="P107" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q107">
+        <v>2.6</v>
+      </c>
+      <c r="R107">
+        <v>2.05</v>
+      </c>
+      <c r="S107">
+        <v>4.33</v>
+      </c>
+      <c r="T107">
+        <v>1.48</v>
+      </c>
+      <c r="U107">
+        <v>2.5</v>
+      </c>
+      <c r="V107">
+        <v>3</v>
+      </c>
+      <c r="W107">
+        <v>1.33</v>
+      </c>
+      <c r="X107">
+        <v>8</v>
+      </c>
+      <c r="Y107">
+        <v>1.05</v>
+      </c>
+      <c r="Z107">
+        <v>1.9</v>
+      </c>
+      <c r="AA107">
+        <v>3.1</v>
+      </c>
+      <c r="AB107">
+        <v>3.6</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>8</v>
+      </c>
+      <c r="AE107">
+        <v>1.38</v>
+      </c>
+      <c r="AF107">
+        <v>2.8</v>
+      </c>
+      <c r="AG107">
+        <v>2.15</v>
+      </c>
+      <c r="AH107">
+        <v>1.61</v>
+      </c>
+      <c r="AI107">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107">
+        <v>1.75</v>
+      </c>
+      <c r="AK107">
+        <v>1.25</v>
+      </c>
+      <c r="AL107">
+        <v>1.33</v>
+      </c>
+      <c r="AM107">
+        <v>1.83</v>
+      </c>
+      <c r="AN107">
+        <v>1.5</v>
+      </c>
+      <c r="AO107">
+        <v>0.8</v>
+      </c>
+      <c r="AP107">
+        <v>1.8</v>
+      </c>
+      <c r="AQ107">
+        <v>0.67</v>
+      </c>
+      <c r="AR107">
+        <v>1.21</v>
+      </c>
+      <c r="AS107">
+        <v>1.12</v>
+      </c>
+      <c r="AT107">
+        <v>2.33</v>
+      </c>
+      <c r="AU107">
+        <v>7</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>3</v>
+      </c>
+      <c r="AX107">
+        <v>8</v>
+      </c>
+      <c r="AY107">
+        <v>10</v>
+      </c>
+      <c r="AZ107">
+        <v>13</v>
+      </c>
+      <c r="BA107">
+        <v>6</v>
+      </c>
+      <c r="BB107">
+        <v>6</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>1.55</v>
+      </c>
+      <c r="BE107">
+        <v>8.5</v>
+      </c>
+      <c r="BF107">
+        <v>2.91</v>
+      </c>
+      <c r="BG107">
+        <v>1.2</v>
+      </c>
+      <c r="BH107">
+        <v>4</v>
+      </c>
+      <c r="BI107">
+        <v>1.29</v>
+      </c>
+      <c r="BJ107">
+        <v>3.3</v>
+      </c>
+      <c r="BK107">
+        <v>1.52</v>
+      </c>
+      <c r="BL107">
+        <v>2.35</v>
+      </c>
+      <c r="BM107">
+        <v>1.94</v>
+      </c>
+      <c r="BN107">
+        <v>1.77</v>
+      </c>
+      <c r="BO107">
+        <v>2.5</v>
+      </c>
+      <c r="BP107">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7331032</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45403.08333333334</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s">
+        <v>83</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>92</v>
+      </c>
+      <c r="P108" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q108">
+        <v>3.3</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>3.1</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.78</v>
+      </c>
+      <c r="V108">
+        <v>3.21</v>
+      </c>
+      <c r="W108">
+        <v>1.35</v>
+      </c>
+      <c r="X108">
+        <v>7.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.05</v>
+      </c>
+      <c r="Z108">
+        <v>2.55</v>
+      </c>
+      <c r="AA108">
+        <v>3.1</v>
+      </c>
+      <c r="AB108">
+        <v>2.45</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>8.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.33</v>
+      </c>
+      <c r="AF108">
+        <v>3</v>
+      </c>
+      <c r="AG108">
+        <v>2.05</v>
+      </c>
+      <c r="AH108">
+        <v>1.7</v>
+      </c>
+      <c r="AI108">
+        <v>1.8</v>
+      </c>
+      <c r="AJ108">
+        <v>1.87</v>
+      </c>
+      <c r="AK108">
+        <v>1.41</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>1.37</v>
+      </c>
+      <c r="AN108">
+        <v>1.2</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
+        <v>1.33</v>
+      </c>
+      <c r="AR108">
+        <v>1.56</v>
+      </c>
+      <c r="AS108">
+        <v>1.51</v>
+      </c>
+      <c r="AT108">
+        <v>3.07</v>
+      </c>
+      <c r="AU108">
+        <v>3</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>2</v>
+      </c>
+      <c r="AX108">
+        <v>11</v>
+      </c>
+      <c r="AY108">
+        <v>5</v>
+      </c>
+      <c r="AZ108">
+        <v>17</v>
+      </c>
+      <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>8</v>
+      </c>
+      <c r="BC108">
+        <v>12</v>
+      </c>
+      <c r="BD108">
+        <v>1.82</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>2.39</v>
+      </c>
+      <c r="BG108">
+        <v>1.22</v>
+      </c>
+      <c r="BH108">
+        <v>3.8</v>
+      </c>
+      <c r="BI108">
+        <v>1.34</v>
+      </c>
+      <c r="BJ108">
+        <v>3</v>
+      </c>
+      <c r="BK108">
+        <v>1.62</v>
+      </c>
+      <c r="BL108">
+        <v>2.15</v>
+      </c>
+      <c r="BM108">
+        <v>2.1</v>
+      </c>
+      <c r="BN108">
+        <v>1.65</v>
+      </c>
+      <c r="BO108">
+        <v>2.75</v>
+      </c>
+      <c r="BP108">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7331030</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45403.08333333334</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>84</v>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>121</v>
+      </c>
+      <c r="P109" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q109">
+        <v>2.82</v>
+      </c>
+      <c r="R109">
+        <v>1.97</v>
+      </c>
+      <c r="S109">
+        <v>3.92</v>
+      </c>
+      <c r="T109">
+        <v>1.5</v>
+      </c>
+      <c r="U109">
+        <v>2.4</v>
+      </c>
+      <c r="V109">
+        <v>3.2</v>
+      </c>
+      <c r="W109">
+        <v>1.3</v>
+      </c>
+      <c r="X109">
+        <v>8.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.04</v>
+      </c>
+      <c r="Z109">
+        <v>2.2</v>
+      </c>
+      <c r="AA109">
+        <v>3.1</v>
+      </c>
+      <c r="AB109">
+        <v>2.9</v>
+      </c>
+      <c r="AC109">
+        <v>1.06</v>
+      </c>
+      <c r="AD109">
+        <v>7.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.38</v>
+      </c>
+      <c r="AF109">
+        <v>2.8</v>
+      </c>
+      <c r="AG109">
+        <v>2.15</v>
+      </c>
+      <c r="AH109">
+        <v>1.61</v>
+      </c>
+      <c r="AI109">
+        <v>1.91</v>
+      </c>
+      <c r="AJ109">
+        <v>1.76</v>
+      </c>
+      <c r="AK109">
+        <v>1.35</v>
+      </c>
+      <c r="AL109">
+        <v>1.35</v>
+      </c>
+      <c r="AM109">
+        <v>1.62</v>
+      </c>
+      <c r="AN109">
+        <v>1.4</v>
+      </c>
+      <c r="AO109">
+        <v>0.5</v>
+      </c>
+      <c r="AP109">
+        <v>1.17</v>
+      </c>
+      <c r="AQ109">
+        <v>1</v>
+      </c>
+      <c r="AR109">
+        <v>1.71</v>
+      </c>
+      <c r="AS109">
+        <v>1.37</v>
+      </c>
+      <c r="AT109">
+        <v>3.08</v>
+      </c>
+      <c r="AU109">
+        <v>7</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>5</v>
+      </c>
+      <c r="AY109">
+        <v>14</v>
+      </c>
+      <c r="AZ109">
+        <v>9</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>0</v>
+      </c>
+      <c r="BC109">
+        <v>7</v>
+      </c>
+      <c r="BD109">
+        <v>1.91</v>
+      </c>
+      <c r="BE109">
+        <v>7.5</v>
+      </c>
+      <c r="BF109">
+        <v>2.2</v>
+      </c>
+      <c r="BG109">
+        <v>1.4</v>
+      </c>
+      <c r="BH109">
+        <v>2.75</v>
+      </c>
+      <c r="BI109">
+        <v>1.75</v>
+      </c>
+      <c r="BJ109">
+        <v>1.96</v>
+      </c>
+      <c r="BK109">
+        <v>2.3</v>
+      </c>
+      <c r="BL109">
+        <v>1.55</v>
+      </c>
+      <c r="BM109">
+        <v>3.1</v>
+      </c>
+      <c r="BN109">
+        <v>1.32</v>
+      </c>
+      <c r="BO109">
+        <v>3.6</v>
+      </c>
+      <c r="BP109">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7331029</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45403.08333333334</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>74</v>
+      </c>
+      <c r="H110" t="s">
+        <v>89</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>97</v>
+      </c>
+      <c r="P110" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q110">
+        <v>2.45</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>5.1</v>
+      </c>
+      <c r="T110">
+        <v>1.52</v>
+      </c>
+      <c r="U110">
+        <v>2.43</v>
+      </c>
+      <c r="V110">
+        <v>3.46</v>
+      </c>
+      <c r="W110">
+        <v>1.28</v>
+      </c>
+      <c r="X110">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y110">
+        <v>1.03</v>
+      </c>
+      <c r="Z110">
+        <v>1.8</v>
+      </c>
+      <c r="AA110">
+        <v>3.1</v>
+      </c>
+      <c r="AB110">
+        <v>4.1</v>
+      </c>
+      <c r="AC110">
+        <v>1.09</v>
+      </c>
+      <c r="AD110">
+        <v>6.2</v>
+      </c>
+      <c r="AE110">
+        <v>1.4</v>
+      </c>
+      <c r="AF110">
+        <v>2.7</v>
+      </c>
+      <c r="AG110">
+        <v>2.37</v>
+      </c>
+      <c r="AH110">
+        <v>1.53</v>
+      </c>
+      <c r="AI110">
+        <v>2.05</v>
+      </c>
+      <c r="AJ110">
+        <v>1.65</v>
+      </c>
+      <c r="AK110">
+        <v>1.19</v>
+      </c>
+      <c r="AL110">
+        <v>1.27</v>
+      </c>
+      <c r="AM110">
+        <v>1.69</v>
+      </c>
+      <c r="AN110">
+        <v>1.4</v>
+      </c>
+      <c r="AO110">
+        <v>1.2</v>
+      </c>
+      <c r="AP110">
+        <v>1.17</v>
+      </c>
+      <c r="AQ110">
+        <v>1.5</v>
+      </c>
+      <c r="AR110">
+        <v>2.24</v>
+      </c>
+      <c r="AS110">
+        <v>1.59</v>
+      </c>
+      <c r="AT110">
+        <v>3.83</v>
+      </c>
+      <c r="AU110">
+        <v>7</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>17</v>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+      <c r="AY110">
+        <v>24</v>
+      </c>
+      <c r="AZ110">
+        <v>5</v>
+      </c>
+      <c r="BA110">
+        <v>12</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>14</v>
+      </c>
+      <c r="BD110">
+        <v>1.64</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.66</v>
+      </c>
+      <c r="BG110">
+        <v>1.25</v>
+      </c>
+      <c r="BH110">
+        <v>3.6</v>
+      </c>
+      <c r="BI110">
+        <v>1.37</v>
+      </c>
+      <c r="BJ110">
+        <v>2.85</v>
+      </c>
+      <c r="BK110">
+        <v>1.65</v>
+      </c>
+      <c r="BL110">
+        <v>2.1</v>
+      </c>
+      <c r="BM110">
+        <v>2.1</v>
+      </c>
+      <c r="BN110">
+        <v>1.65</v>
+      </c>
+      <c r="BO110">
+        <v>2.75</v>
+      </c>
+      <c r="BP110">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7331031</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45403.08333333334</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>80</v>
+      </c>
+      <c r="H111" t="s">
+        <v>71</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>161</v>
+      </c>
+      <c r="P111" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q111">
+        <v>3.36</v>
+      </c>
+      <c r="R111">
+        <v>2.05</v>
+      </c>
+      <c r="S111">
+        <v>3.02</v>
+      </c>
+      <c r="T111">
+        <v>1.35</v>
+      </c>
+      <c r="U111">
+        <v>2.85</v>
+      </c>
+      <c r="V111">
+        <v>2.75</v>
+      </c>
+      <c r="W111">
+        <v>1.37</v>
+      </c>
+      <c r="X111">
+        <v>6.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.07</v>
+      </c>
+      <c r="Z111">
+        <v>2.55</v>
+      </c>
+      <c r="AA111">
+        <v>3.25</v>
+      </c>
+      <c r="AB111">
+        <v>2.37</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>7.8</v>
+      </c>
+      <c r="AE111">
+        <v>1.25</v>
+      </c>
+      <c r="AF111">
+        <v>3.5</v>
+      </c>
+      <c r="AG111">
+        <v>1.85</v>
+      </c>
+      <c r="AH111">
+        <v>1.85</v>
+      </c>
+      <c r="AI111">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111">
+        <v>2.05</v>
+      </c>
+      <c r="AK111">
+        <v>1.53</v>
+      </c>
+      <c r="AL111">
+        <v>1.3</v>
+      </c>
+      <c r="AM111">
+        <v>1.48</v>
+      </c>
+      <c r="AN111">
+        <v>2</v>
+      </c>
+      <c r="AO111">
+        <v>1.75</v>
+      </c>
+      <c r="AP111">
+        <v>2.17</v>
+      </c>
+      <c r="AQ111">
+        <v>1.4</v>
+      </c>
+      <c r="AR111">
+        <v>1.65</v>
+      </c>
+      <c r="AS111">
+        <v>1.7</v>
+      </c>
+      <c r="AT111">
+        <v>3.35</v>
+      </c>
+      <c r="AU111">
+        <v>6</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>6</v>
+      </c>
+      <c r="AX111">
+        <v>8</v>
+      </c>
+      <c r="AY111">
+        <v>12</v>
+      </c>
+      <c r="AZ111">
+        <v>12</v>
+      </c>
+      <c r="BA111">
+        <v>3</v>
+      </c>
+      <c r="BB111">
+        <v>6</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>3.07</v>
+      </c>
+      <c r="BE111">
+        <v>8.5</v>
+      </c>
+      <c r="BF111">
+        <v>1.51</v>
+      </c>
+      <c r="BG111">
+        <v>1.29</v>
+      </c>
+      <c r="BH111">
+        <v>3.3</v>
+      </c>
+      <c r="BI111">
+        <v>1.46</v>
+      </c>
+      <c r="BJ111">
+        <v>2.52</v>
+      </c>
+      <c r="BK111">
+        <v>1.82</v>
+      </c>
+      <c r="BL111">
+        <v>1.98</v>
+      </c>
+      <c r="BM111">
+        <v>2.3</v>
+      </c>
+      <c r="BN111">
+        <v>1.55</v>
+      </c>
+      <c r="BO111">
+        <v>3.1</v>
+      </c>
+      <c r="BP111">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,21 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['14', '83']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['45+3', '48']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['74', '90+5']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -659,6 +674,21 @@
   </si>
   <si>
     <t>['89', '90+7']</t>
+  </si>
+  <si>
+    <t>['35', '79']</t>
+  </si>
+  <si>
+    <t>['52', '63', '87']</t>
+  </si>
+  <si>
+    <t>['6', '9']</t>
+  </si>
+  <si>
+    <t>['24', '90+1']</t>
+  </si>
+  <si>
+    <t>['22', '76']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1485,7 +1515,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1566,7 +1596,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1772,7 +1802,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ4">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1975,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2103,7 +2133,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2184,7 +2214,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2387,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2515,7 +2545,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2593,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2799,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2927,7 +2957,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3005,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3339,7 +3369,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3545,7 +3575,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3623,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ13">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -3832,7 +3862,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4244,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4447,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4987,7 +5017,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5065,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5193,7 +5223,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5271,10 +5301,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5399,7 +5429,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5477,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5605,7 +5635,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5892,7 +5922,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6017,7 +6047,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6301,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6429,7 +6459,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6510,7 +6540,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6713,10 +6743,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -6841,7 +6871,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6922,7 +6952,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7047,7 +7077,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7125,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7253,7 +7283,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7331,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7459,7 +7489,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7746,7 +7776,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -7949,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ34">
         <v>1.4</v>
@@ -8077,7 +8107,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8155,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8283,7 +8313,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8364,7 +8394,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8567,7 +8597,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -8773,10 +8803,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -8901,7 +8931,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -8979,10 +9009,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9107,7 +9137,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9185,10 +9215,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9313,7 +9343,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9394,7 +9424,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ41">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -9600,7 +9630,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -9803,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10343,7 +10373,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10424,7 +10454,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10627,7 +10657,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -10833,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -10961,7 +10991,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11042,7 +11072,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR49">
         <v>2.09</v>
@@ -11167,7 +11197,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11245,10 +11275,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11373,7 +11403,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11451,10 +11481,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11579,7 +11609,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11657,10 +11687,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11785,7 +11815,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11866,7 +11896,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ53">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -11991,7 +12021,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12687,10 +12717,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -12896,7 +12926,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13099,7 +13129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13227,7 +13257,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13305,10 +13335,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13433,7 +13463,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13511,7 +13541,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ61">
         <v>1.67</v>
@@ -13639,7 +13669,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13720,7 +13750,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -13923,10 +13953,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
         <v>1.2</v>
@@ -14132,7 +14162,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR64">
         <v>1.29</v>
@@ -14335,7 +14365,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14463,7 +14493,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14747,7 +14777,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ67">
         <v>0.8</v>
@@ -15159,10 +15189,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15365,10 +15395,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15493,7 +15523,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15571,10 +15601,10 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -15699,7 +15729,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15777,7 +15807,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
         <v>1.4</v>
@@ -15905,7 +15935,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -15983,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16192,7 +16222,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.55</v>
@@ -16317,7 +16347,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16395,10 +16425,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>1.05</v>
@@ -16729,7 +16759,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16935,7 +16965,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17013,10 +17043,10 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>2.12</v>
@@ -17141,7 +17171,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17428,7 +17458,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ80">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.51</v>
@@ -17631,10 +17661,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.19</v>
@@ -17759,7 +17789,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17837,10 +17867,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ82">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -17965,7 +17995,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18171,7 +18201,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18249,10 +18279,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ84">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
         <v>1.35</v>
@@ -18377,7 +18407,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18583,7 +18613,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -18664,7 +18694,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18867,10 +18897,10 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR87">
         <v>1.12</v>
@@ -19073,7 +19103,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19407,7 +19437,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19488,7 +19518,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR90">
         <v>1.52</v>
@@ -19613,7 +19643,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19691,7 +19721,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
         <v>1.67</v>
@@ -20103,10 +20133,10 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.92</v>
@@ -20231,7 +20261,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20309,7 +20339,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20437,7 +20467,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20518,7 +20548,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>2.25</v>
@@ -20643,7 +20673,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20721,7 +20751,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ96">
         <v>0.5</v>
@@ -20849,7 +20879,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -20930,7 +20960,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR97">
         <v>1.54</v>
@@ -21133,7 +21163,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.67</v>
@@ -21342,7 +21372,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ99">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21673,7 +21703,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21751,10 +21781,10 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ101">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -21879,7 +21909,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -22085,7 +22115,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22291,7 +22321,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22781,7 +22811,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>1.4</v>
@@ -22987,7 +23017,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
         <v>0.67</v>
@@ -23115,7 +23145,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -23196,7 +23226,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23321,7 +23351,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -23527,7 +23557,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23814,7 +23844,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -23890,6 +23920,2066 @@
       </c>
       <c r="BP111">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7331034</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45409.08333333334</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>87</v>
+      </c>
+      <c r="H112" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>92</v>
+      </c>
+      <c r="P112" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q112">
+        <v>3.72</v>
+      </c>
+      <c r="R112">
+        <v>2.01</v>
+      </c>
+      <c r="S112">
+        <v>2.85</v>
+      </c>
+      <c r="T112">
+        <v>1.45</v>
+      </c>
+      <c r="U112">
+        <v>2.63</v>
+      </c>
+      <c r="V112">
+        <v>3.1</v>
+      </c>
+      <c r="W112">
+        <v>1.34</v>
+      </c>
+      <c r="X112">
+        <v>7.8</v>
+      </c>
+      <c r="Y112">
+        <v>1.05</v>
+      </c>
+      <c r="Z112">
+        <v>2.9</v>
+      </c>
+      <c r="AA112">
+        <v>3.2</v>
+      </c>
+      <c r="AB112">
+        <v>2.3</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>7.9</v>
+      </c>
+      <c r="AE112">
+        <v>1.34</v>
+      </c>
+      <c r="AF112">
+        <v>2.88</v>
+      </c>
+      <c r="AG112">
+        <v>2.1</v>
+      </c>
+      <c r="AH112">
+        <v>1.68</v>
+      </c>
+      <c r="AI112">
+        <v>1.83</v>
+      </c>
+      <c r="AJ112">
+        <v>1.83</v>
+      </c>
+      <c r="AK112">
+        <v>1.57</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.33</v>
+      </c>
+      <c r="AN112">
+        <v>1.6</v>
+      </c>
+      <c r="AO112">
+        <v>1.4</v>
+      </c>
+      <c r="AP112">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112">
+        <v>1.67</v>
+      </c>
+      <c r="AR112">
+        <v>1.76</v>
+      </c>
+      <c r="AS112">
+        <v>1.6</v>
+      </c>
+      <c r="AT112">
+        <v>3.36</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>11</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>13</v>
+      </c>
+      <c r="AZ112">
+        <v>7</v>
+      </c>
+      <c r="BA112">
+        <v>3</v>
+      </c>
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BC112">
+        <v>4</v>
+      </c>
+      <c r="BD112">
+        <v>2.2</v>
+      </c>
+      <c r="BE112">
+        <v>7.5</v>
+      </c>
+      <c r="BF112">
+        <v>1.91</v>
+      </c>
+      <c r="BG112">
+        <v>1.31</v>
+      </c>
+      <c r="BH112">
+        <v>3.15</v>
+      </c>
+      <c r="BI112">
+        <v>1.63</v>
+      </c>
+      <c r="BJ112">
+        <v>2.13</v>
+      </c>
+      <c r="BK112">
+        <v>2.07</v>
+      </c>
+      <c r="BL112">
+        <v>1.67</v>
+      </c>
+      <c r="BM112">
+        <v>2.77</v>
+      </c>
+      <c r="BN112">
+        <v>1.39</v>
+      </c>
+      <c r="BO112">
+        <v>3.3</v>
+      </c>
+      <c r="BP112">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7331035</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45409.08333333334</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>70</v>
+      </c>
+      <c r="H113" t="s">
+        <v>72</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>162</v>
+      </c>
+      <c r="P113" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q113">
+        <v>2.5</v>
+      </c>
+      <c r="R113">
+        <v>2.09</v>
+      </c>
+      <c r="S113">
+        <v>4.2</v>
+      </c>
+      <c r="T113">
+        <v>1.4</v>
+      </c>
+      <c r="U113">
+        <v>2.81</v>
+      </c>
+      <c r="V113">
+        <v>2.85</v>
+      </c>
+      <c r="W113">
+        <v>1.39</v>
+      </c>
+      <c r="X113">
+        <v>6.9</v>
+      </c>
+      <c r="Y113">
+        <v>1.07</v>
+      </c>
+      <c r="Z113">
+        <v>2.13</v>
+      </c>
+      <c r="AA113">
+        <v>2.34</v>
+      </c>
+      <c r="AB113">
+        <v>4.73</v>
+      </c>
+      <c r="AC113">
+        <v>1.02</v>
+      </c>
+      <c r="AD113">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE113">
+        <v>1.28</v>
+      </c>
+      <c r="AF113">
+        <v>3.18</v>
+      </c>
+      <c r="AG113">
+        <v>2</v>
+      </c>
+      <c r="AH113">
+        <v>1.85</v>
+      </c>
+      <c r="AI113">
+        <v>1.77</v>
+      </c>
+      <c r="AJ113">
+        <v>1.89</v>
+      </c>
+      <c r="AK113">
+        <v>1.25</v>
+      </c>
+      <c r="AL113">
+        <v>1.26</v>
+      </c>
+      <c r="AM113">
+        <v>1.75</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
+        <v>0.6</v>
+      </c>
+      <c r="AP113">
+        <v>0.86</v>
+      </c>
+      <c r="AQ113">
+        <v>1</v>
+      </c>
+      <c r="AR113">
+        <v>1.36</v>
+      </c>
+      <c r="AS113">
+        <v>1.55</v>
+      </c>
+      <c r="AT113">
+        <v>2.91</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>12</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>17</v>
+      </c>
+      <c r="AZ113">
+        <v>9</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>11</v>
+      </c>
+      <c r="BD113">
+        <v>1.75</v>
+      </c>
+      <c r="BE113">
+        <v>8</v>
+      </c>
+      <c r="BF113">
+        <v>2.44</v>
+      </c>
+      <c r="BG113">
+        <v>1.29</v>
+      </c>
+      <c r="BH113">
+        <v>3.3</v>
+      </c>
+      <c r="BI113">
+        <v>1.56</v>
+      </c>
+      <c r="BJ113">
+        <v>2.27</v>
+      </c>
+      <c r="BK113">
+        <v>1.99</v>
+      </c>
+      <c r="BL113">
+        <v>1.73</v>
+      </c>
+      <c r="BM113">
+        <v>2.62</v>
+      </c>
+      <c r="BN113">
+        <v>1.43</v>
+      </c>
+      <c r="BO113">
+        <v>3.2</v>
+      </c>
+      <c r="BP113">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7331036</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45409.08333333334</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>77</v>
+      </c>
+      <c r="H114" t="s">
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>163</v>
+      </c>
+      <c r="P114" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q114">
+        <v>5.72</v>
+      </c>
+      <c r="R114">
+        <v>2.25</v>
+      </c>
+      <c r="S114">
+        <v>2.28</v>
+      </c>
+      <c r="T114">
+        <v>1.42</v>
+      </c>
+      <c r="U114">
+        <v>2.88</v>
+      </c>
+      <c r="V114">
+        <v>3.08</v>
+      </c>
+      <c r="W114">
+        <v>1.37</v>
+      </c>
+      <c r="X114">
+        <v>7.2</v>
+      </c>
+      <c r="Y114">
+        <v>1.06</v>
+      </c>
+      <c r="Z114">
+        <v>4.33</v>
+      </c>
+      <c r="AA114">
+        <v>3.5</v>
+      </c>
+      <c r="AB114">
+        <v>1.73</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>8.4</v>
+      </c>
+      <c r="AE114">
+        <v>1.34</v>
+      </c>
+      <c r="AF114">
+        <v>3.26</v>
+      </c>
+      <c r="AG114">
+        <v>2</v>
+      </c>
+      <c r="AH114">
+        <v>1.75</v>
+      </c>
+      <c r="AI114">
+        <v>1.93</v>
+      </c>
+      <c r="AJ114">
+        <v>1.74</v>
+      </c>
+      <c r="AK114">
+        <v>2.08</v>
+      </c>
+      <c r="AL114">
+        <v>1.24</v>
+      </c>
+      <c r="AM114">
+        <v>1.14</v>
+      </c>
+      <c r="AN114">
+        <v>0.33</v>
+      </c>
+      <c r="AO114">
+        <v>2.2</v>
+      </c>
+      <c r="AP114">
+        <v>0.29</v>
+      </c>
+      <c r="AQ114">
+        <v>2.33</v>
+      </c>
+      <c r="AR114">
+        <v>1.14</v>
+      </c>
+      <c r="AS114">
+        <v>1.67</v>
+      </c>
+      <c r="AT114">
+        <v>2.81</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>5</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>9</v>
+      </c>
+      <c r="AZ114">
+        <v>9</v>
+      </c>
+      <c r="BA114">
+        <v>7</v>
+      </c>
+      <c r="BB114">
+        <v>2</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>3.01</v>
+      </c>
+      <c r="BE114">
+        <v>8.5</v>
+      </c>
+      <c r="BF114">
+        <v>1.55</v>
+      </c>
+      <c r="BG114">
+        <v>1.25</v>
+      </c>
+      <c r="BH114">
+        <v>3.6</v>
+      </c>
+      <c r="BI114">
+        <v>1.51</v>
+      </c>
+      <c r="BJ114">
+        <v>2.37</v>
+      </c>
+      <c r="BK114">
+        <v>2</v>
+      </c>
+      <c r="BL114">
+        <v>1.8</v>
+      </c>
+      <c r="BM114">
+        <v>2.47</v>
+      </c>
+      <c r="BN114">
+        <v>1.48</v>
+      </c>
+      <c r="BO114">
+        <v>2.9</v>
+      </c>
+      <c r="BP114">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7331037</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45409.12152777778</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s">
+        <v>86</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>164</v>
+      </c>
+      <c r="P115" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q115">
+        <v>3.5</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>2.8</v>
+      </c>
+      <c r="T115">
+        <v>1.4</v>
+      </c>
+      <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>2.75</v>
+      </c>
+      <c r="W115">
+        <v>1.4</v>
+      </c>
+      <c r="X115">
+        <v>6.8</v>
+      </c>
+      <c r="Y115">
+        <v>1.07</v>
+      </c>
+      <c r="Z115">
+        <v>1.62</v>
+      </c>
+      <c r="AA115">
+        <v>5.15</v>
+      </c>
+      <c r="AB115">
+        <v>3.35</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>9.1</v>
+      </c>
+      <c r="AE115">
+        <v>1.3</v>
+      </c>
+      <c r="AF115">
+        <v>3.3</v>
+      </c>
+      <c r="AG115">
+        <v>1.93</v>
+      </c>
+      <c r="AH115">
+        <v>1.93</v>
+      </c>
+      <c r="AI115">
+        <v>1.72</v>
+      </c>
+      <c r="AJ115">
+        <v>2.05</v>
+      </c>
+      <c r="AK115">
+        <v>1.55</v>
+      </c>
+      <c r="AL115">
+        <v>1.25</v>
+      </c>
+      <c r="AM115">
+        <v>1.3</v>
+      </c>
+      <c r="AN115">
+        <v>1.33</v>
+      </c>
+      <c r="AO115">
+        <v>2.33</v>
+      </c>
+      <c r="AP115">
+        <v>1.57</v>
+      </c>
+      <c r="AQ115">
+        <v>2</v>
+      </c>
+      <c r="AR115">
+        <v>1.32</v>
+      </c>
+      <c r="AS115">
+        <v>1.42</v>
+      </c>
+      <c r="AT115">
+        <v>2.74</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>8</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>16</v>
+      </c>
+      <c r="AY115">
+        <v>9</v>
+      </c>
+      <c r="AZ115">
+        <v>24</v>
+      </c>
+      <c r="BA115">
+        <v>11</v>
+      </c>
+      <c r="BB115">
+        <v>12</v>
+      </c>
+      <c r="BC115">
+        <v>23</v>
+      </c>
+      <c r="BD115">
+        <v>2.66</v>
+      </c>
+      <c r="BE115">
+        <v>8.5</v>
+      </c>
+      <c r="BF115">
+        <v>1.64</v>
+      </c>
+      <c r="BG115">
+        <v>1.18</v>
+      </c>
+      <c r="BH115">
+        <v>4.33</v>
+      </c>
+      <c r="BI115">
+        <v>1.41</v>
+      </c>
+      <c r="BJ115">
+        <v>2.7</v>
+      </c>
+      <c r="BK115">
+        <v>1.73</v>
+      </c>
+      <c r="BL115">
+        <v>1.99</v>
+      </c>
+      <c r="BM115">
+        <v>2.2</v>
+      </c>
+      <c r="BN115">
+        <v>1.6</v>
+      </c>
+      <c r="BO115">
+        <v>2.95</v>
+      </c>
+      <c r="BP115">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7331039</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45410.04166666666</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
+        <v>79</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>165</v>
+      </c>
+      <c r="P116" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>2.1</v>
+      </c>
+      <c r="S116">
+        <v>3.75</v>
+      </c>
+      <c r="T116">
+        <v>1.44</v>
+      </c>
+      <c r="U116">
+        <v>2.63</v>
+      </c>
+      <c r="V116">
+        <v>3.25</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>9</v>
+      </c>
+      <c r="Y116">
+        <v>1.07</v>
+      </c>
+      <c r="Z116">
+        <v>2.3</v>
+      </c>
+      <c r="AA116">
+        <v>3.1</v>
+      </c>
+      <c r="AB116">
+        <v>2.7</v>
+      </c>
+      <c r="AC116">
+        <v>1.07</v>
+      </c>
+      <c r="AD116">
+        <v>7.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.33</v>
+      </c>
+      <c r="AF116">
+        <v>3.1</v>
+      </c>
+      <c r="AG116">
+        <v>2.05</v>
+      </c>
+      <c r="AH116">
+        <v>1.7</v>
+      </c>
+      <c r="AI116">
+        <v>1.83</v>
+      </c>
+      <c r="AJ116">
+        <v>1.83</v>
+      </c>
+      <c r="AK116">
+        <v>1.33</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.5</v>
+      </c>
+      <c r="AN116">
+        <v>0.83</v>
+      </c>
+      <c r="AO116">
+        <v>1.4</v>
+      </c>
+      <c r="AP116">
+        <v>0.71</v>
+      </c>
+      <c r="AQ116">
+        <v>1.67</v>
+      </c>
+      <c r="AR116">
+        <v>1.7</v>
+      </c>
+      <c r="AS116">
+        <v>1.53</v>
+      </c>
+      <c r="AT116">
+        <v>3.23</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>5</v>
+      </c>
+      <c r="AX116">
+        <v>4</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>8</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>1</v>
+      </c>
+      <c r="BC116">
+        <v>6</v>
+      </c>
+      <c r="BD116">
+        <v>1.85</v>
+      </c>
+      <c r="BE116">
+        <v>8</v>
+      </c>
+      <c r="BF116">
+        <v>2.28</v>
+      </c>
+      <c r="BG116">
+        <v>1.3</v>
+      </c>
+      <c r="BH116">
+        <v>3.2</v>
+      </c>
+      <c r="BI116">
+        <v>1.48</v>
+      </c>
+      <c r="BJ116">
+        <v>2.47</v>
+      </c>
+      <c r="BK116">
+        <v>2</v>
+      </c>
+      <c r="BL116">
+        <v>1.8</v>
+      </c>
+      <c r="BM116">
+        <v>2.47</v>
+      </c>
+      <c r="BN116">
+        <v>1.48</v>
+      </c>
+      <c r="BO116">
+        <v>3.35</v>
+      </c>
+      <c r="BP116">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7331038</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45410.04166666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>75</v>
+      </c>
+      <c r="H117" t="s">
+        <v>81</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>92</v>
+      </c>
+      <c r="P117" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q117">
+        <v>3.75</v>
+      </c>
+      <c r="R117">
+        <v>2.1</v>
+      </c>
+      <c r="S117">
+        <v>3</v>
+      </c>
+      <c r="T117">
+        <v>1.44</v>
+      </c>
+      <c r="U117">
+        <v>2.63</v>
+      </c>
+      <c r="V117">
+        <v>3.25</v>
+      </c>
+      <c r="W117">
+        <v>1.33</v>
+      </c>
+      <c r="X117">
+        <v>9</v>
+      </c>
+      <c r="Y117">
+        <v>1.07</v>
+      </c>
+      <c r="Z117">
+        <v>2.75</v>
+      </c>
+      <c r="AA117">
+        <v>3.2</v>
+      </c>
+      <c r="AB117">
+        <v>2.25</v>
+      </c>
+      <c r="AC117">
+        <v>1.07</v>
+      </c>
+      <c r="AD117">
+        <v>7.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.33</v>
+      </c>
+      <c r="AF117">
+        <v>3.1</v>
+      </c>
+      <c r="AG117">
+        <v>2</v>
+      </c>
+      <c r="AH117">
+        <v>1.7</v>
+      </c>
+      <c r="AI117">
+        <v>1.83</v>
+      </c>
+      <c r="AJ117">
+        <v>1.83</v>
+      </c>
+      <c r="AK117">
+        <v>1.53</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>1.3</v>
+      </c>
+      <c r="AN117">
+        <v>2.4</v>
+      </c>
+      <c r="AO117">
+        <v>2</v>
+      </c>
+      <c r="AP117">
+        <v>2</v>
+      </c>
+      <c r="AQ117">
+        <v>2.14</v>
+      </c>
+      <c r="AR117">
+        <v>1.67</v>
+      </c>
+      <c r="AS117">
+        <v>1.38</v>
+      </c>
+      <c r="AT117">
+        <v>3.05</v>
+      </c>
+      <c r="AU117">
+        <v>2</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>1</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>3</v>
+      </c>
+      <c r="AZ117">
+        <v>11</v>
+      </c>
+      <c r="BA117">
+        <v>6</v>
+      </c>
+      <c r="BB117">
+        <v>7</v>
+      </c>
+      <c r="BC117">
+        <v>13</v>
+      </c>
+      <c r="BD117">
+        <v>1.91</v>
+      </c>
+      <c r="BE117">
+        <v>8</v>
+      </c>
+      <c r="BF117">
+        <v>2.1</v>
+      </c>
+      <c r="BG117">
+        <v>1.29</v>
+      </c>
+      <c r="BH117">
+        <v>3.3</v>
+      </c>
+      <c r="BI117">
+        <v>1.5</v>
+      </c>
+      <c r="BJ117">
+        <v>2.4</v>
+      </c>
+      <c r="BK117">
+        <v>1.9</v>
+      </c>
+      <c r="BL117">
+        <v>1.9</v>
+      </c>
+      <c r="BM117">
+        <v>2.4</v>
+      </c>
+      <c r="BN117">
+        <v>1.5</v>
+      </c>
+      <c r="BO117">
+        <v>3.2</v>
+      </c>
+      <c r="BP117">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7331042</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s">
+        <v>88</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>166</v>
+      </c>
+      <c r="P118" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>2.88</v>
+      </c>
+      <c r="T118">
+        <v>1.44</v>
+      </c>
+      <c r="U118">
+        <v>2.63</v>
+      </c>
+      <c r="V118">
+        <v>3.25</v>
+      </c>
+      <c r="W118">
+        <v>1.33</v>
+      </c>
+      <c r="X118">
+        <v>9</v>
+      </c>
+      <c r="Y118">
+        <v>1.07</v>
+      </c>
+      <c r="Z118">
+        <v>4.12</v>
+      </c>
+      <c r="AA118">
+        <v>2.02</v>
+      </c>
+      <c r="AB118">
+        <v>2.69</v>
+      </c>
+      <c r="AC118">
+        <v>1.07</v>
+      </c>
+      <c r="AD118">
+        <v>7.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.36</v>
+      </c>
+      <c r="AF118">
+        <v>3</v>
+      </c>
+      <c r="AG118">
+        <v>2</v>
+      </c>
+      <c r="AH118">
+        <v>1.65</v>
+      </c>
+      <c r="AI118">
+        <v>1.83</v>
+      </c>
+      <c r="AJ118">
+        <v>1.83</v>
+      </c>
+      <c r="AK118">
+        <v>1.57</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.28</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>1.17</v>
+      </c>
+      <c r="AP118">
+        <v>0.5</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
+        <v>1.36</v>
+      </c>
+      <c r="AS118">
+        <v>1.35</v>
+      </c>
+      <c r="AT118">
+        <v>2.71</v>
+      </c>
+      <c r="AU118">
+        <v>7</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>10</v>
+      </c>
+      <c r="AX118">
+        <v>1</v>
+      </c>
+      <c r="AY118">
+        <v>17</v>
+      </c>
+      <c r="AZ118">
+        <v>5</v>
+      </c>
+      <c r="BA118">
+        <v>13</v>
+      </c>
+      <c r="BB118">
+        <v>2</v>
+      </c>
+      <c r="BC118">
+        <v>15</v>
+      </c>
+      <c r="BD118">
+        <v>2.39</v>
+      </c>
+      <c r="BE118">
+        <v>8</v>
+      </c>
+      <c r="BF118">
+        <v>1.82</v>
+      </c>
+      <c r="BG118">
+        <v>1.3</v>
+      </c>
+      <c r="BH118">
+        <v>3.2</v>
+      </c>
+      <c r="BI118">
+        <v>1.48</v>
+      </c>
+      <c r="BJ118">
+        <v>2.47</v>
+      </c>
+      <c r="BK118">
+        <v>1.98</v>
+      </c>
+      <c r="BL118">
+        <v>1.82</v>
+      </c>
+      <c r="BM118">
+        <v>2.47</v>
+      </c>
+      <c r="BN118">
+        <v>1.48</v>
+      </c>
+      <c r="BO118">
+        <v>3.2</v>
+      </c>
+      <c r="BP118">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7331043</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
+      <c r="H119" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>92</v>
+      </c>
+      <c r="P119" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q119">
+        <v>3.25</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>3.4</v>
+      </c>
+      <c r="T119">
+        <v>1.44</v>
+      </c>
+      <c r="U119">
+        <v>2.63</v>
+      </c>
+      <c r="V119">
+        <v>3.25</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>9</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>2.26</v>
+      </c>
+      <c r="AA119">
+        <v>2.98</v>
+      </c>
+      <c r="AB119">
+        <v>3.04</v>
+      </c>
+      <c r="AC119">
+        <v>1.07</v>
+      </c>
+      <c r="AD119">
+        <v>7.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.33</v>
+      </c>
+      <c r="AF119">
+        <v>3.1</v>
+      </c>
+      <c r="AG119">
+        <v>1.95</v>
+      </c>
+      <c r="AH119">
+        <v>1.7</v>
+      </c>
+      <c r="AI119">
+        <v>1.83</v>
+      </c>
+      <c r="AJ119">
+        <v>1.83</v>
+      </c>
+      <c r="AK119">
+        <v>1.38</v>
+      </c>
+      <c r="AL119">
+        <v>1.28</v>
+      </c>
+      <c r="AM119">
+        <v>1.42</v>
+      </c>
+      <c r="AN119">
+        <v>1.8</v>
+      </c>
+      <c r="AO119">
+        <v>1.6</v>
+      </c>
+      <c r="AP119">
+        <v>1.5</v>
+      </c>
+      <c r="AQ119">
+        <v>1.83</v>
+      </c>
+      <c r="AR119">
+        <v>1.25</v>
+      </c>
+      <c r="AS119">
+        <v>1.47</v>
+      </c>
+      <c r="AT119">
+        <v>2.72</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>6</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>9</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
+      <c r="BB119">
+        <v>2</v>
+      </c>
+      <c r="BC119">
+        <v>7</v>
+      </c>
+      <c r="BD119">
+        <v>1.91</v>
+      </c>
+      <c r="BE119">
+        <v>8</v>
+      </c>
+      <c r="BF119">
+        <v>2.2</v>
+      </c>
+      <c r="BG119">
+        <v>1.25</v>
+      </c>
+      <c r="BH119">
+        <v>3.6</v>
+      </c>
+      <c r="BI119">
+        <v>1.48</v>
+      </c>
+      <c r="BJ119">
+        <v>2.47</v>
+      </c>
+      <c r="BK119">
+        <v>2</v>
+      </c>
+      <c r="BL119">
+        <v>1.8</v>
+      </c>
+      <c r="BM119">
+        <v>2.47</v>
+      </c>
+      <c r="BN119">
+        <v>1.48</v>
+      </c>
+      <c r="BO119">
+        <v>3</v>
+      </c>
+      <c r="BP119">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7331040</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>89</v>
+      </c>
+      <c r="H120" t="s">
+        <v>71</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>92</v>
+      </c>
+      <c r="P120" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
+        <v>3.1</v>
+      </c>
+      <c r="T120">
+        <v>1.57</v>
+      </c>
+      <c r="U120">
+        <v>2.25</v>
+      </c>
+      <c r="V120">
+        <v>3.75</v>
+      </c>
+      <c r="W120">
+        <v>1.25</v>
+      </c>
+      <c r="X120">
+        <v>11</v>
+      </c>
+      <c r="Y120">
+        <v>1.05</v>
+      </c>
+      <c r="Z120">
+        <v>1.59</v>
+      </c>
+      <c r="AA120">
+        <v>5.5</v>
+      </c>
+      <c r="AB120">
+        <v>3.34</v>
+      </c>
+      <c r="AC120">
+        <v>1.09</v>
+      </c>
+      <c r="AD120">
+        <v>6.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.47</v>
+      </c>
+      <c r="AF120">
+        <v>2.55</v>
+      </c>
+      <c r="AG120">
+        <v>2.37</v>
+      </c>
+      <c r="AH120">
+        <v>1.48</v>
+      </c>
+      <c r="AI120">
+        <v>2.2</v>
+      </c>
+      <c r="AJ120">
+        <v>1.62</v>
+      </c>
+      <c r="AK120">
+        <v>1.53</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.28</v>
+      </c>
+      <c r="AN120">
+        <v>1.8</v>
+      </c>
+      <c r="AO120">
+        <v>1.4</v>
+      </c>
+      <c r="AP120">
+        <v>1.5</v>
+      </c>
+      <c r="AQ120">
+        <v>1.67</v>
+      </c>
+      <c r="AR120">
+        <v>1.43</v>
+      </c>
+      <c r="AS120">
+        <v>1.66</v>
+      </c>
+      <c r="AT120">
+        <v>3.09</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>10</v>
+      </c>
+      <c r="AX120">
+        <v>8</v>
+      </c>
+      <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
+        <v>13</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>6</v>
+      </c>
+      <c r="BD120">
+        <v>2.54</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>1.69</v>
+      </c>
+      <c r="BG120">
+        <v>1.22</v>
+      </c>
+      <c r="BH120">
+        <v>3.8</v>
+      </c>
+      <c r="BI120">
+        <v>1.43</v>
+      </c>
+      <c r="BJ120">
+        <v>2.62</v>
+      </c>
+      <c r="BK120">
+        <v>1.73</v>
+      </c>
+      <c r="BL120">
+        <v>1.99</v>
+      </c>
+      <c r="BM120">
+        <v>2.22</v>
+      </c>
+      <c r="BN120">
+        <v>1.59</v>
+      </c>
+      <c r="BO120">
+        <v>2.95</v>
+      </c>
+      <c r="BP120">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7331041</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45410.08333333334</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H121" t="s">
+        <v>83</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>92</v>
+      </c>
+      <c r="P121" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q121">
+        <v>4.5</v>
+      </c>
+      <c r="R121">
+        <v>2.05</v>
+      </c>
+      <c r="S121">
+        <v>2.75</v>
+      </c>
+      <c r="T121">
+        <v>1.44</v>
+      </c>
+      <c r="U121">
+        <v>2.63</v>
+      </c>
+      <c r="V121">
+        <v>3.4</v>
+      </c>
+      <c r="W121">
+        <v>1.3</v>
+      </c>
+      <c r="X121">
+        <v>10</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>3.89</v>
+      </c>
+      <c r="AA121">
+        <v>4.11</v>
+      </c>
+      <c r="AB121">
+        <v>1.64</v>
+      </c>
+      <c r="AC121">
+        <v>1.08</v>
+      </c>
+      <c r="AD121">
+        <v>7</v>
+      </c>
+      <c r="AE121">
+        <v>1.4</v>
+      </c>
+      <c r="AF121">
+        <v>2.8</v>
+      </c>
+      <c r="AG121">
+        <v>2.1</v>
+      </c>
+      <c r="AH121">
+        <v>1.6</v>
+      </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.73</v>
+      </c>
+      <c r="AK121">
+        <v>1.68</v>
+      </c>
+      <c r="AL121">
+        <v>1.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.2</v>
+      </c>
+      <c r="AN121">
+        <v>1.6</v>
+      </c>
+      <c r="AO121">
+        <v>1.33</v>
+      </c>
+      <c r="AP121">
+        <v>1.33</v>
+      </c>
+      <c r="AQ121">
+        <v>1.57</v>
+      </c>
+      <c r="AR121">
+        <v>1.06</v>
+      </c>
+      <c r="AS121">
+        <v>1.6</v>
+      </c>
+      <c r="AT121">
+        <v>2.66</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>5</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
+      <c r="AZ121">
+        <v>7</v>
+      </c>
+      <c r="BA121">
+        <v>4</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>6</v>
+      </c>
+      <c r="BD121">
+        <v>2.77</v>
+      </c>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>1.64</v>
+      </c>
+      <c r="BG121">
+        <v>1.2</v>
+      </c>
+      <c r="BH121">
+        <v>4</v>
+      </c>
+      <c r="BI121">
+        <v>1.48</v>
+      </c>
+      <c r="BJ121">
+        <v>2.47</v>
+      </c>
+      <c r="BK121">
+        <v>1.88</v>
+      </c>
+      <c r="BL121">
+        <v>1.92</v>
+      </c>
+      <c r="BM121">
+        <v>2.37</v>
+      </c>
+      <c r="BN121">
+        <v>1.51</v>
+      </c>
+      <c r="BO121">
+        <v>3.3</v>
+      </c>
+      <c r="BP121">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>
